--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>255.4</v>
+        <v>257.4</v>
       </c>
       <c r="C2" t="n">
-        <v>255.4</v>
+        <v>257.4</v>
       </c>
       <c r="D2" t="n">
-        <v>255.4</v>
+        <v>257.4</v>
       </c>
       <c r="E2" t="n">
-        <v>255.4</v>
+        <v>257.4</v>
       </c>
       <c r="F2" t="n">
-        <v>28.0802</v>
+        <v>76.995</v>
       </c>
       <c r="G2" t="n">
-        <v>255.6533333333333</v>
+        <v>255.7983333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>255.4</v>
       </c>
       <c r="C3" t="n">
-        <v>257</v>
+        <v>255.4</v>
       </c>
       <c r="D3" t="n">
-        <v>257</v>
+        <v>255.4</v>
       </c>
       <c r="E3" t="n">
-        <v>257</v>
+        <v>255.4</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3379</v>
+        <v>28.0802</v>
       </c>
       <c r="G3" t="n">
-        <v>255.57</v>
+        <v>255.6533333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>255.9</v>
+        <v>257</v>
       </c>
       <c r="C4" t="n">
-        <v>256.1</v>
+        <v>257</v>
       </c>
       <c r="D4" t="n">
-        <v>256.2</v>
+        <v>257</v>
       </c>
       <c r="E4" t="n">
-        <v>255.9</v>
+        <v>257</v>
       </c>
       <c r="F4" t="n">
-        <v>9141.413500000001</v>
+        <v>12.3379</v>
       </c>
       <c r="G4" t="n">
-        <v>255.475</v>
+        <v>255.57</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>256.3</v>
+        <v>255.9</v>
       </c>
       <c r="C5" t="n">
-        <v>259</v>
+        <v>256.1</v>
       </c>
       <c r="D5" t="n">
-        <v>259</v>
+        <v>256.2</v>
       </c>
       <c r="E5" t="n">
-        <v>256.3</v>
+        <v>255.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1537.7415</v>
+        <v>9141.413500000001</v>
       </c>
       <c r="G5" t="n">
-        <v>255.5166666666666</v>
+        <v>255.475</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>259</v>
+        <v>256.3</v>
       </c>
       <c r="C6" t="n">
         <v>259</v>
@@ -582,13 +582,13 @@
         <v>259</v>
       </c>
       <c r="E6" t="n">
-        <v>259</v>
+        <v>256.3</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9123</v>
+        <v>1537.7415</v>
       </c>
       <c r="G6" t="n">
-        <v>255.465</v>
+        <v>255.5166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="D7" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>259.2</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>46.1041</v>
+        <v>21.9123</v>
       </c>
       <c r="G7" t="n">
-        <v>255.485</v>
+        <v>255.465</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>260.1</v>
+        <v>259.2</v>
       </c>
       <c r="C8" t="n">
-        <v>258</v>
+        <v>259.2</v>
       </c>
       <c r="D8" t="n">
-        <v>260.1</v>
+        <v>259.2</v>
       </c>
       <c r="E8" t="n">
-        <v>258</v>
+        <v>259.2</v>
       </c>
       <c r="F8" t="n">
-        <v>9635.504800000001</v>
+        <v>46.1041</v>
       </c>
       <c r="G8" t="n">
-        <v>255.5183333333333</v>
+        <v>255.485</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="C9" t="n">
-        <v>258.4</v>
+        <v>258</v>
       </c>
       <c r="D9" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="E9" t="n">
-        <v>258.4</v>
+        <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>2096.4355</v>
+        <v>9635.504800000001</v>
       </c>
       <c r="G9" t="n">
-        <v>255.5583333333333</v>
+        <v>255.5183333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>258.3</v>
+        <v>259</v>
       </c>
       <c r="C10" t="n">
-        <v>259.5</v>
+        <v>258.4</v>
       </c>
       <c r="D10" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="E10" t="n">
-        <v>258.3</v>
+        <v>258.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1474.6855</v>
+        <v>2096.4355</v>
       </c>
       <c r="G10" t="n">
-        <v>255.585</v>
+        <v>255.5583333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>258.3</v>
       </c>
       <c r="C11" t="n">
-        <v>260.2</v>
+        <v>259.5</v>
       </c>
       <c r="D11" t="n">
-        <v>262.6</v>
+        <v>259.5</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>258.3</v>
       </c>
       <c r="F11" t="n">
-        <v>4188.85</v>
+        <v>1474.6855</v>
       </c>
       <c r="G11" t="n">
-        <v>255.6133333333333</v>
+        <v>255.585</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" t="n">
         <v>260.2</v>
       </c>
       <c r="D12" t="n">
-        <v>261</v>
+        <v>262.6</v>
       </c>
       <c r="E12" t="n">
-        <v>260.2</v>
+        <v>260</v>
       </c>
       <c r="F12" t="n">
-        <v>58.8122</v>
+        <v>4188.85</v>
       </c>
       <c r="G12" t="n">
-        <v>255.6416666666667</v>
+        <v>255.6133333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261.3</v>
+        <v>261</v>
       </c>
       <c r="C13" t="n">
-        <v>262</v>
+        <v>260.2</v>
       </c>
       <c r="D13" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13" t="n">
-        <v>261.3</v>
+        <v>260.2</v>
       </c>
       <c r="F13" t="n">
-        <v>174</v>
+        <v>58.8122</v>
       </c>
       <c r="G13" t="n">
-        <v>255.7033333333333</v>
+        <v>255.6416666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>261.4</v>
+        <v>261.3</v>
       </c>
       <c r="C14" t="n">
-        <v>259.1</v>
+        <v>262</v>
       </c>
       <c r="D14" t="n">
-        <v>261.4</v>
+        <v>262</v>
       </c>
       <c r="E14" t="n">
-        <v>259.1</v>
+        <v>261.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1160.597</v>
+        <v>174</v>
       </c>
       <c r="G14" t="n">
-        <v>255.7016666666667</v>
+        <v>255.7033333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>259.6</v>
+        <v>261.4</v>
       </c>
       <c r="C15" t="n">
-        <v>260.1</v>
+        <v>259.1</v>
       </c>
       <c r="D15" t="n">
-        <v>261</v>
+        <v>261.4</v>
       </c>
       <c r="E15" t="n">
-        <v>259.6</v>
+        <v>259.1</v>
       </c>
       <c r="F15" t="n">
-        <v>2509.7961</v>
+        <v>1160.597</v>
       </c>
       <c r="G15" t="n">
-        <v>255.705</v>
+        <v>255.7016666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260.3</v>
+        <v>259.6</v>
       </c>
       <c r="C16" t="n">
-        <v>263.7</v>
+        <v>260.1</v>
       </c>
       <c r="D16" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="E16" t="n">
-        <v>260.3</v>
+        <v>259.6</v>
       </c>
       <c r="F16" t="n">
-        <v>2643.2237</v>
+        <v>2509.7961</v>
       </c>
       <c r="G16" t="n">
-        <v>255.7683333333334</v>
+        <v>255.705</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="C17" t="n">
         <v>263.7</v>
       </c>
-      <c r="C17" t="n">
-        <v>261.2</v>
-      </c>
       <c r="D17" t="n">
-        <v>263.9</v>
+        <v>263.7</v>
       </c>
       <c r="E17" t="n">
-        <v>260.8</v>
+        <v>260.3</v>
       </c>
       <c r="F17" t="n">
-        <v>13713.5558</v>
+        <v>2643.2237</v>
       </c>
       <c r="G17" t="n">
-        <v>255.8183333333334</v>
+        <v>255.7683333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>262.4</v>
+        <v>263.7</v>
       </c>
       <c r="C18" t="n">
-        <v>262.4</v>
+        <v>261.2</v>
       </c>
       <c r="D18" t="n">
-        <v>262.4</v>
+        <v>263.9</v>
       </c>
       <c r="E18" t="n">
-        <v>262.4</v>
+        <v>260.8</v>
       </c>
       <c r="F18" t="n">
-        <v>139.0444</v>
+        <v>13713.5558</v>
       </c>
       <c r="G18" t="n">
-        <v>255.89</v>
+        <v>255.8183333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>262.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1387.385</v>
+        <v>139.0444</v>
       </c>
       <c r="G19" t="n">
-        <v>255.9933333333333</v>
+        <v>255.89</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>262.4</v>
       </c>
       <c r="F20" t="n">
-        <v>266.486</v>
+        <v>1387.385</v>
       </c>
       <c r="G20" t="n">
-        <v>256.1116666666667</v>
+        <v>255.9933333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>263.8</v>
+        <v>262.4</v>
       </c>
       <c r="C21" t="n">
-        <v>266</v>
+        <v>262.4</v>
       </c>
       <c r="D21" t="n">
-        <v>266</v>
+        <v>262.4</v>
       </c>
       <c r="E21" t="n">
-        <v>263.8</v>
+        <v>262.4</v>
       </c>
       <c r="F21" t="n">
-        <v>403.3406</v>
+        <v>266.486</v>
       </c>
       <c r="G21" t="n">
-        <v>256.31</v>
+        <v>256.1116666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>264.4</v>
+        <v>263.8</v>
       </c>
       <c r="C22" t="n">
-        <v>264.4</v>
+        <v>266</v>
       </c>
       <c r="D22" t="n">
-        <v>264.4</v>
+        <v>266</v>
       </c>
       <c r="E22" t="n">
-        <v>264.4</v>
+        <v>263.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1740.938</v>
+        <v>403.3406</v>
       </c>
       <c r="G22" t="n">
-        <v>256.4666666666666</v>
+        <v>256.31</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>264.1</v>
+        <v>264.4</v>
       </c>
       <c r="C23" t="n">
-        <v>266.1</v>
+        <v>264.4</v>
       </c>
       <c r="D23" t="n">
-        <v>267.7</v>
+        <v>264.4</v>
       </c>
       <c r="E23" t="n">
-        <v>264.1</v>
+        <v>264.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4535.5902</v>
+        <v>1740.938</v>
       </c>
       <c r="G23" t="n">
-        <v>256.6616666666667</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>267.7</v>
+        <v>264.1</v>
       </c>
       <c r="C24" t="n">
-        <v>265.4</v>
+        <v>266.1</v>
       </c>
       <c r="D24" t="n">
         <v>267.7</v>
       </c>
       <c r="E24" t="n">
-        <v>265.4</v>
+        <v>264.1</v>
       </c>
       <c r="F24" t="n">
-        <v>3118.1394</v>
+        <v>4535.5902</v>
       </c>
       <c r="G24" t="n">
-        <v>256.8516666666667</v>
+        <v>256.6616666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>267.5</v>
+        <v>267.7</v>
       </c>
       <c r="C25" t="n">
-        <v>267.9</v>
+        <v>265.4</v>
       </c>
       <c r="D25" t="n">
-        <v>267.9</v>
+        <v>267.7</v>
       </c>
       <c r="E25" t="n">
-        <v>265.6</v>
+        <v>265.4</v>
       </c>
       <c r="F25" t="n">
-        <v>1320.1059</v>
+        <v>3118.1394</v>
       </c>
       <c r="G25" t="n">
-        <v>257.0833333333333</v>
+        <v>256.8516666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>268.7</v>
+        <v>267.5</v>
       </c>
       <c r="C26" t="n">
-        <v>268.7</v>
+        <v>267.9</v>
       </c>
       <c r="D26" t="n">
-        <v>268.7</v>
+        <v>267.9</v>
       </c>
       <c r="E26" t="n">
-        <v>268.7</v>
+        <v>265.6</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3835</v>
+        <v>1320.1059</v>
       </c>
       <c r="G26" t="n">
-        <v>257.3283333333333</v>
+        <v>257.0833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266.2</v>
+        <v>268.7</v>
       </c>
       <c r="C27" t="n">
-        <v>265.4</v>
+        <v>268.7</v>
       </c>
       <c r="D27" t="n">
-        <v>266.2</v>
+        <v>268.7</v>
       </c>
       <c r="E27" t="n">
-        <v>265.4</v>
+        <v>268.7</v>
       </c>
       <c r="F27" t="n">
-        <v>804.617</v>
+        <v>166.3835</v>
       </c>
       <c r="G27" t="n">
-        <v>257.525</v>
+        <v>257.3283333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="C28" t="n">
         <v>265.4</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>266.2</v>
       </c>
-      <c r="D28" t="n">
-        <v>266.9</v>
-      </c>
       <c r="E28" t="n">
-        <v>265.3</v>
+        <v>265.4</v>
       </c>
       <c r="F28" t="n">
-        <v>3484.5059</v>
+        <v>804.617</v>
       </c>
       <c r="G28" t="n">
-        <v>257.76</v>
+        <v>257.525</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>266.9</v>
+        <v>265.4</v>
       </c>
       <c r="C29" t="n">
-        <v>266.1</v>
+        <v>266.2</v>
       </c>
       <c r="D29" t="n">
         <v>266.9</v>
       </c>
       <c r="E29" t="n">
-        <v>266.1</v>
+        <v>265.3</v>
       </c>
       <c r="F29" t="n">
-        <v>205.412</v>
+        <v>3484.5059</v>
       </c>
       <c r="G29" t="n">
-        <v>257.9833333333333</v>
+        <v>257.76</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>265.3</v>
+        <v>266.9</v>
       </c>
       <c r="C30" t="n">
-        <v>265.3</v>
+        <v>266.1</v>
       </c>
       <c r="D30" t="n">
-        <v>265.3</v>
+        <v>266.9</v>
       </c>
       <c r="E30" t="n">
-        <v>265.2</v>
+        <v>266.1</v>
       </c>
       <c r="F30" t="n">
-        <v>948.4063</v>
+        <v>205.412</v>
       </c>
       <c r="G30" t="n">
-        <v>258.2033333333333</v>
+        <v>257.9833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>268</v>
+        <v>265.3</v>
       </c>
       <c r="C31" t="n">
-        <v>268</v>
+        <v>265.3</v>
       </c>
       <c r="D31" t="n">
-        <v>268</v>
+        <v>265.3</v>
       </c>
       <c r="E31" t="n">
-        <v>268</v>
+        <v>265.2</v>
       </c>
       <c r="F31" t="n">
-        <v>576.4333</v>
+        <v>948.4063</v>
       </c>
       <c r="G31" t="n">
-        <v>258.47</v>
+        <v>258.2033333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>268</v>
       </c>
       <c r="F32" t="n">
-        <v>89.33</v>
+        <v>576.4333</v>
       </c>
       <c r="G32" t="n">
-        <v>258.7516666666667</v>
+        <v>258.47</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>266.3</v>
+        <v>268</v>
       </c>
       <c r="C33" t="n">
-        <v>266.2</v>
+        <v>268</v>
       </c>
       <c r="D33" t="n">
         <v>268</v>
       </c>
       <c r="E33" t="n">
-        <v>266.2</v>
+        <v>268</v>
       </c>
       <c r="F33" t="n">
-        <v>680</v>
+        <v>89.33</v>
       </c>
       <c r="G33" t="n">
-        <v>259.0166666666667</v>
+        <v>258.7516666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>266.3</v>
+      </c>
+      <c r="C34" t="n">
         <v>266.2</v>
       </c>
-      <c r="C34" t="n">
-        <v>265.3</v>
-      </c>
       <c r="D34" t="n">
-        <v>267.8</v>
+        <v>268</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3</v>
+        <v>266.2</v>
       </c>
       <c r="F34" t="n">
-        <v>1020.9705</v>
+        <v>680</v>
       </c>
       <c r="G34" t="n">
-        <v>259.2666666666667</v>
+        <v>259.0166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>265.3</v>
+        <v>266.2</v>
       </c>
       <c r="C35" t="n">
         <v>265.3</v>
       </c>
       <c r="D35" t="n">
-        <v>265.3</v>
+        <v>267.8</v>
       </c>
       <c r="E35" t="n">
         <v>265.3</v>
       </c>
       <c r="F35" t="n">
-        <v>26.09</v>
+        <v>1020.9705</v>
       </c>
       <c r="G35" t="n">
-        <v>259.4683333333333</v>
+        <v>259.2666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>267</v>
+        <v>265.3</v>
       </c>
       <c r="C36" t="n">
-        <v>267.9</v>
+        <v>265.3</v>
       </c>
       <c r="D36" t="n">
-        <v>267.9</v>
+        <v>265.3</v>
       </c>
       <c r="E36" t="n">
-        <v>267</v>
+        <v>265.3</v>
       </c>
       <c r="F36" t="n">
-        <v>351.5733</v>
+        <v>26.09</v>
       </c>
       <c r="G36" t="n">
-        <v>259.715</v>
+        <v>259.4683333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>267.7</v>
+        <v>267</v>
       </c>
       <c r="C37" t="n">
-        <v>267.7</v>
+        <v>267.9</v>
       </c>
       <c r="D37" t="n">
-        <v>267.7</v>
+        <v>267.9</v>
       </c>
       <c r="E37" t="n">
-        <v>267.7</v>
+        <v>267</v>
       </c>
       <c r="F37" t="n">
-        <v>227.795</v>
+        <v>351.5733</v>
       </c>
       <c r="G37" t="n">
-        <v>259.91</v>
+        <v>259.715</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>267.9</v>
+        <v>267.7</v>
       </c>
       <c r="C38" t="n">
-        <v>267.9</v>
+        <v>267.7</v>
       </c>
       <c r="D38" t="n">
-        <v>267.9</v>
+        <v>267.7</v>
       </c>
       <c r="E38" t="n">
-        <v>267.9</v>
+        <v>267.7</v>
       </c>
       <c r="F38" t="n">
-        <v>930.8546</v>
+        <v>227.795</v>
       </c>
       <c r="G38" t="n">
-        <v>260.1016666666666</v>
+        <v>259.91</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>267.9</v>
       </c>
       <c r="F39" t="n">
-        <v>774</v>
+        <v>930.8546</v>
       </c>
       <c r="G39" t="n">
-        <v>260.2933333333333</v>
+        <v>260.1016666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>266</v>
+        <v>267.9</v>
       </c>
       <c r="C40" t="n">
-        <v>266</v>
+        <v>267.9</v>
       </c>
       <c r="D40" t="n">
-        <v>266</v>
+        <v>267.9</v>
       </c>
       <c r="E40" t="n">
-        <v>266</v>
+        <v>267.9</v>
       </c>
       <c r="F40" t="n">
-        <v>67.7144</v>
+        <v>774</v>
       </c>
       <c r="G40" t="n">
-        <v>260.4533333333333</v>
+        <v>260.2933333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>266.6</v>
+        <v>266</v>
       </c>
       <c r="C41" t="n">
-        <v>266.6</v>
+        <v>266</v>
       </c>
       <c r="D41" t="n">
-        <v>266.6</v>
+        <v>266</v>
       </c>
       <c r="E41" t="n">
-        <v>266.6</v>
+        <v>266</v>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>67.7144</v>
       </c>
       <c r="G41" t="n">
-        <v>260.6466666666666</v>
+        <v>260.4533333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>266.6</v>
       </c>
       <c r="C42" t="n">
-        <v>268.9</v>
+        <v>266.6</v>
       </c>
       <c r="D42" t="n">
-        <v>268.9</v>
+        <v>266.6</v>
       </c>
       <c r="E42" t="n">
         <v>266.6</v>
       </c>
       <c r="F42" t="n">
-        <v>1656.02</v>
+        <v>250</v>
       </c>
       <c r="G42" t="n">
-        <v>260.8933333333333</v>
+        <v>260.6466666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>268.9</v>
+        <v>266.6</v>
       </c>
       <c r="C43" t="n">
         <v>268.9</v>
@@ -1877,13 +1877,13 @@
         <v>268.9</v>
       </c>
       <c r="E43" t="n">
-        <v>268.9</v>
+        <v>266.6</v>
       </c>
       <c r="F43" t="n">
-        <v>4145.4432</v>
+        <v>1656.02</v>
       </c>
       <c r="G43" t="n">
-        <v>261.1416666666667</v>
+        <v>260.8933333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="C44" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="D44" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="E44" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="F44" t="n">
-        <v>19.4203</v>
+        <v>4145.4432</v>
       </c>
       <c r="G44" t="n">
-        <v>261.3</v>
+        <v>261.1416666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>264</v>
       </c>
       <c r="C45" t="n">
-        <v>259.2</v>
+        <v>264</v>
       </c>
       <c r="D45" t="n">
         <v>264</v>
       </c>
       <c r="E45" t="n">
-        <v>259.2</v>
+        <v>264</v>
       </c>
       <c r="F45" t="n">
-        <v>802.3898</v>
+        <v>19.4203</v>
       </c>
       <c r="G45" t="n">
-        <v>261.365</v>
+        <v>261.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="C46" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="D46" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="E46" t="n">
-        <v>259</v>
+        <v>259.2</v>
       </c>
       <c r="F46" t="n">
-        <v>147.97</v>
+        <v>802.3898</v>
       </c>
       <c r="G46" t="n">
-        <v>261.415</v>
+        <v>261.365</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>255.4</v>
+        <v>259.1</v>
       </c>
       <c r="C47" t="n">
-        <v>255.4</v>
+        <v>259</v>
       </c>
       <c r="D47" t="n">
-        <v>255.4</v>
+        <v>259.1</v>
       </c>
       <c r="E47" t="n">
-        <v>255.4</v>
+        <v>259</v>
       </c>
       <c r="F47" t="n">
-        <v>110</v>
+        <v>147.97</v>
       </c>
       <c r="G47" t="n">
-        <v>261.405</v>
+        <v>261.415</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>254.4</v>
+        <v>255.4</v>
       </c>
       <c r="C48" t="n">
-        <v>256.9</v>
+        <v>255.4</v>
       </c>
       <c r="D48" t="n">
-        <v>257.2</v>
+        <v>255.4</v>
       </c>
       <c r="E48" t="n">
-        <v>254.1</v>
+        <v>255.4</v>
       </c>
       <c r="F48" t="n">
-        <v>8464.477800000001</v>
+        <v>110</v>
       </c>
       <c r="G48" t="n">
-        <v>261.4066666666666</v>
+        <v>261.405</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>257.1</v>
+        <v>254.4</v>
       </c>
       <c r="C49" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D49" t="n">
-        <v>260.1</v>
+        <v>257.2</v>
       </c>
       <c r="E49" t="n">
-        <v>256.9</v>
+        <v>254.1</v>
       </c>
       <c r="F49" t="n">
-        <v>1750</v>
+        <v>8464.477800000001</v>
       </c>
       <c r="G49" t="n">
-        <v>261.4633333333333</v>
+        <v>261.4066666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,32 +2113,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>258.1</v>
+        <v>257.1</v>
       </c>
       <c r="C50" t="n">
-        <v>258.1</v>
+        <v>260</v>
       </c>
       <c r="D50" t="n">
-        <v>258.1</v>
+        <v>260.1</v>
       </c>
       <c r="E50" t="n">
-        <v>258.1</v>
+        <v>256.9</v>
       </c>
       <c r="F50" t="n">
-        <v>155.97</v>
+        <v>1750</v>
       </c>
       <c r="G50" t="n">
-        <v>261.4966666666667</v>
+        <v>261.4633333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>256.9</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2154,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>258.3</v>
+        <v>258.1</v>
       </c>
       <c r="C51" t="n">
-        <v>258</v>
+        <v>258.1</v>
       </c>
       <c r="D51" t="n">
-        <v>258.3</v>
+        <v>258.1</v>
       </c>
       <c r="E51" t="n">
-        <v>258</v>
+        <v>258.1</v>
       </c>
       <c r="F51" t="n">
-        <v>12959.2747</v>
+        <v>155.97</v>
       </c>
       <c r="G51" t="n">
-        <v>261.5283333333333</v>
+        <v>261.4966666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>260</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,32 +2195,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>260</v>
+        <v>258.3</v>
       </c>
       <c r="C52" t="n">
-        <v>260.1</v>
+        <v>258</v>
       </c>
       <c r="D52" t="n">
-        <v>261.9</v>
+        <v>258.3</v>
       </c>
       <c r="E52" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F52" t="n">
-        <v>2149.9779</v>
+        <v>12959.2747</v>
       </c>
       <c r="G52" t="n">
-        <v>261.6016666666666</v>
+        <v>261.5283333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>258.1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,32 +2236,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>263.7</v>
+        <v>260</v>
       </c>
       <c r="C53" t="n">
-        <v>263.7</v>
+        <v>260.1</v>
       </c>
       <c r="D53" t="n">
-        <v>263.7</v>
+        <v>261.9</v>
       </c>
       <c r="E53" t="n">
-        <v>263.7</v>
+        <v>260</v>
       </c>
       <c r="F53" t="n">
-        <v>589.3376</v>
+        <v>2149.9779</v>
       </c>
       <c r="G53" t="n">
-        <v>261.745</v>
+        <v>261.6016666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>258</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,19 +2280,19 @@
         <v>263.7</v>
       </c>
       <c r="C54" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="D54" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="E54" t="n">
         <v>263.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2451.6624</v>
+        <v>589.3376</v>
       </c>
       <c r="G54" t="n">
-        <v>261.93</v>
+        <v>261.745</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2302,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2316,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="C55" t="n">
         <v>265.1</v>
@@ -2297,13 +2325,13 @@
         <v>265.1</v>
       </c>
       <c r="E55" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="F55" t="n">
-        <v>1333.8532</v>
+        <v>2451.6624</v>
       </c>
       <c r="G55" t="n">
-        <v>262.145</v>
+        <v>261.93</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2341,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2355,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>266</v>
+        <v>265.1</v>
       </c>
       <c r="C56" t="n">
-        <v>266</v>
+        <v>265.1</v>
       </c>
       <c r="D56" t="n">
-        <v>266</v>
+        <v>265.1</v>
       </c>
       <c r="E56" t="n">
-        <v>266</v>
+        <v>265.1</v>
       </c>
       <c r="F56" t="n">
-        <v>71.81010000000001</v>
+        <v>1333.8532</v>
       </c>
       <c r="G56" t="n">
-        <v>262.3533333333333</v>
+        <v>262.145</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2380,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2394,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266.8</v>
+        <v>266</v>
       </c>
       <c r="C57" t="n">
-        <v>264.4</v>
+        <v>266</v>
       </c>
       <c r="D57" t="n">
-        <v>266.8</v>
+        <v>266</v>
       </c>
       <c r="E57" t="n">
-        <v>264.4</v>
+        <v>266</v>
       </c>
       <c r="F57" t="n">
-        <v>1137.6725</v>
+        <v>71.81010000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>262.5233333333333</v>
+        <v>262.3533333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2419,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2433,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>264</v>
+        <v>266.8</v>
       </c>
       <c r="C58" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="D58" t="n">
-        <v>264</v>
+        <v>266.8</v>
       </c>
       <c r="E58" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="F58" t="n">
-        <v>9.59</v>
+        <v>1137.6725</v>
       </c>
       <c r="G58" t="n">
-        <v>262.6616666666666</v>
+        <v>262.5233333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2458,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2472,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C59" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D59" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E59" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F59" t="n">
-        <v>1635</v>
+        <v>9.59</v>
       </c>
       <c r="G59" t="n">
-        <v>262.6966666666666</v>
+        <v>262.6616666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2497,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2511,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>260.8</v>
+        <v>261</v>
       </c>
       <c r="C60" t="n">
-        <v>260.2</v>
+        <v>258</v>
       </c>
       <c r="D60" t="n">
-        <v>260.8</v>
+        <v>261</v>
       </c>
       <c r="E60" t="n">
-        <v>260.2</v>
+        <v>258</v>
       </c>
       <c r="F60" t="n">
-        <v>13271.5276</v>
+        <v>1635</v>
       </c>
       <c r="G60" t="n">
-        <v>262.7666666666667</v>
+        <v>262.6966666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2536,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2550,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>260.3</v>
+        <v>260.8</v>
       </c>
       <c r="C61" t="n">
-        <v>260.3</v>
+        <v>260.2</v>
       </c>
       <c r="D61" t="n">
-        <v>260.3</v>
+        <v>260.8</v>
       </c>
       <c r="E61" t="n">
-        <v>260.3</v>
+        <v>260.2</v>
       </c>
       <c r="F61" t="n">
-        <v>15077.4092</v>
+        <v>13271.5276</v>
       </c>
       <c r="G61" t="n">
-        <v>262.8149999999999</v>
+        <v>262.7666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2575,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2601,10 @@
         <v>260.3</v>
       </c>
       <c r="F62" t="n">
-        <v>108.87</v>
+        <v>15077.4092</v>
       </c>
       <c r="G62" t="n">
-        <v>262.8966666666666</v>
+        <v>262.8149999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2614,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2640,10 @@
         <v>260.3</v>
       </c>
       <c r="F63" t="n">
-        <v>895.67</v>
+        <v>108.87</v>
       </c>
       <c r="G63" t="n">
-        <v>262.9516666666666</v>
+        <v>262.8966666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2653,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2679,10 @@
         <v>260.3</v>
       </c>
       <c r="F64" t="n">
-        <v>1258.3168</v>
+        <v>895.67</v>
       </c>
       <c r="G64" t="n">
-        <v>263.0216666666666</v>
+        <v>262.9516666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2692,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,32 +2706,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="C65" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="D65" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="E65" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="F65" t="n">
-        <v>48</v>
+        <v>1258.3168</v>
       </c>
       <c r="G65" t="n">
-        <v>263.1049999999999</v>
+        <v>263.0216666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>260.3</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2747,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C66" t="n">
-        <v>265.3</v>
+        <v>264</v>
       </c>
       <c r="D66" t="n">
-        <v>265.3</v>
+        <v>264</v>
       </c>
       <c r="E66" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F66" t="n">
-        <v>5659.450642404825</v>
+        <v>48</v>
       </c>
       <c r="G66" t="n">
-        <v>263.2099999999999</v>
+        <v>263.1049999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2772,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2786,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>264.7</v>
+        <v>265</v>
       </c>
       <c r="C67" t="n">
-        <v>264.7</v>
+        <v>265.3</v>
       </c>
       <c r="D67" t="n">
-        <v>264.7</v>
+        <v>265.3</v>
       </c>
       <c r="E67" t="n">
-        <v>264.7</v>
+        <v>265</v>
       </c>
       <c r="F67" t="n">
-        <v>5560.3245</v>
+        <v>5659.450642404825</v>
       </c>
       <c r="G67" t="n">
-        <v>263.3016666666666</v>
+        <v>263.2099999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2811,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2825,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>264.4</v>
+        <v>264.7</v>
       </c>
       <c r="C68" t="n">
-        <v>264.4</v>
+        <v>264.7</v>
       </c>
       <c r="D68" t="n">
-        <v>264.4</v>
+        <v>264.7</v>
       </c>
       <c r="E68" t="n">
-        <v>264.4</v>
+        <v>264.7</v>
       </c>
       <c r="F68" t="n">
-        <v>22.6957</v>
+        <v>5560.3245</v>
       </c>
       <c r="G68" t="n">
-        <v>263.4083333333332</v>
+        <v>263.3016666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2850,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2864,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>263.6</v>
+        <v>264.4</v>
       </c>
       <c r="C69" t="n">
-        <v>263.6</v>
+        <v>264.4</v>
       </c>
       <c r="D69" t="n">
-        <v>263.6</v>
+        <v>264.4</v>
       </c>
       <c r="E69" t="n">
-        <v>263.6</v>
+        <v>264.4</v>
       </c>
       <c r="F69" t="n">
-        <v>6034.8231</v>
+        <v>22.6957</v>
       </c>
       <c r="G69" t="n">
-        <v>263.4949999999999</v>
+        <v>263.4083333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2889,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2903,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>263.3</v>
+        <v>263.6</v>
       </c>
       <c r="C70" t="n">
-        <v>263.3</v>
+        <v>263.6</v>
       </c>
       <c r="D70" t="n">
-        <v>263.3</v>
+        <v>263.6</v>
       </c>
       <c r="E70" t="n">
-        <v>263.3</v>
+        <v>263.6</v>
       </c>
       <c r="F70" t="n">
-        <v>5556.3609</v>
+        <v>6034.8231</v>
       </c>
       <c r="G70" t="n">
-        <v>263.5583333333332</v>
+        <v>263.4949999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2928,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>260.1</v>
+        <v>263.3</v>
       </c>
       <c r="C71" t="n">
-        <v>260.1</v>
+        <v>263.3</v>
       </c>
       <c r="D71" t="n">
-        <v>260.1</v>
+        <v>263.3</v>
       </c>
       <c r="E71" t="n">
-        <v>260.1</v>
+        <v>263.3</v>
       </c>
       <c r="F71" t="n">
-        <v>3.9636</v>
+        <v>5556.3609</v>
       </c>
       <c r="G71" t="n">
-        <v>263.5566666666666</v>
+        <v>263.5583333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2967,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2981,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>259.1</v>
+        <v>260.1</v>
       </c>
       <c r="C72" t="n">
-        <v>259.1</v>
+        <v>260.1</v>
       </c>
       <c r="D72" t="n">
-        <v>259.1</v>
+        <v>260.1</v>
       </c>
       <c r="E72" t="n">
-        <v>259.1</v>
+        <v>260.1</v>
       </c>
       <c r="F72" t="n">
-        <v>162.8087</v>
+        <v>3.9636</v>
       </c>
       <c r="G72" t="n">
-        <v>263.5383333333332</v>
+        <v>263.5566666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3006,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2921,19 +3023,19 @@
         <v>259.1</v>
       </c>
       <c r="C73" t="n">
-        <v>258.4</v>
+        <v>259.1</v>
       </c>
       <c r="D73" t="n">
         <v>259.1</v>
       </c>
       <c r="E73" t="n">
-        <v>258.4</v>
+        <v>259.1</v>
       </c>
       <c r="F73" t="n">
-        <v>461.1128</v>
+        <v>162.8087</v>
       </c>
       <c r="G73" t="n">
-        <v>263.4783333333332</v>
+        <v>263.5383333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3045,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3059,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>259.4</v>
+        <v>259.1</v>
       </c>
       <c r="C74" t="n">
         <v>258.4</v>
       </c>
       <c r="D74" t="n">
-        <v>261</v>
+        <v>259.1</v>
       </c>
       <c r="E74" t="n">
         <v>258.4</v>
       </c>
       <c r="F74" t="n">
-        <v>1937.5605</v>
+        <v>461.1128</v>
       </c>
       <c r="G74" t="n">
-        <v>263.4666666666665</v>
+        <v>263.4783333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3084,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3098,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>258.5</v>
+        <v>259.4</v>
       </c>
       <c r="C75" t="n">
-        <v>258.5</v>
+        <v>258.4</v>
       </c>
       <c r="D75" t="n">
-        <v>258.5</v>
+        <v>261</v>
       </c>
       <c r="E75" t="n">
-        <v>258.5</v>
+        <v>258.4</v>
       </c>
       <c r="F75" t="n">
-        <v>1053.2845</v>
+        <v>1937.5605</v>
       </c>
       <c r="G75" t="n">
-        <v>263.4399999999999</v>
+        <v>263.4666666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3123,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3149,10 @@
         <v>258.5</v>
       </c>
       <c r="F76" t="n">
-        <v>14024.1247</v>
+        <v>1053.2845</v>
       </c>
       <c r="G76" t="n">
-        <v>263.3533333333332</v>
+        <v>263.4399999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3162,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3176,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>260</v>
+        <v>258.5</v>
       </c>
       <c r="C77" t="n">
-        <v>260</v>
+        <v>258.5</v>
       </c>
       <c r="D77" t="n">
-        <v>260</v>
+        <v>258.5</v>
       </c>
       <c r="E77" t="n">
-        <v>260</v>
+        <v>258.5</v>
       </c>
       <c r="F77" t="n">
-        <v>777.2731</v>
+        <v>14024.1247</v>
       </c>
       <c r="G77" t="n">
-        <v>263.3333333333332</v>
+        <v>263.3533333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3201,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3227,10 @@
         <v>260</v>
       </c>
       <c r="F78" t="n">
-        <v>322.8661</v>
+        <v>777.2731</v>
       </c>
       <c r="G78" t="n">
-        <v>263.2933333333332</v>
+        <v>263.3333333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3240,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3140,10 +3266,10 @@
         <v>260</v>
       </c>
       <c r="F79" t="n">
-        <v>48.6941</v>
+        <v>322.8661</v>
       </c>
       <c r="G79" t="n">
-        <v>263.2533333333332</v>
+        <v>263.2933333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3279,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3293,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="C80" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="D80" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="E80" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>4.9145</v>
+        <v>48.6941</v>
       </c>
       <c r="G80" t="n">
-        <v>263.2149999999999</v>
+        <v>263.2533333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3318,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3332,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>259.7</v>
+        <v>260.1</v>
       </c>
       <c r="C81" t="n">
-        <v>259.5</v>
+        <v>260.1</v>
       </c>
       <c r="D81" t="n">
-        <v>259.7</v>
+        <v>260.1</v>
       </c>
       <c r="E81" t="n">
-        <v>259.5</v>
+        <v>260.1</v>
       </c>
       <c r="F81" t="n">
-        <v>14586.3687</v>
+        <v>4.9145</v>
       </c>
       <c r="G81" t="n">
-        <v>263.1066666666665</v>
+        <v>263.2149999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3357,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3371,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>259.5</v>
+        <v>259.7</v>
       </c>
       <c r="C82" t="n">
         <v>259.5</v>
       </c>
       <c r="D82" t="n">
-        <v>259.5</v>
+        <v>259.7</v>
       </c>
       <c r="E82" t="n">
         <v>259.5</v>
       </c>
       <c r="F82" t="n">
-        <v>1992.92</v>
+        <v>14586.3687</v>
       </c>
       <c r="G82" t="n">
-        <v>263.0249999999999</v>
+        <v>263.1066666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3396,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3422,10 @@
         <v>259.5</v>
       </c>
       <c r="F83" t="n">
-        <v>368.31</v>
+        <v>1992.92</v>
       </c>
       <c r="G83" t="n">
-        <v>262.9149999999998</v>
+        <v>263.0249999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3435,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3315,10 +3461,10 @@
         <v>259.5</v>
       </c>
       <c r="F84" t="n">
-        <v>30.272</v>
+        <v>368.31</v>
       </c>
       <c r="G84" t="n">
-        <v>262.8166666666665</v>
+        <v>262.9149999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3474,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3488,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>258</v>
+        <v>259.5</v>
       </c>
       <c r="C85" t="n">
-        <v>258</v>
+        <v>259.5</v>
       </c>
       <c r="D85" t="n">
-        <v>258</v>
+        <v>259.5</v>
       </c>
       <c r="E85" t="n">
-        <v>258</v>
+        <v>259.5</v>
       </c>
       <c r="F85" t="n">
-        <v>476.9929</v>
+        <v>30.272</v>
       </c>
       <c r="G85" t="n">
-        <v>262.6516666666665</v>
+        <v>262.8166666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3513,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3539,10 @@
         <v>258</v>
       </c>
       <c r="F86" t="n">
-        <v>11.4459</v>
+        <v>476.9929</v>
       </c>
       <c r="G86" t="n">
-        <v>262.4733333333332</v>
+        <v>262.6516666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3552,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3578,10 @@
         <v>258</v>
       </c>
       <c r="F87" t="n">
-        <v>2.3019</v>
+        <v>11.4459</v>
       </c>
       <c r="G87" t="n">
-        <v>262.3499999999999</v>
+        <v>262.4733333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3591,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3605,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>255.7</v>
+        <v>258</v>
       </c>
       <c r="C88" t="n">
         <v>258</v>
@@ -3452,13 +3614,13 @@
         <v>258</v>
       </c>
       <c r="E88" t="n">
-        <v>255.6</v>
+        <v>258</v>
       </c>
       <c r="F88" t="n">
-        <v>17227.8707</v>
+        <v>2.3019</v>
       </c>
       <c r="G88" t="n">
-        <v>262.2133333333332</v>
+        <v>262.3499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3630,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3644,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>254</v>
+        <v>255.7</v>
       </c>
       <c r="C89" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D89" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E89" t="n">
-        <v>253</v>
+        <v>255.6</v>
       </c>
       <c r="F89" t="n">
-        <v>194.269</v>
+        <v>17227.8707</v>
       </c>
       <c r="G89" t="n">
-        <v>261.9949999999998</v>
+        <v>262.2133333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3669,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3683,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>252.9</v>
+        <v>254</v>
       </c>
       <c r="C90" t="n">
-        <v>252.9</v>
+        <v>253</v>
       </c>
       <c r="D90" t="n">
-        <v>252.9</v>
+        <v>254</v>
       </c>
       <c r="E90" t="n">
-        <v>252.9</v>
+        <v>253</v>
       </c>
       <c r="F90" t="n">
-        <v>72.3954</v>
+        <v>194.269</v>
       </c>
       <c r="G90" t="n">
-        <v>261.7883333333332</v>
+        <v>261.9949999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3708,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3722,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>251</v>
+        <v>252.9</v>
       </c>
       <c r="C91" t="n">
-        <v>248.3</v>
+        <v>252.9</v>
       </c>
       <c r="D91" t="n">
-        <v>251</v>
+        <v>252.9</v>
       </c>
       <c r="E91" t="n">
-        <v>248.3</v>
+        <v>252.9</v>
       </c>
       <c r="F91" t="n">
-        <v>9704.5995</v>
+        <v>72.3954</v>
       </c>
       <c r="G91" t="n">
-        <v>261.4599999999999</v>
+        <v>261.7883333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3747,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3761,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>251.6</v>
+        <v>251</v>
       </c>
       <c r="C92" t="n">
-        <v>251.6</v>
+        <v>248.3</v>
       </c>
       <c r="D92" t="n">
-        <v>251.6</v>
+        <v>251</v>
       </c>
       <c r="E92" t="n">
-        <v>251.6</v>
+        <v>248.3</v>
       </c>
       <c r="F92" t="n">
-        <v>129.52</v>
+        <v>9704.5995</v>
       </c>
       <c r="G92" t="n">
-        <v>261.1866666666666</v>
+        <v>261.4599999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3786,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3812,10 @@
         <v>251.6</v>
       </c>
       <c r="F93" t="n">
-        <v>85</v>
+        <v>129.52</v>
       </c>
       <c r="G93" t="n">
-        <v>260.9433333333332</v>
+        <v>261.1866666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3825,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3839,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>252</v>
+        <v>251.6</v>
       </c>
       <c r="C94" t="n">
-        <v>252</v>
+        <v>251.6</v>
       </c>
       <c r="D94" t="n">
-        <v>252</v>
+        <v>251.6</v>
       </c>
       <c r="E94" t="n">
-        <v>252</v>
+        <v>251.6</v>
       </c>
       <c r="F94" t="n">
-        <v>10.2982</v>
+        <v>85</v>
       </c>
       <c r="G94" t="n">
-        <v>260.7216666666665</v>
+        <v>260.9433333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3864,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3878,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>252.1</v>
+        <v>252</v>
       </c>
       <c r="C95" t="n">
-        <v>252.1</v>
+        <v>252</v>
       </c>
       <c r="D95" t="n">
-        <v>252.1</v>
+        <v>252</v>
       </c>
       <c r="E95" t="n">
-        <v>252.1</v>
+        <v>252</v>
       </c>
       <c r="F95" t="n">
-        <v>26</v>
+        <v>10.2982</v>
       </c>
       <c r="G95" t="n">
-        <v>260.5016666666666</v>
+        <v>260.7216666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3903,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3929,10 @@
         <v>252.1</v>
       </c>
       <c r="F96" t="n">
-        <v>5.05</v>
+        <v>26</v>
       </c>
       <c r="G96" t="n">
-        <v>260.2383333333332</v>
+        <v>260.5016666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3942,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +3968,10 @@
         <v>252.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1.015</v>
+        <v>5.05</v>
       </c>
       <c r="G97" t="n">
-        <v>259.9783333333332</v>
+        <v>260.2383333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3981,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,36 +3995,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>253.1</v>
+        <v>252.1</v>
       </c>
       <c r="C98" t="n">
-        <v>253.5</v>
+        <v>252.1</v>
       </c>
       <c r="D98" t="n">
-        <v>253.5</v>
+        <v>252.1</v>
       </c>
       <c r="E98" t="n">
-        <v>253.1</v>
+        <v>252.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1696.0109</v>
+        <v>1.015</v>
       </c>
       <c r="G98" t="n">
-        <v>259.7383333333332</v>
+        <v>259.9783333333332</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3832,38 +4034,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="C99" t="n">
         <v>253.5</v>
       </c>
-      <c r="C99" t="n">
-        <v>254.6</v>
-      </c>
       <c r="D99" t="n">
-        <v>255.9</v>
+        <v>253.5</v>
       </c>
       <c r="E99" t="n">
-        <v>253.5</v>
+        <v>253.1</v>
       </c>
       <c r="F99" t="n">
-        <v>3175.0666</v>
+        <v>1696.0109</v>
       </c>
       <c r="G99" t="n">
-        <v>259.5166666666666</v>
+        <v>259.7383333333332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>252.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3875,38 +4073,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>253.1</v>
+        <v>253.5</v>
       </c>
       <c r="C100" t="n">
-        <v>253.1</v>
+        <v>254.6</v>
       </c>
       <c r="D100" t="n">
-        <v>253.1</v>
+        <v>255.9</v>
       </c>
       <c r="E100" t="n">
-        <v>253.1</v>
+        <v>253.5</v>
       </c>
       <c r="F100" t="n">
-        <v>243</v>
+        <v>3175.0666</v>
       </c>
       <c r="G100" t="n">
-        <v>259.3016666666666</v>
+        <v>259.5166666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>254.6</v>
-      </c>
-      <c r="K100" t="n">
-        <v>252.1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3918,22 +4112,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>254</v>
+        <v>253.1</v>
       </c>
       <c r="C101" t="n">
-        <v>254</v>
+        <v>253.1</v>
       </c>
       <c r="D101" t="n">
-        <v>254</v>
+        <v>253.1</v>
       </c>
       <c r="E101" t="n">
-        <v>254</v>
+        <v>253.1</v>
       </c>
       <c r="F101" t="n">
-        <v>174.53</v>
+        <v>243</v>
       </c>
       <c r="G101" t="n">
-        <v>259.0916666666666</v>
+        <v>259.3016666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,7 +4137,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3965,24 +4163,24 @@
         <v>254</v>
       </c>
       <c r="F102" t="n">
-        <v>174</v>
+        <v>174.53</v>
       </c>
       <c r="G102" t="n">
-        <v>258.8433333333332</v>
+        <v>259.0916666666666</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>254</v>
-      </c>
-      <c r="K102" t="n">
-        <v>254</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +4190,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F103" t="n">
-        <v>10.6067</v>
+        <v>174</v>
       </c>
       <c r="G103" t="n">
-        <v>258.6449999999999</v>
+        <v>258.8433333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4016,12 +4214,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>254</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4045,10 +4241,10 @@
         <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>10.6067</v>
       </c>
       <c r="G104" t="n">
-        <v>258.5283333333333</v>
+        <v>258.6449999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4057,12 +4253,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>254</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -4074,22 +4268,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="C105" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="D105" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="E105" t="n">
-        <v>256.5</v>
+        <v>257</v>
       </c>
       <c r="F105" t="n">
-        <v>3368.3085</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>258.4833333333332</v>
+        <v>258.5283333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4099,7 +4293,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +4307,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>255</v>
+        <v>256.5</v>
       </c>
       <c r="C106" t="n">
-        <v>255</v>
+        <v>256.5</v>
       </c>
       <c r="D106" t="n">
-        <v>255</v>
+        <v>256.5</v>
       </c>
       <c r="E106" t="n">
-        <v>255</v>
+        <v>256.5</v>
       </c>
       <c r="F106" t="n">
-        <v>845.1004</v>
+        <v>3368.3085</v>
       </c>
       <c r="G106" t="n">
-        <v>258.4166666666666</v>
+        <v>258.4833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4134,7 +4332,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4346,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="C107" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D107" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="E107" t="n">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="F107" t="n">
-        <v>1432.98</v>
+        <v>845.1004</v>
       </c>
       <c r="G107" t="n">
-        <v>258.4016666666666</v>
+        <v>258.4166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4169,7 +4371,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4385,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>257.3</v>
+        <v>254.5</v>
       </c>
       <c r="C108" t="n">
-        <v>257.3</v>
+        <v>254.5</v>
       </c>
       <c r="D108" t="n">
-        <v>257.3</v>
+        <v>254.5</v>
       </c>
       <c r="E108" t="n">
-        <v>257.3</v>
+        <v>254.5</v>
       </c>
       <c r="F108" t="n">
-        <v>223.5405</v>
+        <v>1432.98</v>
       </c>
       <c r="G108" t="n">
-        <v>258.4083333333332</v>
+        <v>258.4016666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4204,7 +4410,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4424,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>259</v>
+        <v>257.3</v>
       </c>
       <c r="C109" t="n">
-        <v>259</v>
+        <v>257.3</v>
       </c>
       <c r="D109" t="n">
-        <v>259</v>
+        <v>257.3</v>
       </c>
       <c r="E109" t="n">
-        <v>259</v>
+        <v>257.3</v>
       </c>
       <c r="F109" t="n">
-        <v>41</v>
+        <v>223.5405</v>
       </c>
       <c r="G109" t="n">
-        <v>258.3916666666666</v>
+        <v>258.4083333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4239,7 +4449,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4261,10 +4475,10 @@
         <v>259</v>
       </c>
       <c r="F110" t="n">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="G110" t="n">
-        <v>258.4066666666666</v>
+        <v>258.3916666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4274,7 +4488,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4287,19 +4505,19 @@
         <v>259</v>
       </c>
       <c r="C111" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E111" t="n">
         <v>259</v>
       </c>
       <c r="F111" t="n">
-        <v>141.7248</v>
+        <v>7.5</v>
       </c>
       <c r="G111" t="n">
-        <v>258.4399999999999</v>
+        <v>258.4066666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4309,7 +4527,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4319,22 +4541,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>261.9</v>
+        <v>259</v>
       </c>
       <c r="C112" t="n">
-        <v>261.9</v>
+        <v>260</v>
       </c>
       <c r="D112" t="n">
-        <v>261.9</v>
+        <v>260</v>
       </c>
       <c r="E112" t="n">
-        <v>261.9</v>
+        <v>259</v>
       </c>
       <c r="F112" t="n">
-        <v>5722</v>
+        <v>141.7248</v>
       </c>
       <c r="G112" t="n">
-        <v>258.4699999999999</v>
+        <v>258.4399999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4344,7 +4566,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4366,10 +4592,10 @@
         <v>261.9</v>
       </c>
       <c r="F113" t="n">
-        <v>174</v>
+        <v>5722</v>
       </c>
       <c r="G113" t="n">
-        <v>258.4399999999999</v>
+        <v>258.4699999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4379,7 +4605,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4389,22 +4619,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>264</v>
+        <v>261.9</v>
       </c>
       <c r="C114" t="n">
-        <v>264</v>
+        <v>261.9</v>
       </c>
       <c r="D114" t="n">
-        <v>264</v>
+        <v>261.9</v>
       </c>
       <c r="E114" t="n">
-        <v>264</v>
+        <v>261.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6.95</v>
+        <v>174</v>
       </c>
       <c r="G114" t="n">
-        <v>258.4216666666665</v>
+        <v>258.4399999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,7 +4644,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4436,10 +4670,10 @@
         <v>264</v>
       </c>
       <c r="F115" t="n">
-        <v>43.79</v>
+        <v>6.95</v>
       </c>
       <c r="G115" t="n">
-        <v>258.4033333333332</v>
+        <v>258.4216666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4449,7 +4683,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4471,10 +4709,10 @@
         <v>264</v>
       </c>
       <c r="F116" t="n">
-        <v>1585.29</v>
+        <v>43.79</v>
       </c>
       <c r="G116" t="n">
-        <v>258.3699999999998</v>
+        <v>258.4033333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4484,7 +4722,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4506,10 +4748,10 @@
         <v>264</v>
       </c>
       <c r="F117" t="n">
-        <v>317.0565</v>
+        <v>1585.29</v>
       </c>
       <c r="G117" t="n">
-        <v>258.3633333333332</v>
+        <v>258.3699999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4519,7 +4761,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4529,22 +4775,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="C118" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="D118" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="E118" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="F118" t="n">
-        <v>1149.425</v>
+        <v>317.0565</v>
       </c>
       <c r="G118" t="n">
-        <v>258.3683333333332</v>
+        <v>258.3633333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4554,7 +4800,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4814,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>264</v>
+        <v>264.3</v>
       </c>
       <c r="C119" t="n">
-        <v>264</v>
+        <v>264.3</v>
       </c>
       <c r="D119" t="n">
-        <v>264</v>
+        <v>264.3</v>
       </c>
       <c r="E119" t="n">
-        <v>264</v>
+        <v>264.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1171.2212</v>
+        <v>1149.425</v>
       </c>
       <c r="G119" t="n">
-        <v>258.4683333333332</v>
+        <v>258.3683333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4589,7 +4839,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4599,22 +4853,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C120" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D120" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F120" t="n">
-        <v>584.2188</v>
+        <v>1171.2212</v>
       </c>
       <c r="G120" t="n">
-        <v>258.5483333333332</v>
+        <v>258.4683333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4624,7 +4878,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4892,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>265.5</v>
+        <v>265</v>
       </c>
       <c r="C121" t="n">
-        <v>265.5</v>
+        <v>265</v>
       </c>
       <c r="D121" t="n">
-        <v>265.5</v>
+        <v>265</v>
       </c>
       <c r="E121" t="n">
-        <v>265.5</v>
+        <v>265</v>
       </c>
       <c r="F121" t="n">
-        <v>1605.2555</v>
+        <v>584.2188</v>
       </c>
       <c r="G121" t="n">
-        <v>258.6349999999999</v>
+        <v>258.5483333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4659,7 +4917,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4669,22 +4931,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>266</v>
+        <v>265.5</v>
       </c>
       <c r="C122" t="n">
-        <v>266</v>
+        <v>265.5</v>
       </c>
       <c r="D122" t="n">
-        <v>266</v>
+        <v>265.5</v>
       </c>
       <c r="E122" t="n">
-        <v>266</v>
+        <v>265.5</v>
       </c>
       <c r="F122" t="n">
-        <v>1901.0865</v>
+        <v>1605.2555</v>
       </c>
       <c r="G122" t="n">
-        <v>258.7299999999998</v>
+        <v>258.6349999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4694,7 +4956,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4704,22 +4970,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>266.2</v>
+        <v>266</v>
       </c>
       <c r="C123" t="n">
         <v>266</v>
       </c>
       <c r="D123" t="n">
-        <v>266.2</v>
+        <v>266</v>
       </c>
       <c r="E123" t="n">
         <v>266</v>
       </c>
       <c r="F123" t="n">
-        <v>5468.4151</v>
+        <v>1901.0865</v>
       </c>
       <c r="G123" t="n">
-        <v>258.8249999999999</v>
+        <v>258.7299999999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4729,7 +4995,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4739,22 +5009,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>265.7</v>
+        <v>266.2</v>
       </c>
       <c r="C124" t="n">
-        <v>265.7</v>
+        <v>266</v>
       </c>
       <c r="D124" t="n">
-        <v>265.7</v>
+        <v>266.2</v>
       </c>
       <c r="E124" t="n">
-        <v>265.7</v>
+        <v>266</v>
       </c>
       <c r="F124" t="n">
-        <v>175.3159</v>
+        <v>5468.4151</v>
       </c>
       <c r="G124" t="n">
-        <v>258.9149999999999</v>
+        <v>258.8249999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4764,7 +5034,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4786,10 +5060,10 @@
         <v>265.7</v>
       </c>
       <c r="F125" t="n">
-        <v>215</v>
+        <v>175.3159</v>
       </c>
       <c r="G125" t="n">
-        <v>258.9433333333333</v>
+        <v>258.9149999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4799,7 +5073,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4809,22 +5087,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="C126" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="D126" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="E126" t="n">
-        <v>265</v>
+        <v>265.7</v>
       </c>
       <c r="F126" t="n">
-        <v>192.1698</v>
+        <v>215</v>
       </c>
       <c r="G126" t="n">
-        <v>258.9383333333333</v>
+        <v>258.9433333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4834,7 +5112,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4856,10 +5138,10 @@
         <v>265</v>
       </c>
       <c r="F127" t="n">
-        <v>1511.1073</v>
+        <v>192.1698</v>
       </c>
       <c r="G127" t="n">
-        <v>258.9433333333333</v>
+        <v>258.9383333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4869,7 +5151,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4879,22 +5165,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>264.3</v>
+        <v>265</v>
       </c>
       <c r="C128" t="n">
-        <v>264.3</v>
+        <v>265</v>
       </c>
       <c r="D128" t="n">
-        <v>264.3</v>
+        <v>265</v>
       </c>
       <c r="E128" t="n">
-        <v>264.3</v>
+        <v>265</v>
       </c>
       <c r="F128" t="n">
-        <v>1402.1649</v>
+        <v>1511.1073</v>
       </c>
       <c r="G128" t="n">
-        <v>258.9416666666665</v>
+        <v>258.9433333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4904,7 +5190,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4926,23 +5216,25 @@
         <v>264.3</v>
       </c>
       <c r="F129" t="n">
-        <v>1799.0151</v>
+        <v>1402.1649</v>
       </c>
       <c r="G129" t="n">
-        <v>258.9533333333332</v>
+        <v>258.9416666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4961,16 +5253,16 @@
         <v>264.3</v>
       </c>
       <c r="F130" t="n">
-        <v>200.9849</v>
+        <v>1799.0151</v>
       </c>
       <c r="G130" t="n">
-        <v>258.9699999999999</v>
+        <v>258.9533333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4984,22 +5276,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>264.4</v>
+        <v>264.3</v>
       </c>
       <c r="C131" t="n">
-        <v>264.4</v>
+        <v>264.3</v>
       </c>
       <c r="D131" t="n">
-        <v>264.4</v>
+        <v>264.3</v>
       </c>
       <c r="E131" t="n">
-        <v>264.4</v>
+        <v>264.3</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>200.9849</v>
       </c>
       <c r="G131" t="n">
-        <v>259.0416666666666</v>
+        <v>258.9699999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,22 +5311,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="C132" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="D132" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="E132" t="n">
-        <v>264</v>
+        <v>264.4</v>
       </c>
       <c r="F132" t="n">
-        <v>166.4493</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>259.1233333333332</v>
+        <v>259.0416666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5066,10 +5358,10 @@
         <v>264</v>
       </c>
       <c r="F133" t="n">
-        <v>2032.603</v>
+        <v>166.4493</v>
       </c>
       <c r="G133" t="n">
-        <v>259.2166666666665</v>
+        <v>259.1233333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5089,22 +5381,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C134" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D134" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E134" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F134" t="n">
-        <v>10.4363</v>
+        <v>2032.603</v>
       </c>
       <c r="G134" t="n">
-        <v>259.3266666666665</v>
+        <v>259.2166666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5124,22 +5416,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>265.9</v>
+        <v>265</v>
       </c>
       <c r="C135" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D135" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E135" t="n">
-        <v>265.9</v>
+        <v>265</v>
       </c>
       <c r="F135" t="n">
-        <v>227.1101</v>
+        <v>10.4363</v>
       </c>
       <c r="G135" t="n">
-        <v>259.4516666666665</v>
+        <v>259.3266666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5159,22 +5451,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>268.7</v>
+        <v>265.9</v>
       </c>
       <c r="C136" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D136" t="n">
-        <v>268.7</v>
+        <v>266</v>
       </c>
       <c r="E136" t="n">
-        <v>268</v>
+        <v>265.9</v>
       </c>
       <c r="F136" t="n">
-        <v>263</v>
+        <v>227.1101</v>
       </c>
       <c r="G136" t="n">
-        <v>259.6099999999999</v>
+        <v>259.4516666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5194,22 +5486,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>269</v>
+        <v>268.7</v>
       </c>
       <c r="C137" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D137" t="n">
-        <v>269</v>
+        <v>268.7</v>
       </c>
       <c r="E137" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F137" t="n">
-        <v>103.2763</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
-        <v>259.7599999999999</v>
+        <v>259.6099999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5232,25 +5524,25 @@
         <v>269</v>
       </c>
       <c r="C138" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D138" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E138" t="n">
         <v>269</v>
       </c>
       <c r="F138" t="n">
-        <v>287.6749</v>
+        <v>103.2763</v>
       </c>
       <c r="G138" t="n">
-        <v>259.9266666666666</v>
+        <v>259.7599999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5259,6 +5551,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>269</v>
+      </c>
+      <c r="C139" t="n">
+        <v>270</v>
+      </c>
+      <c r="D139" t="n">
+        <v>270</v>
+      </c>
+      <c r="E139" t="n">
+        <v>269</v>
+      </c>
+      <c r="F139" t="n">
+        <v>287.6749</v>
+      </c>
+      <c r="G139" t="n">
+        <v>259.9266666666666</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>76.995</v>
       </c>
       <c r="G2" t="n">
+        <v>255.4200000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>255.7983333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>28.0802</v>
       </c>
       <c r="G3" t="n">
+        <v>255.3800000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>255.6533333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>12.3379</v>
       </c>
       <c r="G4" t="n">
+        <v>255.3933333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>255.57</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>9141.413500000001</v>
       </c>
       <c r="G5" t="n">
+        <v>255.3600000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>255.475</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>257</v>
+      </c>
+      <c r="L5" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>1537.7415</v>
       </c>
       <c r="G6" t="n">
+        <v>255.5533333333335</v>
+      </c>
+      <c r="H6" t="n">
         <v>255.5166666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>256.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>21.9123</v>
       </c>
       <c r="G7" t="n">
+        <v>255.7466666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>255.465</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>259</v>
+      </c>
+      <c r="L7" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,27 @@
         <v>46.1041</v>
       </c>
       <c r="G8" t="n">
+        <v>255.9800000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>255.485</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +761,27 @@
         <v>9635.504800000001</v>
       </c>
       <c r="G9" t="n">
+        <v>256.1733333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>255.5183333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +805,27 @@
         <v>2096.4355</v>
       </c>
       <c r="G10" t="n">
+        <v>256.4666666666669</v>
+      </c>
+      <c r="H10" t="n">
         <v>255.5583333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +849,27 @@
         <v>1474.6855</v>
       </c>
       <c r="G11" t="n">
+        <v>256.9533333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>255.585</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +893,27 @@
         <v>4188.85</v>
       </c>
       <c r="G12" t="n">
+        <v>257.4000000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>255.6133333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +937,27 @@
         <v>58.8122</v>
       </c>
       <c r="G13" t="n">
+        <v>257.8000000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>255.6416666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +981,27 @@
         <v>174</v>
       </c>
       <c r="G14" t="n">
+        <v>258.2200000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>255.7033333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1025,27 @@
         <v>1160.597</v>
       </c>
       <c r="G15" t="n">
+        <v>258.4333333333336</v>
+      </c>
+      <c r="H15" t="n">
         <v>255.7016666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1069,27 @@
         <v>2509.7961</v>
       </c>
       <c r="G16" t="n">
+        <v>258.7066666666669</v>
+      </c>
+      <c r="H16" t="n">
         <v>255.705</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1113,27 @@
         <v>2643.2237</v>
       </c>
       <c r="G17" t="n">
+        <v>259.1266666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>255.7683333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1157,27 @@
         <v>13713.5558</v>
       </c>
       <c r="G18" t="n">
+        <v>259.5133333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>255.8183333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1201,27 @@
         <v>139.0444</v>
       </c>
       <c r="G19" t="n">
+        <v>259.8733333333336</v>
+      </c>
+      <c r="H19" t="n">
         <v>255.89</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1245,27 @@
         <v>1387.385</v>
       </c>
       <c r="G20" t="n">
+        <v>260.2933333333335</v>
+      </c>
+      <c r="H20" t="n">
         <v>255.9933333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1289,27 @@
         <v>266.486</v>
       </c>
       <c r="G21" t="n">
+        <v>260.5200000000002</v>
+      </c>
+      <c r="H21" t="n">
         <v>256.1116666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1333,27 @@
         <v>403.3406</v>
       </c>
       <c r="G22" t="n">
+        <v>260.9866666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>256.31</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1377,27 @@
         <v>1740.938</v>
       </c>
       <c r="G23" t="n">
+        <v>261.3333333333335</v>
+      </c>
+      <c r="H23" t="n">
         <v>256.4666666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1421,27 @@
         <v>4535.5902</v>
       </c>
       <c r="G24" t="n">
+        <v>261.8733333333336</v>
+      </c>
+      <c r="H24" t="n">
         <v>256.6616666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1465,27 @@
         <v>3118.1394</v>
       </c>
       <c r="G25" t="n">
+        <v>262.3400000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>256.8516666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1509,27 @@
         <v>1320.1059</v>
       </c>
       <c r="G26" t="n">
+        <v>262.9000000000002</v>
+      </c>
+      <c r="H26" t="n">
         <v>257.0833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1553,27 @@
         <v>166.3835</v>
       </c>
       <c r="G27" t="n">
+        <v>263.4666666666669</v>
+      </c>
+      <c r="H27" t="n">
         <v>257.3283333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1597,27 @@
         <v>804.617</v>
       </c>
       <c r="G28" t="n">
+        <v>263.8133333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>257.525</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1641,27 @@
         <v>3484.5059</v>
       </c>
       <c r="G29" t="n">
+        <v>264.0933333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>257.76</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1685,27 @@
         <v>205.412</v>
       </c>
       <c r="G30" t="n">
+        <v>264.5600000000002</v>
+      </c>
+      <c r="H30" t="n">
         <v>257.9833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1729,27 @@
         <v>948.4063</v>
       </c>
       <c r="G31" t="n">
+        <v>264.9066666666669</v>
+      </c>
+      <c r="H31" t="n">
         <v>258.2033333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1773,27 @@
         <v>576.4333</v>
       </c>
       <c r="G32" t="n">
+        <v>265.1933333333335</v>
+      </c>
+      <c r="H32" t="n">
         <v>258.47</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1817,27 @@
         <v>89.33</v>
       </c>
       <c r="G33" t="n">
+        <v>265.6466666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>258.7516666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1861,27 @@
         <v>680</v>
       </c>
       <c r="G34" t="n">
+        <v>265.9000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>259.0166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1905,27 @@
         <v>1020.9705</v>
       </c>
       <c r="G35" t="n">
+        <v>266.0933333333335</v>
+      </c>
+      <c r="H35" t="n">
         <v>259.2666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1949,27 @@
         <v>26.09</v>
       </c>
       <c r="G36" t="n">
+        <v>266.2866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>259.4683333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1993,27 @@
         <v>351.5733</v>
       </c>
       <c r="G37" t="n">
+        <v>266.4133333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>259.715</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2037,27 @@
         <v>227.795</v>
       </c>
       <c r="G38" t="n">
+        <v>266.6333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>259.91</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2081,27 @@
         <v>930.8546</v>
       </c>
       <c r="G39" t="n">
+        <v>266.7533333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>260.1016666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2125,27 @@
         <v>774</v>
       </c>
       <c r="G40" t="n">
+        <v>266.9200000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>260.2933333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2169,27 @@
         <v>67.7144</v>
       </c>
       <c r="G41" t="n">
+        <v>266.7933333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>260.4533333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2213,27 @@
         <v>250</v>
       </c>
       <c r="G42" t="n">
+        <v>266.6533333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>260.6466666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2257,27 @@
         <v>1656.02</v>
       </c>
       <c r="G43" t="n">
+        <v>266.8866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>260.8933333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2301,27 @@
         <v>4145.4432</v>
       </c>
       <c r="G44" t="n">
+        <v>267.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>261.1416666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2345,27 @@
         <v>19.4203</v>
       </c>
       <c r="G45" t="n">
+        <v>266.9266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>261.3</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2389,27 @@
         <v>802.3898</v>
       </c>
       <c r="G46" t="n">
+        <v>266.5200000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>261.365</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2433,27 @@
         <v>147.97</v>
       </c>
       <c r="G47" t="n">
+        <v>265.9200000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>261.415</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2477,27 @@
         <v>110</v>
       </c>
       <c r="G48" t="n">
+        <v>265.08</v>
+      </c>
+      <c r="H48" t="n">
         <v>261.405</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2521,27 @@
         <v>8464.477800000001</v>
       </c>
       <c r="G49" t="n">
+        <v>264.46</v>
+      </c>
+      <c r="H49" t="n">
         <v>261.4066666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,24 +2565,27 @@
         <v>1750</v>
       </c>
       <c r="G50" t="n">
+        <v>264.1066666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>261.4633333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>256.9</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,24 +2609,27 @@
         <v>155.97</v>
       </c>
       <c r="G51" t="n">
+        <v>263.6266666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>261.4966666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,24 +2653,27 @@
         <v>12959.2747</v>
       </c>
       <c r="G52" t="n">
+        <v>262.9666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>261.5283333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>258.1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,24 +2697,27 @@
         <v>2149.9779</v>
       </c>
       <c r="G53" t="n">
+        <v>262.46</v>
+      </c>
+      <c r="H53" t="n">
         <v>261.6016666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,22 +2741,27 @@
         <v>589.3376</v>
       </c>
       <c r="G54" t="n">
+        <v>262.18</v>
+      </c>
+      <c r="H54" t="n">
         <v>261.745</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,22 +2785,27 @@
         <v>2451.6624</v>
       </c>
       <c r="G55" t="n">
+        <v>261.9933333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>261.93</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2370,22 +2829,27 @@
         <v>1333.8532</v>
       </c>
       <c r="G56" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>262.145</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,22 +2873,27 @@
         <v>71.81010000000001</v>
       </c>
       <c r="G57" t="n">
+        <v>261.8933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>262.3533333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,22 +2917,27 @@
         <v>1137.6725</v>
       </c>
       <c r="G58" t="n">
+        <v>261.5933333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>262.5233333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2487,22 +2961,27 @@
         <v>9.59</v>
       </c>
       <c r="G59" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>262.6616666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,22 +3005,27 @@
         <v>1635</v>
       </c>
       <c r="G60" t="n">
+        <v>260.8666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>262.6966666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,22 +3049,27 @@
         <v>13271.5276</v>
       </c>
       <c r="G61" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>262.7666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,22 +3093,27 @@
         <v>15077.4092</v>
       </c>
       <c r="G62" t="n">
+        <v>261.02</v>
+      </c>
+      <c r="H62" t="n">
         <v>262.8149999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2643,22 +3137,27 @@
         <v>108.87</v>
       </c>
       <c r="G63" t="n">
+        <v>261.3466666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>262.8966666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,22 +3181,27 @@
         <v>895.67</v>
       </c>
       <c r="G64" t="n">
+        <v>261.5733333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>262.9516666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2721,24 +3225,27 @@
         <v>1258.3168</v>
       </c>
       <c r="G65" t="n">
+        <v>261.5933333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>263.0216666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>260.3</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,22 +3269,27 @@
         <v>48</v>
       </c>
       <c r="G66" t="n">
+        <v>261.9866666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>263.1049999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2801,22 +3313,27 @@
         <v>5659.450642404825</v>
       </c>
       <c r="G67" t="n">
+        <v>262.4733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>263.2099999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,22 +3357,27 @@
         <v>5560.3245</v>
       </c>
       <c r="G68" t="n">
+        <v>262.78</v>
+      </c>
+      <c r="H68" t="n">
         <v>263.3016666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,22 +3401,27 @@
         <v>22.6957</v>
       </c>
       <c r="G69" t="n">
+        <v>262.8266666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>263.4083333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,22 +3445,27 @@
         <v>6034.8231</v>
       </c>
       <c r="G70" t="n">
+        <v>262.7266666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>263.4949999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2957,22 +3489,27 @@
         <v>5556.3609</v>
       </c>
       <c r="G71" t="n">
+        <v>262.6066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>263.5583333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,22 +3533,27 @@
         <v>3.9636</v>
       </c>
       <c r="G72" t="n">
+        <v>262.2133333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>263.5566666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,22 +3577,27 @@
         <v>162.8087</v>
       </c>
       <c r="G73" t="n">
+        <v>261.86</v>
+      </c>
+      <c r="H73" t="n">
         <v>263.5383333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,22 +3621,27 @@
         <v>461.1128</v>
       </c>
       <c r="G74" t="n">
+        <v>261.4866666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>263.4783333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3113,22 +3665,27 @@
         <v>1937.5605</v>
       </c>
       <c r="G75" t="n">
+        <v>261.5133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>263.4666666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,22 +3709,27 @@
         <v>1053.2845</v>
       </c>
       <c r="G76" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>263.4399999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3191,22 +3753,27 @@
         <v>14024.1247</v>
       </c>
       <c r="G77" t="n">
+        <v>261.28</v>
+      </c>
+      <c r="H77" t="n">
         <v>263.3533333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,22 +3797,27 @@
         <v>777.2731</v>
       </c>
       <c r="G78" t="n">
+        <v>261.26</v>
+      </c>
+      <c r="H78" t="n">
         <v>263.3333333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,22 +3841,27 @@
         <v>322.8661</v>
       </c>
       <c r="G79" t="n">
+        <v>261.24</v>
+      </c>
+      <c r="H79" t="n">
         <v>263.2933333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,22 +3885,27 @@
         <v>48.6941</v>
       </c>
       <c r="G80" t="n">
+        <v>261.22</v>
+      </c>
+      <c r="H80" t="n">
         <v>263.2533333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,22 +3929,27 @@
         <v>4.9145</v>
       </c>
       <c r="G81" t="n">
+        <v>260.96</v>
+      </c>
+      <c r="H81" t="n">
         <v>263.2149999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,22 +3973,27 @@
         <v>14586.3687</v>
       </c>
       <c r="G82" t="n">
+        <v>260.5733333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>263.1066666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,22 +4017,27 @@
         <v>1992.92</v>
       </c>
       <c r="G83" t="n">
+        <v>260.2266666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>263.0249999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,22 +4061,27 @@
         <v>368.31</v>
       </c>
       <c r="G84" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="H84" t="n">
         <v>262.9149999999998</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,22 +4105,27 @@
         <v>30.272</v>
       </c>
       <c r="G85" t="n">
+        <v>259.6266666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>262.8166666666665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,22 +4149,27 @@
         <v>476.9929</v>
       </c>
       <c r="G86" t="n">
+        <v>259.2733333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>262.6516666666665</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,22 +4193,27 @@
         <v>11.4459</v>
       </c>
       <c r="G87" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>262.4733333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,22 +4237,27 @@
         <v>2.3019</v>
       </c>
       <c r="G88" t="n">
+        <v>259.06</v>
+      </c>
+      <c r="H88" t="n">
         <v>262.3499999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,22 +4281,27 @@
         <v>17227.8707</v>
       </c>
       <c r="G89" t="n">
+        <v>259.0333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>262.2133333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,22 +4325,27 @@
         <v>194.269</v>
       </c>
       <c r="G90" t="n">
+        <v>258.6733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>261.9949999999998</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,22 +4369,27 @@
         <v>72.3954</v>
       </c>
       <c r="G91" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="H91" t="n">
         <v>261.7883333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,22 +4413,27 @@
         <v>9704.5995</v>
       </c>
       <c r="G92" t="n">
+        <v>257.62</v>
+      </c>
+      <c r="H92" t="n">
         <v>261.4599999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,22 +4457,27 @@
         <v>129.52</v>
       </c>
       <c r="G93" t="n">
+        <v>257.0600000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>261.1866666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,22 +4501,29 @@
         <v>85</v>
       </c>
       <c r="G94" t="n">
+        <v>256.5000000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>260.9433333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="L94" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,22 +4547,29 @@
         <v>10.2982</v>
       </c>
       <c r="G95" t="n">
+        <v>255.9666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>260.7216666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="L95" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,22 +4593,29 @@
         <v>26</v>
       </c>
       <c r="G96" t="n">
+        <v>255.4333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>260.5016666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>252</v>
+      </c>
+      <c r="L96" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3971,22 +4639,29 @@
         <v>5.05</v>
       </c>
       <c r="G97" t="n">
+        <v>254.9400000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>260.2383333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,22 +4685,29 @@
         <v>1.015</v>
       </c>
       <c r="G98" t="n">
+        <v>254.4466666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>259.9783333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,22 +4731,29 @@
         <v>1696.0109</v>
       </c>
       <c r="G99" t="n">
+        <v>254.0466666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>259.7383333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,22 +4777,29 @@
         <v>3175.0666</v>
       </c>
       <c r="G100" t="n">
+        <v>253.7200000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>259.5166666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="L100" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,22 +4823,27 @@
         <v>243</v>
       </c>
       <c r="G101" t="n">
+        <v>253.3933333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>259.3016666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,22 +4867,27 @@
         <v>174.53</v>
       </c>
       <c r="G102" t="n">
+        <v>253.1266666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>259.0916666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,22 +4911,29 @@
         <v>174</v>
       </c>
       <c r="G103" t="n">
+        <v>252.86</v>
+      </c>
+      <c r="H103" t="n">
         <v>258.8433333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>254</v>
+      </c>
+      <c r="L103" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,22 +4957,29 @@
         <v>10.6067</v>
       </c>
       <c r="G104" t="n">
+        <v>252.7933333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>258.6449999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>254</v>
+      </c>
+      <c r="L104" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,22 +5003,27 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
+        <v>253.06</v>
+      </c>
+      <c r="H105" t="n">
         <v>258.5283333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,22 +5047,27 @@
         <v>3368.3085</v>
       </c>
       <c r="G106" t="n">
+        <v>253.3</v>
+      </c>
+      <c r="H106" t="n">
         <v>258.4833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,22 +5091,27 @@
         <v>845.1004</v>
       </c>
       <c r="G107" t="n">
+        <v>253.7466666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>258.4166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,22 +5135,27 @@
         <v>1432.98</v>
       </c>
       <c r="G108" t="n">
+        <v>253.94</v>
+      </c>
+      <c r="H108" t="n">
         <v>258.4016666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,22 +5179,29 @@
         <v>223.5405</v>
       </c>
       <c r="G109" t="n">
+        <v>254.3200000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>258.4083333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,22 +5225,27 @@
         <v>41</v>
       </c>
       <c r="G110" t="n">
+        <v>254.7866666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>258.3916666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,22 +5269,27 @@
         <v>7.5</v>
       </c>
       <c r="G111" t="n">
+        <v>255.2466666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>258.4066666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,22 +5313,27 @@
         <v>141.7248</v>
       </c>
       <c r="G112" t="n">
+        <v>255.7733333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>258.4399999999999</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,22 +5357,27 @@
         <v>5722</v>
       </c>
       <c r="G113" t="n">
+        <v>256.4266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>258.4699999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,22 +5401,27 @@
         <v>174</v>
       </c>
       <c r="G114" t="n">
+        <v>256.9866666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>258.4399999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,22 +5445,27 @@
         <v>6.95</v>
       </c>
       <c r="G115" t="n">
+        <v>257.6133333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>258.4216666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,22 +5489,27 @@
         <v>43.79</v>
       </c>
       <c r="G116" t="n">
+        <v>258.34</v>
+      </c>
+      <c r="H116" t="n">
         <v>258.4033333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,22 +5533,27 @@
         <v>1585.29</v>
       </c>
       <c r="G117" t="n">
+        <v>259.0066666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>258.3699999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,22 +5577,27 @@
         <v>317.0565</v>
       </c>
       <c r="G118" t="n">
+        <v>259.6733333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>258.3633333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,22 +5621,27 @@
         <v>1149.425</v>
       </c>
       <c r="G119" t="n">
+        <v>260.16</v>
+      </c>
+      <c r="H119" t="n">
         <v>258.3683333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,22 +5665,27 @@
         <v>1171.2212</v>
       </c>
       <c r="G120" t="n">
+        <v>260.6266666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>258.4683333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4907,22 +5709,27 @@
         <v>584.2188</v>
       </c>
       <c r="G121" t="n">
+        <v>261.1933333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>258.5483333333332</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,22 +5753,27 @@
         <v>1605.2555</v>
       </c>
       <c r="G122" t="n">
+        <v>261.8933333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>258.6349999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,22 +5797,27 @@
         <v>1901.0865</v>
       </c>
       <c r="G123" t="n">
+        <v>262.66</v>
+      </c>
+      <c r="H123" t="n">
         <v>258.7299999999998</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,22 +5841,27 @@
         <v>5468.4151</v>
       </c>
       <c r="G124" t="n">
+        <v>263.24</v>
+      </c>
+      <c r="H124" t="n">
         <v>258.8249999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5063,22 +5885,27 @@
         <v>175.3159</v>
       </c>
       <c r="G125" t="n">
+        <v>263.6866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>258.9149999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,22 +5929,27 @@
         <v>215</v>
       </c>
       <c r="G126" t="n">
+        <v>264.1333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>258.9433333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,22 +5973,27 @@
         <v>192.1698</v>
       </c>
       <c r="G127" t="n">
+        <v>264.4666666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>258.9383333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,22 +6017,27 @@
         <v>1511.1073</v>
       </c>
       <c r="G128" t="n">
+        <v>264.6733333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>258.9433333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,22 +6061,29 @@
         <v>1402.1649</v>
       </c>
       <c r="G129" t="n">
+        <v>264.8333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>258.9416666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5256,18 +6105,27 @@
         <v>1799.0151</v>
       </c>
       <c r="G130" t="n">
+        <v>264.8533333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>258.9533333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,18 +6149,27 @@
         <v>200.9849</v>
       </c>
       <c r="G131" t="n">
+        <v>264.8733333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>258.9699999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,18 +6193,27 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
+        <v>264.8999999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>259.0416666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5361,18 +6237,27 @@
         <v>166.4493</v>
       </c>
       <c r="G133" t="n">
+        <v>264.8999999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>259.1233333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,18 +6281,27 @@
         <v>2032.603</v>
       </c>
       <c r="G134" t="n">
+        <v>264.8799999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>259.2166666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,18 +6325,27 @@
         <v>10.4363</v>
       </c>
       <c r="G135" t="n">
+        <v>264.9466666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>259.3266666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,18 +6369,27 @@
         <v>227.1101</v>
       </c>
       <c r="G136" t="n">
+        <v>265.0133333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>259.4516666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5501,18 +6413,27 @@
         <v>263</v>
       </c>
       <c r="G137" t="n">
+        <v>265.1799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>259.6099999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,18 +6457,27 @@
         <v>103.2763</v>
       </c>
       <c r="G138" t="n">
+        <v>265.3799999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>259.7599999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5571,18 +6501,431 @@
         <v>287.6749</v>
       </c>
       <c r="G139" t="n">
+        <v>265.6466666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>259.9266666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>270</v>
+      </c>
+      <c r="C140" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>470.0743</v>
+      </c>
+      <c r="G140" t="n">
+        <v>265.9799999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>260.1049999999999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>23.3468</v>
+      </c>
+      <c r="G141" t="n">
+        <v>266.3133333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>260.2816666666666</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1689.3601</v>
+      </c>
+      <c r="G142" t="n">
+        <v>266.8199999999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>260.4999999999999</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>271</v>
+      </c>
+      <c r="C143" t="n">
+        <v>271</v>
+      </c>
+      <c r="D143" t="n">
+        <v>271</v>
+      </c>
+      <c r="E143" t="n">
+        <v>271</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.3211</v>
+      </c>
+      <c r="G143" t="n">
+        <v>267.22</v>
+      </c>
+      <c r="H143" t="n">
+        <v>260.6916666666665</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1.047836052836053</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>271</v>
+      </c>
+      <c r="C144" t="n">
+        <v>270</v>
+      </c>
+      <c r="D144" t="n">
+        <v>271</v>
+      </c>
+      <c r="E144" t="n">
+        <v>270</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1526.0534</v>
+      </c>
+      <c r="G144" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>260.8666666666666</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>763.0267</v>
+      </c>
+      <c r="G145" t="n">
+        <v>267.9933333333332</v>
+      </c>
+      <c r="H145" t="n">
+        <v>261.0449999999999</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>272</v>
+      </c>
+      <c r="C146" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>272</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10612.68</v>
+      </c>
+      <c r="G146" t="n">
+        <v>268.6199999999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>261.3066666666666</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1763.0267</v>
+      </c>
+      <c r="G147" t="n">
+        <v>269.1999999999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>261.5583333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="G148" t="n">
+        <v>269.8533333333332</v>
+      </c>
+      <c r="H148" t="n">
+        <v>261.8216666666666</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>275</v>
+      </c>
+      <c r="D149" t="n">
+        <v>275</v>
+      </c>
+      <c r="E149" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39889.2906</v>
+      </c>
+      <c r="G149" t="n">
+        <v>270.5866666666665</v>
+      </c>
+      <c r="H149" t="n">
+        <v>262.1049999999999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>257.4</v>
+        <v>251.1</v>
       </c>
       <c r="C2" t="n">
-        <v>257.4</v>
+        <v>251.1</v>
       </c>
       <c r="D2" t="n">
-        <v>257.4</v>
+        <v>251.1</v>
       </c>
       <c r="E2" t="n">
-        <v>257.4</v>
+        <v>251.1</v>
       </c>
       <c r="F2" t="n">
-        <v>76.995</v>
+        <v>131</v>
       </c>
       <c r="G2" t="n">
-        <v>255.4200000000002</v>
+        <v>-3120.344456488544</v>
       </c>
       <c r="H2" t="n">
-        <v>255.7983333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>255.4</v>
+        <v>250.3</v>
       </c>
       <c r="C3" t="n">
-        <v>255.4</v>
+        <v>250.3</v>
       </c>
       <c r="D3" t="n">
-        <v>255.4</v>
+        <v>250.3</v>
       </c>
       <c r="E3" t="n">
-        <v>255.4</v>
+        <v>250.3</v>
       </c>
       <c r="F3" t="n">
-        <v>28.0802</v>
+        <v>279.3337</v>
       </c>
       <c r="G3" t="n">
-        <v>255.3800000000002</v>
+        <v>-3399.678156488544</v>
       </c>
       <c r="H3" t="n">
-        <v>255.6533333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,90 +503,80 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>257</v>
+        <v>250.3</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>250.3</v>
       </c>
       <c r="D4" t="n">
-        <v>257</v>
+        <v>250.3</v>
       </c>
       <c r="E4" t="n">
-        <v>257</v>
+        <v>250.3</v>
       </c>
       <c r="F4" t="n">
-        <v>12.3379</v>
+        <v>43.071</v>
       </c>
       <c r="G4" t="n">
-        <v>255.3933333333335</v>
+        <v>-3399.678156488544</v>
       </c>
       <c r="H4" t="n">
-        <v>255.57</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>250.3</v>
       </c>
       <c r="K4" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>250.3</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>611.667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2788.011156488544</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>256.1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9141.413500000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>255.3600000000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>255.475</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>257</v>
-      </c>
-      <c r="L5" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,44 +585,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>256.3</v>
+        <v>253.1</v>
       </c>
       <c r="C6" t="n">
-        <v>259</v>
+        <v>253.1</v>
       </c>
       <c r="D6" t="n">
-        <v>259</v>
+        <v>253.1</v>
       </c>
       <c r="E6" t="n">
-        <v>256.3</v>
+        <v>253.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1537.7415</v>
+        <v>566.6079999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>255.5533333333335</v>
+        <v>-3354.619156488544</v>
       </c>
       <c r="H6" t="n">
-        <v>255.5166666666666</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>253.2</v>
       </c>
       <c r="K6" t="n">
-        <v>256.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M6" t="inlineStr">
+        <v>250.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,44 +628,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>255.4</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>255.4</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9123</v>
+        <v>1557.6913</v>
       </c>
       <c r="G7" t="n">
-        <v>255.7466666666668</v>
+        <v>-1796.927856488544</v>
       </c>
       <c r="H7" t="n">
-        <v>255.465</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>253.1</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
-      </c>
-      <c r="L7" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -702,42 +667,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>259.2</v>
+        <v>255.4</v>
       </c>
       <c r="C8" t="n">
-        <v>259.2</v>
+        <v>256.4</v>
       </c>
       <c r="D8" t="n">
-        <v>259.2</v>
+        <v>256.4</v>
       </c>
       <c r="E8" t="n">
-        <v>259.2</v>
+        <v>255.4</v>
       </c>
       <c r="F8" t="n">
-        <v>46.1041</v>
+        <v>1144.1159</v>
       </c>
       <c r="G8" t="n">
-        <v>255.9800000000002</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H8" t="n">
-        <v>255.485</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>256</v>
+      </c>
+      <c r="K8" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,42 +710,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>260.1</v>
+        <v>256.4</v>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>256.4</v>
       </c>
       <c r="D9" t="n">
-        <v>260.1</v>
+        <v>256.4</v>
       </c>
       <c r="E9" t="n">
-        <v>258</v>
+        <v>256.4</v>
       </c>
       <c r="F9" t="n">
-        <v>9635.504800000001</v>
+        <v>326.1865</v>
       </c>
       <c r="G9" t="n">
-        <v>256.1733333333335</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H9" t="n">
-        <v>255.5183333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -790,42 +751,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>259</v>
+        <v>256.4</v>
       </c>
       <c r="C10" t="n">
-        <v>258.4</v>
+        <v>256.4</v>
       </c>
       <c r="D10" t="n">
-        <v>259</v>
+        <v>256.4</v>
       </c>
       <c r="E10" t="n">
-        <v>258.4</v>
+        <v>256.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2096.4355</v>
+        <v>95.0163</v>
       </c>
       <c r="G10" t="n">
-        <v>256.4666666666669</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H10" t="n">
-        <v>255.5583333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,42 +786,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>258.3</v>
+        <v>255</v>
       </c>
       <c r="C11" t="n">
-        <v>259.5</v>
+        <v>255</v>
       </c>
       <c r="D11" t="n">
-        <v>259.5</v>
+        <v>255</v>
       </c>
       <c r="E11" t="n">
-        <v>258.3</v>
+        <v>255</v>
       </c>
       <c r="F11" t="n">
-        <v>1474.6855</v>
+        <v>214</v>
       </c>
       <c r="G11" t="n">
-        <v>256.9533333333335</v>
+        <v>-866.811956488544</v>
       </c>
       <c r="H11" t="n">
-        <v>255.585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -878,42 +821,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>260</v>
+        <v>254.1</v>
       </c>
       <c r="C12" t="n">
-        <v>260.2</v>
+        <v>254.1</v>
       </c>
       <c r="D12" t="n">
-        <v>262.6</v>
+        <v>254.1</v>
       </c>
       <c r="E12" t="n">
-        <v>260</v>
+        <v>254.1</v>
       </c>
       <c r="F12" t="n">
-        <v>4188.85</v>
+        <v>169.56</v>
       </c>
       <c r="G12" t="n">
-        <v>257.4000000000002</v>
+        <v>-1036.371956488544</v>
       </c>
       <c r="H12" t="n">
-        <v>255.6133333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -922,42 +856,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C13" t="n">
-        <v>260.2</v>
+        <v>254</v>
       </c>
       <c r="D13" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E13" t="n">
-        <v>260.2</v>
+        <v>254</v>
       </c>
       <c r="F13" t="n">
-        <v>58.8122</v>
+        <v>8.187099999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>257.8000000000002</v>
+        <v>-1044.559056488544</v>
       </c>
       <c r="H13" t="n">
-        <v>255.6416666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -966,42 +891,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>261.3</v>
+        <v>254.5</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>254.5</v>
       </c>
       <c r="D14" t="n">
-        <v>262</v>
+        <v>254.5</v>
       </c>
       <c r="E14" t="n">
-        <v>261.3</v>
+        <v>254.5</v>
       </c>
       <c r="F14" t="n">
-        <v>174</v>
+        <v>150.3071</v>
       </c>
       <c r="G14" t="n">
-        <v>258.2200000000002</v>
+        <v>-894.251956488544</v>
       </c>
       <c r="H14" t="n">
-        <v>255.7033333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1010,42 +926,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>261.4</v>
+        <v>255.3</v>
       </c>
       <c r="C15" t="n">
-        <v>259.1</v>
+        <v>255.3</v>
       </c>
       <c r="D15" t="n">
-        <v>261.4</v>
+        <v>255.3</v>
       </c>
       <c r="E15" t="n">
-        <v>259.1</v>
+        <v>255.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1160.597</v>
+        <v>150</v>
       </c>
       <c r="G15" t="n">
-        <v>258.4333333333336</v>
+        <v>-744.251956488544</v>
       </c>
       <c r="H15" t="n">
-        <v>255.7016666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,42 +961,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>259.6</v>
+        <v>256</v>
       </c>
       <c r="C16" t="n">
-        <v>260.1</v>
+        <v>256</v>
       </c>
       <c r="D16" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E16" t="n">
-        <v>259.6</v>
+        <v>256</v>
       </c>
       <c r="F16" t="n">
-        <v>2509.7961</v>
+        <v>6.8184</v>
       </c>
       <c r="G16" t="n">
-        <v>258.7066666666669</v>
+        <v>-737.433556488544</v>
       </c>
       <c r="H16" t="n">
-        <v>255.705</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,42 +996,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="C17" t="n">
-        <v>263.7</v>
+        <v>256</v>
       </c>
       <c r="D17" t="n">
-        <v>263.7</v>
+        <v>256</v>
       </c>
       <c r="E17" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="F17" t="n">
-        <v>2643.2237</v>
+        <v>13747.9187</v>
       </c>
       <c r="G17" t="n">
-        <v>259.1266666666668</v>
+        <v>-737.433556488544</v>
       </c>
       <c r="H17" t="n">
-        <v>255.7683333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,42 +1031,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>263.7</v>
+        <v>256.8</v>
       </c>
       <c r="C18" t="n">
-        <v>261.2</v>
+        <v>256.8</v>
       </c>
       <c r="D18" t="n">
-        <v>263.9</v>
+        <v>256.8</v>
       </c>
       <c r="E18" t="n">
-        <v>260.8</v>
+        <v>256.8</v>
       </c>
       <c r="F18" t="n">
-        <v>13713.5558</v>
+        <v>475.0344</v>
       </c>
       <c r="G18" t="n">
-        <v>259.5133333333335</v>
+        <v>-262.399156488544</v>
       </c>
       <c r="H18" t="n">
-        <v>255.8183333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1186,42 +1066,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>262.4</v>
+        <v>256.6</v>
       </c>
       <c r="C19" t="n">
-        <v>262.4</v>
+        <v>256.6</v>
       </c>
       <c r="D19" t="n">
-        <v>262.4</v>
+        <v>256.6</v>
       </c>
       <c r="E19" t="n">
-        <v>262.4</v>
+        <v>256.6</v>
       </c>
       <c r="F19" t="n">
-        <v>139.0444</v>
+        <v>249.3348</v>
       </c>
       <c r="G19" t="n">
-        <v>259.8733333333336</v>
+        <v>-511.733956488544</v>
       </c>
       <c r="H19" t="n">
-        <v>255.89</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1230,42 +1101,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="C20" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="D20" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="E20" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1387.385</v>
+        <v>249.5894</v>
       </c>
       <c r="G20" t="n">
-        <v>260.2933333333335</v>
+        <v>-761.3233564885441</v>
       </c>
       <c r="H20" t="n">
-        <v>255.9933333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,42 +1136,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="C21" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="D21" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="E21" t="n">
-        <v>262.4</v>
+        <v>256.1</v>
       </c>
       <c r="F21" t="n">
-        <v>266.486</v>
+        <v>16.18</v>
       </c>
       <c r="G21" t="n">
-        <v>260.5200000000002</v>
+        <v>-761.3233564885441</v>
       </c>
       <c r="H21" t="n">
-        <v>256.1116666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1318,42 +1171,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>263.8</v>
+        <v>255.7</v>
       </c>
       <c r="C22" t="n">
-        <v>266</v>
+        <v>255.7</v>
       </c>
       <c r="D22" t="n">
-        <v>266</v>
+        <v>255.7</v>
       </c>
       <c r="E22" t="n">
-        <v>263.8</v>
+        <v>255.7</v>
       </c>
       <c r="F22" t="n">
-        <v>403.3406</v>
+        <v>97.2826</v>
       </c>
       <c r="G22" t="n">
-        <v>260.9866666666668</v>
+        <v>-858.6059564885441</v>
       </c>
       <c r="H22" t="n">
-        <v>256.31</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,42 +1206,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>264.4</v>
+        <v>255.1</v>
       </c>
       <c r="C23" t="n">
-        <v>264.4</v>
+        <v>255.1</v>
       </c>
       <c r="D23" t="n">
-        <v>264.4</v>
+        <v>255.1</v>
       </c>
       <c r="E23" t="n">
-        <v>264.4</v>
+        <v>255.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1740.938</v>
+        <v>324</v>
       </c>
       <c r="G23" t="n">
-        <v>261.3333333333335</v>
+        <v>-1182.605956488544</v>
       </c>
       <c r="H23" t="n">
-        <v>256.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,42 +1241,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>264.1</v>
+        <v>254</v>
       </c>
       <c r="C24" t="n">
-        <v>266.1</v>
+        <v>254</v>
       </c>
       <c r="D24" t="n">
-        <v>267.7</v>
+        <v>254</v>
       </c>
       <c r="E24" t="n">
-        <v>264.1</v>
+        <v>254</v>
       </c>
       <c r="F24" t="n">
-        <v>4535.5902</v>
+        <v>18.2036</v>
       </c>
       <c r="G24" t="n">
-        <v>261.8733333333336</v>
+        <v>-1200.809556488544</v>
       </c>
       <c r="H24" t="n">
-        <v>256.6616666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1450,42 +1276,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>267.7</v>
+        <v>252.2</v>
       </c>
       <c r="C25" t="n">
-        <v>265.4</v>
+        <v>252.2</v>
       </c>
       <c r="D25" t="n">
-        <v>267.7</v>
+        <v>252.2</v>
       </c>
       <c r="E25" t="n">
-        <v>265.4</v>
+        <v>252.2</v>
       </c>
       <c r="F25" t="n">
-        <v>3118.1394</v>
+        <v>424.4125</v>
       </c>
       <c r="G25" t="n">
-        <v>262.3400000000002</v>
+        <v>-1625.222056488544</v>
       </c>
       <c r="H25" t="n">
-        <v>256.8516666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1494,42 +1311,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>267.5</v>
+        <v>253.5</v>
       </c>
       <c r="C26" t="n">
-        <v>267.9</v>
+        <v>253.5</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9</v>
+        <v>253.5</v>
       </c>
       <c r="E26" t="n">
-        <v>265.6</v>
+        <v>253.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1320.1059</v>
+        <v>826.322</v>
       </c>
       <c r="G26" t="n">
-        <v>262.9000000000002</v>
+        <v>-798.9000564885442</v>
       </c>
       <c r="H26" t="n">
-        <v>257.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,42 +1346,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>268.7</v>
+        <v>254.2</v>
       </c>
       <c r="C27" t="n">
-        <v>268.7</v>
+        <v>254.2</v>
       </c>
       <c r="D27" t="n">
-        <v>268.7</v>
+        <v>254.2</v>
       </c>
       <c r="E27" t="n">
-        <v>268.7</v>
+        <v>254.2</v>
       </c>
       <c r="F27" t="n">
-        <v>166.3835</v>
+        <v>724.482</v>
       </c>
       <c r="G27" t="n">
-        <v>263.4666666666669</v>
+        <v>-74.41805648854427</v>
       </c>
       <c r="H27" t="n">
-        <v>257.3283333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,42 +1381,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>266.2</v>
+        <v>255.4</v>
       </c>
       <c r="C28" t="n">
-        <v>265.4</v>
+        <v>255.7</v>
       </c>
       <c r="D28" t="n">
-        <v>266.2</v>
+        <v>255.7</v>
       </c>
       <c r="E28" t="n">
-        <v>265.4</v>
+        <v>255.4</v>
       </c>
       <c r="F28" t="n">
-        <v>804.617</v>
+        <v>782.6259788949768</v>
       </c>
       <c r="G28" t="n">
-        <v>263.8133333333335</v>
+        <v>708.2079224064325</v>
       </c>
       <c r="H28" t="n">
-        <v>257.525</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,42 +1416,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>265.4</v>
+        <v>255.4</v>
       </c>
       <c r="C29" t="n">
-        <v>266.2</v>
+        <v>255.9</v>
       </c>
       <c r="D29" t="n">
-        <v>266.9</v>
+        <v>255.9</v>
       </c>
       <c r="E29" t="n">
-        <v>265.3</v>
+        <v>255.4</v>
       </c>
       <c r="F29" t="n">
-        <v>3484.5059</v>
+        <v>11731.5019</v>
       </c>
       <c r="G29" t="n">
-        <v>264.0933333333335</v>
+        <v>12439.70982240643</v>
       </c>
       <c r="H29" t="n">
-        <v>257.76</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,42 +1451,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>266.9</v>
+        <v>256</v>
       </c>
       <c r="C30" t="n">
-        <v>266.1</v>
+        <v>256</v>
       </c>
       <c r="D30" t="n">
-        <v>266.9</v>
+        <v>256</v>
       </c>
       <c r="E30" t="n">
-        <v>266.1</v>
+        <v>256</v>
       </c>
       <c r="F30" t="n">
-        <v>205.412</v>
+        <v>9.842499999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>264.5600000000002</v>
+        <v>12449.55232240643</v>
       </c>
       <c r="H30" t="n">
-        <v>257.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,42 +1486,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>265.3</v>
+        <v>257.4</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3</v>
+        <v>257.4</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3</v>
+        <v>257.4</v>
       </c>
       <c r="E31" t="n">
-        <v>265.2</v>
+        <v>257.4</v>
       </c>
       <c r="F31" t="n">
-        <v>948.4063</v>
+        <v>76.995</v>
       </c>
       <c r="G31" t="n">
-        <v>264.9066666666669</v>
+        <v>12526.54732240643</v>
       </c>
       <c r="H31" t="n">
-        <v>258.2033333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,42 +1521,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>268</v>
+        <v>255.4</v>
       </c>
       <c r="C32" t="n">
-        <v>268</v>
+        <v>255.4</v>
       </c>
       <c r="D32" t="n">
-        <v>268</v>
+        <v>255.4</v>
       </c>
       <c r="E32" t="n">
-        <v>268</v>
+        <v>255.4</v>
       </c>
       <c r="F32" t="n">
-        <v>576.4333</v>
+        <v>28.0802</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1933333333335</v>
+        <v>12498.46712240643</v>
       </c>
       <c r="H32" t="n">
-        <v>258.47</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,42 +1556,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C33" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D33" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E33" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F33" t="n">
-        <v>89.33</v>
+        <v>12.3379</v>
       </c>
       <c r="G33" t="n">
-        <v>265.6466666666668</v>
+        <v>12510.80502240643</v>
       </c>
       <c r="H33" t="n">
-        <v>258.7516666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,42 +1591,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>266.3</v>
+        <v>255.9</v>
       </c>
       <c r="C34" t="n">
-        <v>266.2</v>
+        <v>256.1</v>
       </c>
       <c r="D34" t="n">
-        <v>268</v>
+        <v>256.2</v>
       </c>
       <c r="E34" t="n">
-        <v>266.2</v>
+        <v>255.9</v>
       </c>
       <c r="F34" t="n">
-        <v>680</v>
+        <v>9141.413500000001</v>
       </c>
       <c r="G34" t="n">
-        <v>265.9000000000001</v>
+        <v>3369.391522406433</v>
       </c>
       <c r="H34" t="n">
-        <v>259.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,42 +1626,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>266.2</v>
+        <v>256.3</v>
       </c>
       <c r="C35" t="n">
-        <v>265.3</v>
+        <v>259</v>
       </c>
       <c r="D35" t="n">
-        <v>267.8</v>
+        <v>259</v>
       </c>
       <c r="E35" t="n">
-        <v>265.3</v>
+        <v>256.3</v>
       </c>
       <c r="F35" t="n">
-        <v>1020.9705</v>
+        <v>1537.7415</v>
       </c>
       <c r="G35" t="n">
-        <v>266.0933333333335</v>
+        <v>4907.133022406433</v>
       </c>
       <c r="H35" t="n">
-        <v>259.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,42 +1661,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>265.3</v>
+        <v>259</v>
       </c>
       <c r="C36" t="n">
-        <v>265.3</v>
+        <v>259</v>
       </c>
       <c r="D36" t="n">
-        <v>265.3</v>
+        <v>259</v>
       </c>
       <c r="E36" t="n">
-        <v>265.3</v>
+        <v>259</v>
       </c>
       <c r="F36" t="n">
-        <v>26.09</v>
+        <v>21.9123</v>
       </c>
       <c r="G36" t="n">
-        <v>266.2866666666667</v>
+        <v>4907.133022406433</v>
       </c>
       <c r="H36" t="n">
-        <v>259.4683333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,42 +1696,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>267</v>
+        <v>259.2</v>
       </c>
       <c r="C37" t="n">
-        <v>267.9</v>
+        <v>259.2</v>
       </c>
       <c r="D37" t="n">
-        <v>267.9</v>
+        <v>259.2</v>
       </c>
       <c r="E37" t="n">
-        <v>267</v>
+        <v>259.2</v>
       </c>
       <c r="F37" t="n">
-        <v>351.5733</v>
+        <v>46.1041</v>
       </c>
       <c r="G37" t="n">
-        <v>266.4133333333335</v>
+        <v>4953.237122406433</v>
       </c>
       <c r="H37" t="n">
-        <v>259.715</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,42 +1731,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>267.7</v>
+        <v>260.1</v>
       </c>
       <c r="C38" t="n">
-        <v>267.7</v>
+        <v>258</v>
       </c>
       <c r="D38" t="n">
-        <v>267.7</v>
+        <v>260.1</v>
       </c>
       <c r="E38" t="n">
-        <v>267.7</v>
+        <v>258</v>
       </c>
       <c r="F38" t="n">
-        <v>227.795</v>
+        <v>9635.504800000001</v>
       </c>
       <c r="G38" t="n">
-        <v>266.6333333333334</v>
+        <v>-4682.267677593568</v>
       </c>
       <c r="H38" t="n">
-        <v>259.91</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,42 +1766,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>267.9</v>
+        <v>259</v>
       </c>
       <c r="C39" t="n">
-        <v>267.9</v>
+        <v>258.4</v>
       </c>
       <c r="D39" t="n">
-        <v>267.9</v>
+        <v>259</v>
       </c>
       <c r="E39" t="n">
-        <v>267.9</v>
+        <v>258.4</v>
       </c>
       <c r="F39" t="n">
-        <v>930.8546</v>
+        <v>2096.4355</v>
       </c>
       <c r="G39" t="n">
-        <v>266.7533333333334</v>
+        <v>-2585.832177593568</v>
       </c>
       <c r="H39" t="n">
-        <v>260.1016666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,42 +1801,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>267.9</v>
+        <v>258.3</v>
       </c>
       <c r="C40" t="n">
-        <v>267.9</v>
+        <v>259.5</v>
       </c>
       <c r="D40" t="n">
-        <v>267.9</v>
+        <v>259.5</v>
       </c>
       <c r="E40" t="n">
-        <v>267.9</v>
+        <v>258.3</v>
       </c>
       <c r="F40" t="n">
-        <v>774</v>
+        <v>1474.6855</v>
       </c>
       <c r="G40" t="n">
-        <v>266.9200000000001</v>
+        <v>-1111.146677593568</v>
       </c>
       <c r="H40" t="n">
-        <v>260.2933333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,42 +1836,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
-        <v>266</v>
+        <v>260.2</v>
       </c>
       <c r="D41" t="n">
-        <v>266</v>
+        <v>262.6</v>
       </c>
       <c r="E41" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>67.7144</v>
+        <v>4188.85</v>
       </c>
       <c r="G41" t="n">
-        <v>266.7933333333334</v>
+        <v>3077.703322406433</v>
       </c>
       <c r="H41" t="n">
-        <v>260.4533333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,42 +1871,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>266.6</v>
+        <v>261</v>
       </c>
       <c r="C42" t="n">
-        <v>266.6</v>
+        <v>260.2</v>
       </c>
       <c r="D42" t="n">
-        <v>266.6</v>
+        <v>261</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6</v>
+        <v>260.2</v>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>58.8122</v>
       </c>
       <c r="G42" t="n">
-        <v>266.6533333333334</v>
+        <v>3077.703322406433</v>
       </c>
       <c r="H42" t="n">
-        <v>260.6466666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,42 +1906,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>266.6</v>
+        <v>261.3</v>
       </c>
       <c r="C43" t="n">
-        <v>268.9</v>
+        <v>262</v>
       </c>
       <c r="D43" t="n">
-        <v>268.9</v>
+        <v>262</v>
       </c>
       <c r="E43" t="n">
-        <v>266.6</v>
+        <v>261.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1656.02</v>
+        <v>174</v>
       </c>
       <c r="G43" t="n">
-        <v>266.8866666666667</v>
+        <v>3251.703322406433</v>
       </c>
       <c r="H43" t="n">
-        <v>260.8933333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,42 +1941,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>268.9</v>
+        <v>261.4</v>
       </c>
       <c r="C44" t="n">
-        <v>268.9</v>
+        <v>259.1</v>
       </c>
       <c r="D44" t="n">
-        <v>268.9</v>
+        <v>261.4</v>
       </c>
       <c r="E44" t="n">
-        <v>268.9</v>
+        <v>259.1</v>
       </c>
       <c r="F44" t="n">
-        <v>4145.4432</v>
+        <v>1160.597</v>
       </c>
       <c r="G44" t="n">
-        <v>267.0666666666667</v>
+        <v>2091.106322406433</v>
       </c>
       <c r="H44" t="n">
-        <v>261.1416666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2330,42 +1976,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>264</v>
+        <v>259.6</v>
       </c>
       <c r="C45" t="n">
-        <v>264</v>
+        <v>260.1</v>
       </c>
       <c r="D45" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E45" t="n">
-        <v>264</v>
+        <v>259.6</v>
       </c>
       <c r="F45" t="n">
-        <v>19.4203</v>
+        <v>2509.7961</v>
       </c>
       <c r="G45" t="n">
-        <v>266.9266666666667</v>
+        <v>4600.902422406432</v>
       </c>
       <c r="H45" t="n">
-        <v>261.3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,42 +2011,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="C46" t="n">
-        <v>259.2</v>
+        <v>263.7</v>
       </c>
       <c r="D46" t="n">
-        <v>264</v>
+        <v>263.7</v>
       </c>
       <c r="E46" t="n">
-        <v>259.2</v>
+        <v>260.3</v>
       </c>
       <c r="F46" t="n">
-        <v>802.3898</v>
+        <v>2643.2237</v>
       </c>
       <c r="G46" t="n">
-        <v>266.5200000000001</v>
+        <v>7244.126122406433</v>
       </c>
       <c r="H46" t="n">
-        <v>261.365</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,42 +2046,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>259.1</v>
+        <v>263.7</v>
       </c>
       <c r="C47" t="n">
-        <v>259</v>
+        <v>261.2</v>
       </c>
       <c r="D47" t="n">
-        <v>259.1</v>
+        <v>263.9</v>
       </c>
       <c r="E47" t="n">
-        <v>259</v>
+        <v>260.8</v>
       </c>
       <c r="F47" t="n">
-        <v>147.97</v>
+        <v>13713.5558</v>
       </c>
       <c r="G47" t="n">
-        <v>265.9200000000001</v>
+        <v>-6469.429677593567</v>
       </c>
       <c r="H47" t="n">
-        <v>261.415</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,42 +2081,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="C48" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="D48" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="E48" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="F48" t="n">
-        <v>110</v>
+        <v>139.0444</v>
       </c>
       <c r="G48" t="n">
-        <v>265.08</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H48" t="n">
-        <v>261.405</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,42 +2116,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>254.4</v>
+        <v>262.4</v>
       </c>
       <c r="C49" t="n">
-        <v>256.9</v>
+        <v>262.4</v>
       </c>
       <c r="D49" t="n">
-        <v>257.2</v>
+        <v>262.4</v>
       </c>
       <c r="E49" t="n">
-        <v>254.1</v>
+        <v>262.4</v>
       </c>
       <c r="F49" t="n">
-        <v>8464.477800000001</v>
+        <v>1387.385</v>
       </c>
       <c r="G49" t="n">
-        <v>264.46</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H49" t="n">
-        <v>261.4066666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,42 +2151,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>257.1</v>
+        <v>262.4</v>
       </c>
       <c r="C50" t="n">
-        <v>260</v>
+        <v>262.4</v>
       </c>
       <c r="D50" t="n">
-        <v>260.1</v>
+        <v>262.4</v>
       </c>
       <c r="E50" t="n">
-        <v>256.9</v>
+        <v>262.4</v>
       </c>
       <c r="F50" t="n">
-        <v>1750</v>
+        <v>266.486</v>
       </c>
       <c r="G50" t="n">
-        <v>264.1066666666667</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H50" t="n">
-        <v>261.4633333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,42 +2186,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>258.1</v>
+        <v>263.8</v>
       </c>
       <c r="C51" t="n">
-        <v>258.1</v>
+        <v>266</v>
       </c>
       <c r="D51" t="n">
-        <v>258.1</v>
+        <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>258.1</v>
+        <v>263.8</v>
       </c>
       <c r="F51" t="n">
-        <v>155.97</v>
+        <v>403.3406</v>
       </c>
       <c r="G51" t="n">
-        <v>263.6266666666667</v>
+        <v>-5927.044677593567</v>
       </c>
       <c r="H51" t="n">
-        <v>261.4966666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,42 +2221,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>258.3</v>
+        <v>264.4</v>
       </c>
       <c r="C52" t="n">
-        <v>258</v>
+        <v>264.4</v>
       </c>
       <c r="D52" t="n">
-        <v>258.3</v>
+        <v>264.4</v>
       </c>
       <c r="E52" t="n">
-        <v>258</v>
+        <v>264.4</v>
       </c>
       <c r="F52" t="n">
-        <v>12959.2747</v>
+        <v>1740.938</v>
       </c>
       <c r="G52" t="n">
-        <v>262.9666666666667</v>
+        <v>-7667.982677593567</v>
       </c>
       <c r="H52" t="n">
-        <v>261.5283333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,42 +2256,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>260</v>
+        <v>264.1</v>
       </c>
       <c r="C53" t="n">
-        <v>260.1</v>
+        <v>266.1</v>
       </c>
       <c r="D53" t="n">
-        <v>261.9</v>
+        <v>267.7</v>
       </c>
       <c r="E53" t="n">
-        <v>260</v>
+        <v>264.1</v>
       </c>
       <c r="F53" t="n">
-        <v>2149.9779</v>
+        <v>4535.5902</v>
       </c>
       <c r="G53" t="n">
-        <v>262.46</v>
+        <v>-3132.392477593567</v>
       </c>
       <c r="H53" t="n">
-        <v>261.6016666666666</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,42 +2291,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>263.7</v>
+        <v>267.7</v>
       </c>
       <c r="C54" t="n">
-        <v>263.7</v>
+        <v>265.4</v>
       </c>
       <c r="D54" t="n">
-        <v>263.7</v>
+        <v>267.7</v>
       </c>
       <c r="E54" t="n">
-        <v>263.7</v>
+        <v>265.4</v>
       </c>
       <c r="F54" t="n">
-        <v>589.3376</v>
+        <v>3118.1394</v>
       </c>
       <c r="G54" t="n">
-        <v>262.18</v>
+        <v>-6250.531877593568</v>
       </c>
       <c r="H54" t="n">
-        <v>261.745</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,42 +2326,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>263.7</v>
+        <v>267.5</v>
       </c>
       <c r="C55" t="n">
-        <v>265.1</v>
+        <v>267.9</v>
       </c>
       <c r="D55" t="n">
-        <v>265.1</v>
+        <v>267.9</v>
       </c>
       <c r="E55" t="n">
-        <v>263.7</v>
+        <v>265.6</v>
       </c>
       <c r="F55" t="n">
-        <v>2451.6624</v>
+        <v>1320.1059</v>
       </c>
       <c r="G55" t="n">
-        <v>261.9933333333333</v>
+        <v>-4930.425977593568</v>
       </c>
       <c r="H55" t="n">
-        <v>261.93</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,42 +2361,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>265.1</v>
+        <v>268.7</v>
       </c>
       <c r="C56" t="n">
-        <v>265.1</v>
+        <v>268.7</v>
       </c>
       <c r="D56" t="n">
-        <v>265.1</v>
+        <v>268.7</v>
       </c>
       <c r="E56" t="n">
-        <v>265.1</v>
+        <v>268.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1333.8532</v>
+        <v>166.3835</v>
       </c>
       <c r="G56" t="n">
-        <v>261.9333333333333</v>
+        <v>-4764.042477593568</v>
       </c>
       <c r="H56" t="n">
-        <v>262.145</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,42 +2396,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266</v>
+        <v>266.2</v>
       </c>
       <c r="C57" t="n">
-        <v>266</v>
+        <v>265.4</v>
       </c>
       <c r="D57" t="n">
-        <v>266</v>
+        <v>266.2</v>
       </c>
       <c r="E57" t="n">
-        <v>266</v>
+        <v>265.4</v>
       </c>
       <c r="F57" t="n">
-        <v>71.81010000000001</v>
+        <v>804.617</v>
       </c>
       <c r="G57" t="n">
-        <v>261.8933333333333</v>
+        <v>-5568.659477593568</v>
       </c>
       <c r="H57" t="n">
-        <v>262.3533333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,42 +2431,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>266.8</v>
+        <v>265.4</v>
       </c>
       <c r="C58" t="n">
-        <v>264.4</v>
+        <v>266.2</v>
       </c>
       <c r="D58" t="n">
-        <v>266.8</v>
+        <v>266.9</v>
       </c>
       <c r="E58" t="n">
-        <v>264.4</v>
+        <v>265.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1137.6725</v>
+        <v>3484.5059</v>
       </c>
       <c r="G58" t="n">
-        <v>261.5933333333334</v>
+        <v>-2084.153577593568</v>
       </c>
       <c r="H58" t="n">
-        <v>262.5233333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,42 +2466,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>264</v>
+        <v>266.9</v>
       </c>
       <c r="C59" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="D59" t="n">
-        <v>264</v>
+        <v>266.9</v>
       </c>
       <c r="E59" t="n">
-        <v>264</v>
+        <v>266.1</v>
       </c>
       <c r="F59" t="n">
-        <v>9.59</v>
+        <v>205.412</v>
       </c>
       <c r="G59" t="n">
-        <v>261.2666666666667</v>
+        <v>-2289.565577593568</v>
       </c>
       <c r="H59" t="n">
-        <v>262.6616666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,42 +2501,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>261</v>
+        <v>265.3</v>
       </c>
       <c r="C60" t="n">
-        <v>258</v>
+        <v>265.3</v>
       </c>
       <c r="D60" t="n">
-        <v>261</v>
+        <v>265.3</v>
       </c>
       <c r="E60" t="n">
-        <v>258</v>
+        <v>265.2</v>
       </c>
       <c r="F60" t="n">
-        <v>1635</v>
+        <v>948.4063</v>
       </c>
       <c r="G60" t="n">
-        <v>260.8666666666667</v>
+        <v>-3237.971877593568</v>
       </c>
       <c r="H60" t="n">
-        <v>262.6966666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3034,42 +2536,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>260.8</v>
+        <v>268</v>
       </c>
       <c r="C61" t="n">
-        <v>260.2</v>
+        <v>268</v>
       </c>
       <c r="D61" t="n">
-        <v>260.8</v>
+        <v>268</v>
       </c>
       <c r="E61" t="n">
-        <v>260.2</v>
+        <v>268</v>
       </c>
       <c r="F61" t="n">
-        <v>13271.5276</v>
+        <v>576.4333</v>
       </c>
       <c r="G61" t="n">
-        <v>260.9333333333333</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H61" t="n">
-        <v>262.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,42 +2571,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>260.3</v>
+        <v>268</v>
       </c>
       <c r="C62" t="n">
-        <v>260.3</v>
+        <v>268</v>
       </c>
       <c r="D62" t="n">
-        <v>260.3</v>
+        <v>268</v>
       </c>
       <c r="E62" t="n">
-        <v>260.3</v>
+        <v>268</v>
       </c>
       <c r="F62" t="n">
-        <v>15077.4092</v>
+        <v>89.33</v>
       </c>
       <c r="G62" t="n">
-        <v>261.02</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H62" t="n">
-        <v>262.8149999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3122,42 +2606,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>260.3</v>
+        <v>266.3</v>
       </c>
       <c r="C63" t="n">
-        <v>260.3</v>
+        <v>266.2</v>
       </c>
       <c r="D63" t="n">
-        <v>260.3</v>
+        <v>268</v>
       </c>
       <c r="E63" t="n">
-        <v>260.3</v>
+        <v>266.2</v>
       </c>
       <c r="F63" t="n">
-        <v>108.87</v>
+        <v>680</v>
       </c>
       <c r="G63" t="n">
-        <v>261.3466666666667</v>
+        <v>-3341.538577593568</v>
       </c>
       <c r="H63" t="n">
-        <v>262.8966666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,42 +2641,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>260.3</v>
+        <v>266.2</v>
       </c>
       <c r="C64" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="D64" t="n">
-        <v>260.3</v>
+        <v>267.8</v>
       </c>
       <c r="E64" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="F64" t="n">
-        <v>895.67</v>
+        <v>1020.9705</v>
       </c>
       <c r="G64" t="n">
-        <v>261.5733333333333</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H64" t="n">
-        <v>262.9516666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,42 +2676,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="C65" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="D65" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="E65" t="n">
-        <v>260.3</v>
+        <v>265.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1258.3168</v>
+        <v>26.09</v>
       </c>
       <c r="G65" t="n">
-        <v>261.5933333333333</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H65" t="n">
-        <v>263.0216666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,42 +2711,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C66" t="n">
-        <v>264</v>
+        <v>267.9</v>
       </c>
       <c r="D66" t="n">
-        <v>264</v>
+        <v>267.9</v>
       </c>
       <c r="E66" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F66" t="n">
-        <v>48</v>
+        <v>351.5733</v>
       </c>
       <c r="G66" t="n">
-        <v>261.9866666666666</v>
+        <v>-4010.935777593568</v>
       </c>
       <c r="H66" t="n">
-        <v>263.1049999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,42 +2746,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>265</v>
+        <v>267.7</v>
       </c>
       <c r="C67" t="n">
-        <v>265.3</v>
+        <v>267.7</v>
       </c>
       <c r="D67" t="n">
-        <v>265.3</v>
+        <v>267.7</v>
       </c>
       <c r="E67" t="n">
-        <v>265</v>
+        <v>267.7</v>
       </c>
       <c r="F67" t="n">
-        <v>5659.450642404825</v>
+        <v>227.795</v>
       </c>
       <c r="G67" t="n">
-        <v>262.4733333333333</v>
+        <v>-4238.730777593568</v>
       </c>
       <c r="H67" t="n">
-        <v>263.2099999999999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,42 +2781,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>264.7</v>
+        <v>267.9</v>
       </c>
       <c r="C68" t="n">
-        <v>264.7</v>
+        <v>267.9</v>
       </c>
       <c r="D68" t="n">
-        <v>264.7</v>
+        <v>267.9</v>
       </c>
       <c r="E68" t="n">
-        <v>264.7</v>
+        <v>267.9</v>
       </c>
       <c r="F68" t="n">
-        <v>5560.3245</v>
+        <v>930.8546</v>
       </c>
       <c r="G68" t="n">
-        <v>262.78</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H68" t="n">
-        <v>263.3016666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,42 +2816,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>264.4</v>
+        <v>267.9</v>
       </c>
       <c r="C69" t="n">
-        <v>264.4</v>
+        <v>267.9</v>
       </c>
       <c r="D69" t="n">
-        <v>264.4</v>
+        <v>267.9</v>
       </c>
       <c r="E69" t="n">
-        <v>264.4</v>
+        <v>267.9</v>
       </c>
       <c r="F69" t="n">
-        <v>22.6957</v>
+        <v>774</v>
       </c>
       <c r="G69" t="n">
-        <v>262.8266666666667</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H69" t="n">
-        <v>263.4083333333332</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,42 +2851,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>263.6</v>
+        <v>266</v>
       </c>
       <c r="C70" t="n">
-        <v>263.6</v>
+        <v>266</v>
       </c>
       <c r="D70" t="n">
-        <v>263.6</v>
+        <v>266</v>
       </c>
       <c r="E70" t="n">
-        <v>263.6</v>
+        <v>266</v>
       </c>
       <c r="F70" t="n">
-        <v>6034.8231</v>
+        <v>67.7144</v>
       </c>
       <c r="G70" t="n">
-        <v>262.7266666666667</v>
+        <v>-3375.590577593568</v>
       </c>
       <c r="H70" t="n">
-        <v>263.4949999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,42 +2886,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>263.3</v>
+        <v>266.6</v>
       </c>
       <c r="C71" t="n">
-        <v>263.3</v>
+        <v>266.6</v>
       </c>
       <c r="D71" t="n">
-        <v>263.3</v>
+        <v>266.6</v>
       </c>
       <c r="E71" t="n">
-        <v>263.3</v>
+        <v>266.6</v>
       </c>
       <c r="F71" t="n">
-        <v>5556.3609</v>
+        <v>250</v>
       </c>
       <c r="G71" t="n">
-        <v>262.6066666666667</v>
+        <v>-3125.590577593568</v>
       </c>
       <c r="H71" t="n">
-        <v>263.5583333333332</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,42 +2921,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>260.1</v>
+        <v>266.6</v>
       </c>
       <c r="C72" t="n">
-        <v>260.1</v>
+        <v>268.9</v>
       </c>
       <c r="D72" t="n">
-        <v>260.1</v>
+        <v>268.9</v>
       </c>
       <c r="E72" t="n">
-        <v>260.1</v>
+        <v>266.6</v>
       </c>
       <c r="F72" t="n">
-        <v>3.9636</v>
+        <v>1656.02</v>
       </c>
       <c r="G72" t="n">
-        <v>262.2133333333333</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H72" t="n">
-        <v>263.5566666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,42 +2956,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>259.1</v>
+        <v>268.9</v>
       </c>
       <c r="C73" t="n">
-        <v>259.1</v>
+        <v>268.9</v>
       </c>
       <c r="D73" t="n">
-        <v>259.1</v>
+        <v>268.9</v>
       </c>
       <c r="E73" t="n">
-        <v>259.1</v>
+        <v>268.9</v>
       </c>
       <c r="F73" t="n">
-        <v>162.8087</v>
+        <v>4145.4432</v>
       </c>
       <c r="G73" t="n">
-        <v>261.86</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H73" t="n">
-        <v>263.5383333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,42 +2991,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="C74" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="D74" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="E74" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="F74" t="n">
-        <v>461.1128</v>
+        <v>19.4203</v>
       </c>
       <c r="G74" t="n">
-        <v>261.4866666666667</v>
+        <v>-1488.990877593568</v>
       </c>
       <c r="H74" t="n">
-        <v>263.4783333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,42 +3026,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>259.4</v>
+        <v>264</v>
       </c>
       <c r="C75" t="n">
-        <v>258.4</v>
+        <v>259.2</v>
       </c>
       <c r="D75" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E75" t="n">
-        <v>258.4</v>
+        <v>259.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1937.5605</v>
+        <v>802.3898</v>
       </c>
       <c r="G75" t="n">
-        <v>261.5133333333333</v>
+        <v>-2291.380677593568</v>
       </c>
       <c r="H75" t="n">
-        <v>263.4666666666665</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,42 +3061,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>258.5</v>
+        <v>259.1</v>
       </c>
       <c r="C76" t="n">
-        <v>258.5</v>
+        <v>259</v>
       </c>
       <c r="D76" t="n">
-        <v>258.5</v>
+        <v>259.1</v>
       </c>
       <c r="E76" t="n">
-        <v>258.5</v>
+        <v>259</v>
       </c>
       <c r="F76" t="n">
-        <v>1053.2845</v>
+        <v>147.97</v>
       </c>
       <c r="G76" t="n">
-        <v>261.4</v>
+        <v>-2439.350677593568</v>
       </c>
       <c r="H76" t="n">
-        <v>263.4399999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,42 +3096,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>258.5</v>
+        <v>255.4</v>
       </c>
       <c r="C77" t="n">
-        <v>258.5</v>
+        <v>255.4</v>
       </c>
       <c r="D77" t="n">
-        <v>258.5</v>
+        <v>255.4</v>
       </c>
       <c r="E77" t="n">
-        <v>258.5</v>
+        <v>255.4</v>
       </c>
       <c r="F77" t="n">
-        <v>14024.1247</v>
+        <v>110</v>
       </c>
       <c r="G77" t="n">
-        <v>261.28</v>
+        <v>-2549.350677593568</v>
       </c>
       <c r="H77" t="n">
-        <v>263.3533333333332</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,42 +3131,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>260</v>
+        <v>254.4</v>
       </c>
       <c r="C78" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D78" t="n">
-        <v>260</v>
+        <v>257.2</v>
       </c>
       <c r="E78" t="n">
-        <v>260</v>
+        <v>254.1</v>
       </c>
       <c r="F78" t="n">
-        <v>777.2731</v>
+        <v>8464.477800000001</v>
       </c>
       <c r="G78" t="n">
-        <v>261.26</v>
+        <v>5915.127122406433</v>
       </c>
       <c r="H78" t="n">
-        <v>263.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,42 +3166,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>260</v>
+        <v>257.1</v>
       </c>
       <c r="C79" t="n">
         <v>260</v>
       </c>
       <c r="D79" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="E79" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="F79" t="n">
-        <v>322.8661</v>
+        <v>1750</v>
       </c>
       <c r="G79" t="n">
-        <v>261.24</v>
+        <v>7665.127122406433</v>
       </c>
       <c r="H79" t="n">
-        <v>263.2933333333332</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,42 +3201,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>260</v>
+        <v>258.1</v>
       </c>
       <c r="C80" t="n">
-        <v>260</v>
+        <v>258.1</v>
       </c>
       <c r="D80" t="n">
-        <v>260</v>
+        <v>258.1</v>
       </c>
       <c r="E80" t="n">
-        <v>260</v>
+        <v>258.1</v>
       </c>
       <c r="F80" t="n">
-        <v>48.6941</v>
+        <v>155.97</v>
       </c>
       <c r="G80" t="n">
-        <v>261.22</v>
+        <v>7509.157122406433</v>
       </c>
       <c r="H80" t="n">
-        <v>263.2533333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,42 +3236,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>260.1</v>
+        <v>258.3</v>
       </c>
       <c r="C81" t="n">
-        <v>260.1</v>
+        <v>258</v>
       </c>
       <c r="D81" t="n">
-        <v>260.1</v>
+        <v>258.3</v>
       </c>
       <c r="E81" t="n">
-        <v>260.1</v>
+        <v>258</v>
       </c>
       <c r="F81" t="n">
-        <v>4.9145</v>
+        <v>12959.2747</v>
       </c>
       <c r="G81" t="n">
-        <v>260.96</v>
+        <v>-5450.117577593567</v>
       </c>
       <c r="H81" t="n">
-        <v>263.2149999999999</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,42 +3271,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>259.7</v>
+        <v>260</v>
       </c>
       <c r="C82" t="n">
-        <v>259.5</v>
+        <v>260.1</v>
       </c>
       <c r="D82" t="n">
-        <v>259.7</v>
+        <v>261.9</v>
       </c>
       <c r="E82" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="F82" t="n">
-        <v>14586.3687</v>
+        <v>2149.9779</v>
       </c>
       <c r="G82" t="n">
-        <v>260.5733333333333</v>
+        <v>-3300.139677593567</v>
       </c>
       <c r="H82" t="n">
-        <v>263.1066666666665</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,42 +3306,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="C83" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="D83" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="E83" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="F83" t="n">
-        <v>1992.92</v>
+        <v>589.3376</v>
       </c>
       <c r="G83" t="n">
-        <v>260.2266666666666</v>
+        <v>-2710.802077593567</v>
       </c>
       <c r="H83" t="n">
-        <v>263.0249999999999</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,42 +3341,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="C84" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="D84" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="E84" t="n">
-        <v>259.5</v>
+        <v>263.7</v>
       </c>
       <c r="F84" t="n">
-        <v>368.31</v>
+        <v>2451.6624</v>
       </c>
       <c r="G84" t="n">
-        <v>259.9</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H84" t="n">
-        <v>262.9149999999998</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,42 +3376,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="C85" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="D85" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="E85" t="n">
-        <v>259.5</v>
+        <v>265.1</v>
       </c>
       <c r="F85" t="n">
-        <v>30.272</v>
+        <v>1333.8532</v>
       </c>
       <c r="G85" t="n">
-        <v>259.6266666666667</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H85" t="n">
-        <v>262.8166666666665</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,42 +3411,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C86" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D86" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E86" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F86" t="n">
-        <v>476.9929</v>
+        <v>71.81010000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>259.2733333333333</v>
+        <v>-187.3295775935673</v>
       </c>
       <c r="H86" t="n">
-        <v>262.6516666666665</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,42 +3446,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>258</v>
+        <v>266.8</v>
       </c>
       <c r="C87" t="n">
-        <v>258</v>
+        <v>264.4</v>
       </c>
       <c r="D87" t="n">
-        <v>258</v>
+        <v>266.8</v>
       </c>
       <c r="E87" t="n">
-        <v>258</v>
+        <v>264.4</v>
       </c>
       <c r="F87" t="n">
-        <v>11.4459</v>
+        <v>1137.6725</v>
       </c>
       <c r="G87" t="n">
-        <v>259.1333333333333</v>
+        <v>-1325.002077593567</v>
       </c>
       <c r="H87" t="n">
-        <v>262.4733333333332</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,42 +3481,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C88" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D88" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E88" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F88" t="n">
-        <v>2.3019</v>
+        <v>9.59</v>
       </c>
       <c r="G88" t="n">
-        <v>259.06</v>
+        <v>-1334.592077593567</v>
       </c>
       <c r="H88" t="n">
-        <v>262.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,42 +3516,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>255.7</v>
+        <v>261</v>
       </c>
       <c r="C89" t="n">
         <v>258</v>
       </c>
       <c r="D89" t="n">
+        <v>261</v>
+      </c>
+      <c r="E89" t="n">
         <v>258</v>
       </c>
-      <c r="E89" t="n">
-        <v>255.6</v>
-      </c>
       <c r="F89" t="n">
-        <v>17227.8707</v>
+        <v>1635</v>
       </c>
       <c r="G89" t="n">
-        <v>259.0333333333333</v>
+        <v>-2969.592077593567</v>
       </c>
       <c r="H89" t="n">
-        <v>262.2133333333332</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,42 +3551,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>254</v>
+        <v>260.8</v>
       </c>
       <c r="C90" t="n">
-        <v>253</v>
+        <v>260.2</v>
       </c>
       <c r="D90" t="n">
-        <v>254</v>
+        <v>260.8</v>
       </c>
       <c r="E90" t="n">
-        <v>253</v>
+        <v>260.2</v>
       </c>
       <c r="F90" t="n">
-        <v>194.269</v>
+        <v>13271.5276</v>
       </c>
       <c r="G90" t="n">
-        <v>258.6733333333333</v>
+        <v>10301.93552240643</v>
       </c>
       <c r="H90" t="n">
-        <v>261.9949999999998</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,42 +3586,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>252.9</v>
+        <v>260.3</v>
       </c>
       <c r="C91" t="n">
-        <v>252.9</v>
+        <v>260.3</v>
       </c>
       <c r="D91" t="n">
-        <v>252.9</v>
+        <v>260.3</v>
       </c>
       <c r="E91" t="n">
-        <v>252.9</v>
+        <v>260.3</v>
       </c>
       <c r="F91" t="n">
-        <v>72.3954</v>
+        <v>15077.4092</v>
       </c>
       <c r="G91" t="n">
-        <v>258.3</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H91" t="n">
-        <v>261.7883333333332</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,42 +3621,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>251</v>
+        <v>260.3</v>
       </c>
       <c r="C92" t="n">
-        <v>248.3</v>
+        <v>260.3</v>
       </c>
       <c r="D92" t="n">
-        <v>251</v>
+        <v>260.3</v>
       </c>
       <c r="E92" t="n">
-        <v>248.3</v>
+        <v>260.3</v>
       </c>
       <c r="F92" t="n">
-        <v>9704.5995</v>
+        <v>108.87</v>
       </c>
       <c r="G92" t="n">
-        <v>257.62</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H92" t="n">
-        <v>261.4599999999999</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,42 +3656,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="C93" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="D93" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="E93" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="F93" t="n">
-        <v>129.52</v>
+        <v>895.67</v>
       </c>
       <c r="G93" t="n">
-        <v>257.0600000000001</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H93" t="n">
-        <v>261.1866666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,44 +3691,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="C94" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="D94" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="E94" t="n">
-        <v>251.6</v>
+        <v>260.3</v>
       </c>
       <c r="F94" t="n">
-        <v>85</v>
+        <v>1258.3168</v>
       </c>
       <c r="G94" t="n">
-        <v>256.5000000000001</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H94" t="n">
-        <v>260.9433333333332</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="L94" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,44 +3726,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C95" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D95" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E95" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F95" t="n">
-        <v>10.2982</v>
+        <v>48</v>
       </c>
       <c r="G95" t="n">
-        <v>255.9666666666667</v>
+        <v>25427.34472240643</v>
       </c>
       <c r="H95" t="n">
-        <v>260.7216666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="L95" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,44 +3761,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>252.1</v>
+        <v>265</v>
       </c>
       <c r="C96" t="n">
-        <v>252.1</v>
+        <v>265.3</v>
       </c>
       <c r="D96" t="n">
-        <v>252.1</v>
+        <v>265.3</v>
       </c>
       <c r="E96" t="n">
-        <v>252.1</v>
+        <v>265</v>
       </c>
       <c r="F96" t="n">
-        <v>26</v>
+        <v>5659.450642404825</v>
       </c>
       <c r="G96" t="n">
-        <v>255.4333333333334</v>
+        <v>31086.79536481125</v>
       </c>
       <c r="H96" t="n">
-        <v>260.5016666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>252</v>
-      </c>
-      <c r="L96" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,44 +3796,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>252.1</v>
+        <v>264.7</v>
       </c>
       <c r="C97" t="n">
-        <v>252.1</v>
+        <v>264.7</v>
       </c>
       <c r="D97" t="n">
-        <v>252.1</v>
+        <v>264.7</v>
       </c>
       <c r="E97" t="n">
-        <v>252.1</v>
+        <v>264.7</v>
       </c>
       <c r="F97" t="n">
-        <v>5.05</v>
+        <v>5560.3245</v>
       </c>
       <c r="G97" t="n">
-        <v>254.9400000000001</v>
+        <v>25526.47086481125</v>
       </c>
       <c r="H97" t="n">
-        <v>260.2383333333332</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="L97" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,44 +3831,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>252.1</v>
+        <v>264.4</v>
       </c>
       <c r="C98" t="n">
-        <v>252.1</v>
+        <v>264.4</v>
       </c>
       <c r="D98" t="n">
-        <v>252.1</v>
+        <v>264.4</v>
       </c>
       <c r="E98" t="n">
-        <v>252.1</v>
+        <v>264.4</v>
       </c>
       <c r="F98" t="n">
-        <v>1.015</v>
+        <v>22.6957</v>
       </c>
       <c r="G98" t="n">
-        <v>254.4466666666667</v>
+        <v>25503.77516481125</v>
       </c>
       <c r="H98" t="n">
-        <v>259.9783333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,44 +3866,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>253.1</v>
+        <v>263.6</v>
       </c>
       <c r="C99" t="n">
-        <v>253.5</v>
+        <v>263.6</v>
       </c>
       <c r="D99" t="n">
-        <v>253.5</v>
+        <v>263.6</v>
       </c>
       <c r="E99" t="n">
-        <v>253.1</v>
+        <v>263.6</v>
       </c>
       <c r="F99" t="n">
-        <v>1696.0109</v>
+        <v>6034.8231</v>
       </c>
       <c r="G99" t="n">
-        <v>254.0466666666667</v>
+        <v>19468.95206481125</v>
       </c>
       <c r="H99" t="n">
-        <v>259.7383333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,44 +3901,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>253.5</v>
+        <v>263.3</v>
       </c>
       <c r="C100" t="n">
-        <v>254.6</v>
+        <v>263.3</v>
       </c>
       <c r="D100" t="n">
-        <v>255.9</v>
+        <v>263.3</v>
       </c>
       <c r="E100" t="n">
-        <v>253.5</v>
+        <v>263.3</v>
       </c>
       <c r="F100" t="n">
-        <v>3175.0666</v>
+        <v>5556.3609</v>
       </c>
       <c r="G100" t="n">
-        <v>253.7200000000001</v>
+        <v>13912.59116481125</v>
       </c>
       <c r="H100" t="n">
-        <v>259.5166666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="L100" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,42 +3936,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>253.1</v>
+        <v>260.1</v>
       </c>
       <c r="C101" t="n">
-        <v>253.1</v>
+        <v>260.1</v>
       </c>
       <c r="D101" t="n">
-        <v>253.1</v>
+        <v>260.1</v>
       </c>
       <c r="E101" t="n">
-        <v>253.1</v>
+        <v>260.1</v>
       </c>
       <c r="F101" t="n">
-        <v>243</v>
+        <v>3.9636</v>
       </c>
       <c r="G101" t="n">
-        <v>253.3933333333334</v>
+        <v>13908.62756481125</v>
       </c>
       <c r="H101" t="n">
-        <v>259.3016666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,42 +3971,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="C102" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="D102" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="E102" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="F102" t="n">
-        <v>174.53</v>
+        <v>162.8087</v>
       </c>
       <c r="G102" t="n">
-        <v>253.1266666666667</v>
+        <v>13745.81886481125</v>
       </c>
       <c r="H102" t="n">
-        <v>259.0916666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,44 +4006,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="C103" t="n">
-        <v>254</v>
+        <v>258.4</v>
       </c>
       <c r="D103" t="n">
-        <v>254</v>
+        <v>259.1</v>
       </c>
       <c r="E103" t="n">
-        <v>254</v>
+        <v>258.4</v>
       </c>
       <c r="F103" t="n">
-        <v>174</v>
+        <v>461.1128</v>
       </c>
       <c r="G103" t="n">
-        <v>252.86</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H103" t="n">
-        <v>258.8433333333332</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>254</v>
-      </c>
-      <c r="L103" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,44 +4041,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>257</v>
+        <v>259.4</v>
       </c>
       <c r="C104" t="n">
-        <v>257</v>
+        <v>258.4</v>
       </c>
       <c r="D104" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E104" t="n">
-        <v>257</v>
+        <v>258.4</v>
       </c>
       <c r="F104" t="n">
-        <v>10.6067</v>
+        <v>1937.5605</v>
       </c>
       <c r="G104" t="n">
-        <v>252.7933333333334</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H104" t="n">
-        <v>258.6449999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>254</v>
-      </c>
-      <c r="L104" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,42 +4076,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>257</v>
+        <v>258.5</v>
       </c>
       <c r="C105" t="n">
-        <v>257</v>
+        <v>258.5</v>
       </c>
       <c r="D105" t="n">
-        <v>257</v>
+        <v>258.5</v>
       </c>
       <c r="E105" t="n">
-        <v>257</v>
+        <v>258.5</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>1053.2845</v>
       </c>
       <c r="G105" t="n">
-        <v>253.06</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H105" t="n">
-        <v>258.5283333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,42 +4111,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>256.5</v>
+        <v>258.5</v>
       </c>
       <c r="C106" t="n">
-        <v>256.5</v>
+        <v>258.5</v>
       </c>
       <c r="D106" t="n">
-        <v>256.5</v>
+        <v>258.5</v>
       </c>
       <c r="E106" t="n">
-        <v>256.5</v>
+        <v>258.5</v>
       </c>
       <c r="F106" t="n">
-        <v>3368.3085</v>
+        <v>14024.1247</v>
       </c>
       <c r="G106" t="n">
-        <v>253.3</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H106" t="n">
-        <v>258.4833333333332</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,42 +4146,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F107" t="n">
-        <v>845.1004</v>
+        <v>777.2731</v>
       </c>
       <c r="G107" t="n">
-        <v>253.7466666666667</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H107" t="n">
-        <v>258.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,42 +4181,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>254.5</v>
+        <v>260</v>
       </c>
       <c r="C108" t="n">
-        <v>254.5</v>
+        <v>260</v>
       </c>
       <c r="D108" t="n">
-        <v>254.5</v>
+        <v>260</v>
       </c>
       <c r="E108" t="n">
-        <v>254.5</v>
+        <v>260</v>
       </c>
       <c r="F108" t="n">
-        <v>1432.98</v>
+        <v>322.8661</v>
       </c>
       <c r="G108" t="n">
-        <v>253.94</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H108" t="n">
-        <v>258.4016666666666</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,44 +4216,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>257.3</v>
+        <v>260</v>
       </c>
       <c r="C109" t="n">
-        <v>257.3</v>
+        <v>260</v>
       </c>
       <c r="D109" t="n">
-        <v>257.3</v>
+        <v>260</v>
       </c>
       <c r="E109" t="n">
-        <v>257.3</v>
+        <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>223.5405</v>
+        <v>48.6941</v>
       </c>
       <c r="G109" t="n">
-        <v>254.3200000000001</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H109" t="n">
-        <v>258.4083333333332</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="L109" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +4251,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="C110" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="D110" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="E110" t="n">
-        <v>259</v>
+        <v>260.1</v>
       </c>
       <c r="F110" t="n">
-        <v>41</v>
+        <v>4.9145</v>
       </c>
       <c r="G110" t="n">
-        <v>254.7866666666667</v>
+        <v>15120.17816481125</v>
       </c>
       <c r="H110" t="n">
-        <v>258.3916666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +4286,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>259</v>
+        <v>259.7</v>
       </c>
       <c r="C111" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="D111" t="n">
-        <v>259</v>
+        <v>259.7</v>
       </c>
       <c r="E111" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="F111" t="n">
-        <v>7.5</v>
+        <v>14586.3687</v>
       </c>
       <c r="G111" t="n">
-        <v>255.2466666666667</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H111" t="n">
-        <v>258.4066666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +4321,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="C112" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="D112" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="E112" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="F112" t="n">
-        <v>141.7248</v>
+        <v>1992.92</v>
       </c>
       <c r="G112" t="n">
-        <v>255.7733333333334</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H112" t="n">
-        <v>258.4399999999999</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +4356,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="C113" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="D113" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="E113" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="F113" t="n">
-        <v>5722</v>
+        <v>368.31</v>
       </c>
       <c r="G113" t="n">
-        <v>256.4266666666667</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H113" t="n">
-        <v>258.4699999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,42 +4391,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="C114" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="D114" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="E114" t="n">
-        <v>261.9</v>
+        <v>259.5</v>
       </c>
       <c r="F114" t="n">
-        <v>174</v>
+        <v>30.272</v>
       </c>
       <c r="G114" t="n">
-        <v>256.9866666666667</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H114" t="n">
-        <v>258.4399999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,42 +4426,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C115" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D115" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E115" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F115" t="n">
-        <v>6.95</v>
+        <v>476.9929</v>
       </c>
       <c r="G115" t="n">
-        <v>257.6133333333334</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H115" t="n">
-        <v>258.4216666666665</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,42 +4461,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C116" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D116" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E116" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F116" t="n">
-        <v>43.79</v>
+        <v>11.4459</v>
       </c>
       <c r="G116" t="n">
-        <v>258.34</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H116" t="n">
-        <v>258.4033333333332</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,42 +4496,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C117" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D117" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E117" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F117" t="n">
-        <v>1585.29</v>
+        <v>2.3019</v>
       </c>
       <c r="G117" t="n">
-        <v>259.0066666666667</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H117" t="n">
-        <v>258.3699999999998</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,42 +4531,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>264</v>
+        <v>255.7</v>
       </c>
       <c r="C118" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D118" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E118" t="n">
-        <v>264</v>
+        <v>255.6</v>
       </c>
       <c r="F118" t="n">
-        <v>317.0565</v>
+        <v>17227.8707</v>
       </c>
       <c r="G118" t="n">
-        <v>259.6733333333333</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H118" t="n">
-        <v>258.3633333333332</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,42 +4566,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="C119" t="n">
-        <v>264.3</v>
+        <v>253</v>
       </c>
       <c r="D119" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="E119" t="n">
-        <v>264.3</v>
+        <v>253</v>
       </c>
       <c r="F119" t="n">
-        <v>1149.425</v>
+        <v>194.269</v>
       </c>
       <c r="G119" t="n">
-        <v>260.16</v>
+        <v>-137.4524351887472</v>
       </c>
       <c r="H119" t="n">
-        <v>258.3683333333332</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,42 +4601,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>264</v>
+        <v>252.9</v>
       </c>
       <c r="C120" t="n">
-        <v>264</v>
+        <v>252.9</v>
       </c>
       <c r="D120" t="n">
-        <v>264</v>
+        <v>252.9</v>
       </c>
       <c r="E120" t="n">
-        <v>264</v>
+        <v>252.9</v>
       </c>
       <c r="F120" t="n">
-        <v>1171.2212</v>
+        <v>72.3954</v>
       </c>
       <c r="G120" t="n">
-        <v>260.6266666666667</v>
+        <v>-209.8478351887472</v>
       </c>
       <c r="H120" t="n">
-        <v>258.4683333333332</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,42 +4636,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C121" t="n">
-        <v>265</v>
+        <v>248.3</v>
       </c>
       <c r="D121" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E121" t="n">
-        <v>265</v>
+        <v>248.3</v>
       </c>
       <c r="F121" t="n">
-        <v>584.2188</v>
+        <v>9704.5995</v>
       </c>
       <c r="G121" t="n">
-        <v>261.1933333333334</v>
+        <v>-9914.447335188748</v>
       </c>
       <c r="H121" t="n">
-        <v>258.5483333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,42 +4671,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>265.5</v>
+        <v>251.6</v>
       </c>
       <c r="C122" t="n">
-        <v>265.5</v>
+        <v>251.6</v>
       </c>
       <c r="D122" t="n">
-        <v>265.5</v>
+        <v>251.6</v>
       </c>
       <c r="E122" t="n">
-        <v>265.5</v>
+        <v>251.6</v>
       </c>
       <c r="F122" t="n">
-        <v>1605.2555</v>
+        <v>129.52</v>
       </c>
       <c r="G122" t="n">
-        <v>261.8933333333334</v>
+        <v>-9784.927335188748</v>
       </c>
       <c r="H122" t="n">
-        <v>258.6349999999999</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,42 +4706,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>266</v>
+        <v>251.6</v>
       </c>
       <c r="C123" t="n">
-        <v>266</v>
+        <v>251.6</v>
       </c>
       <c r="D123" t="n">
-        <v>266</v>
+        <v>251.6</v>
       </c>
       <c r="E123" t="n">
-        <v>266</v>
+        <v>251.6</v>
       </c>
       <c r="F123" t="n">
-        <v>1901.0865</v>
+        <v>85</v>
       </c>
       <c r="G123" t="n">
-        <v>262.66</v>
+        <v>-9784.927335188748</v>
       </c>
       <c r="H123" t="n">
-        <v>258.7299999999998</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,42 +4741,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>266.2</v>
+        <v>252</v>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D124" t="n">
-        <v>266.2</v>
+        <v>252</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F124" t="n">
-        <v>5468.4151</v>
+        <v>10.2982</v>
       </c>
       <c r="G124" t="n">
-        <v>263.24</v>
+        <v>-9774.629135188748</v>
       </c>
       <c r="H124" t="n">
-        <v>258.8249999999999</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,42 +4776,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="C125" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="D125" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="E125" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="F125" t="n">
-        <v>175.3159</v>
+        <v>26</v>
       </c>
       <c r="G125" t="n">
-        <v>263.6866666666667</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H125" t="n">
-        <v>258.9149999999999</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,42 +4811,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="C126" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="D126" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="E126" t="n">
-        <v>265.7</v>
+        <v>252.1</v>
       </c>
       <c r="F126" t="n">
-        <v>215</v>
+        <v>5.05</v>
       </c>
       <c r="G126" t="n">
-        <v>264.1333333333333</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H126" t="n">
-        <v>258.9433333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,42 +4846,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>265</v>
+        <v>252.1</v>
       </c>
       <c r="C127" t="n">
-        <v>265</v>
+        <v>252.1</v>
       </c>
       <c r="D127" t="n">
-        <v>265</v>
+        <v>252.1</v>
       </c>
       <c r="E127" t="n">
-        <v>265</v>
+        <v>252.1</v>
       </c>
       <c r="F127" t="n">
-        <v>192.1698</v>
+        <v>1.015</v>
       </c>
       <c r="G127" t="n">
-        <v>264.4666666666666</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H127" t="n">
-        <v>258.9383333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,42 +4881,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>265</v>
+        <v>253.1</v>
       </c>
       <c r="C128" t="n">
-        <v>265</v>
+        <v>253.5</v>
       </c>
       <c r="D128" t="n">
-        <v>265</v>
+        <v>253.5</v>
       </c>
       <c r="E128" t="n">
-        <v>265</v>
+        <v>253.1</v>
       </c>
       <c r="F128" t="n">
-        <v>1511.1073</v>
+        <v>1696.0109</v>
       </c>
       <c r="G128" t="n">
-        <v>264.6733333333333</v>
+        <v>-8052.618235188748</v>
       </c>
       <c r="H128" t="n">
-        <v>258.9433333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6046,42 +4916,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>264.3</v>
+        <v>253.5</v>
       </c>
       <c r="C129" t="n">
-        <v>264.3</v>
+        <v>254.6</v>
       </c>
       <c r="D129" t="n">
-        <v>264.3</v>
+        <v>255.9</v>
       </c>
       <c r="E129" t="n">
-        <v>264.3</v>
+        <v>253.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1402.1649</v>
+        <v>3175.0666</v>
       </c>
       <c r="G129" t="n">
-        <v>264.8333333333333</v>
+        <v>-4877.551635188748</v>
       </c>
       <c r="H129" t="n">
-        <v>258.9416666666665</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,42 +4951,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>264.3</v>
+        <v>253.1</v>
       </c>
       <c r="C130" t="n">
-        <v>264.3</v>
+        <v>253.1</v>
       </c>
       <c r="D130" t="n">
-        <v>264.3</v>
+        <v>253.1</v>
       </c>
       <c r="E130" t="n">
-        <v>264.3</v>
+        <v>253.1</v>
       </c>
       <c r="F130" t="n">
-        <v>1799.0151</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
-        <v>264.8533333333333</v>
+        <v>-5120.551635188748</v>
       </c>
       <c r="H130" t="n">
-        <v>258.9533333333332</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,42 +4986,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="C131" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="D131" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="E131" t="n">
-        <v>264.3</v>
+        <v>254</v>
       </c>
       <c r="F131" t="n">
-        <v>200.9849</v>
+        <v>174.53</v>
       </c>
       <c r="G131" t="n">
-        <v>264.8733333333333</v>
+        <v>-4946.021635188748</v>
       </c>
       <c r="H131" t="n">
-        <v>258.9699999999999</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,42 +5021,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>264.4</v>
+        <v>254</v>
       </c>
       <c r="C132" t="n">
-        <v>264.4</v>
+        <v>254</v>
       </c>
       <c r="D132" t="n">
-        <v>264.4</v>
+        <v>254</v>
       </c>
       <c r="E132" t="n">
-        <v>264.4</v>
+        <v>254</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="G132" t="n">
-        <v>264.8999999999999</v>
+        <v>-4946.021635188748</v>
       </c>
       <c r="H132" t="n">
-        <v>259.0416666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,42 +5056,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C133" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D133" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E133" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F133" t="n">
-        <v>166.4493</v>
+        <v>10.6067</v>
       </c>
       <c r="G133" t="n">
-        <v>264.8999999999999</v>
+        <v>-4935.414935188748</v>
       </c>
       <c r="H133" t="n">
-        <v>259.1233333333332</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6266,42 +5091,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C134" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D134" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E134" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F134" t="n">
-        <v>2032.603</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>264.8799999999999</v>
+        <v>-4935.414935188748</v>
       </c>
       <c r="H134" t="n">
-        <v>259.2166666666665</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,42 +5126,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>265</v>
+        <v>256.5</v>
       </c>
       <c r="C135" t="n">
-        <v>265</v>
+        <v>256.5</v>
       </c>
       <c r="D135" t="n">
-        <v>265</v>
+        <v>256.5</v>
       </c>
       <c r="E135" t="n">
-        <v>265</v>
+        <v>256.5</v>
       </c>
       <c r="F135" t="n">
-        <v>10.4363</v>
+        <v>3368.3085</v>
       </c>
       <c r="G135" t="n">
-        <v>264.9466666666666</v>
+        <v>-8303.723435188749</v>
       </c>
       <c r="H135" t="n">
-        <v>259.3266666666665</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6354,42 +5161,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>265.9</v>
+        <v>255</v>
       </c>
       <c r="C136" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D136" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E136" t="n">
-        <v>265.9</v>
+        <v>255</v>
       </c>
       <c r="F136" t="n">
-        <v>227.1101</v>
+        <v>845.1004</v>
       </c>
       <c r="G136" t="n">
-        <v>265.0133333333333</v>
+        <v>-9148.823835188748</v>
       </c>
       <c r="H136" t="n">
-        <v>259.4516666666665</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,42 +5196,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>268.7</v>
+        <v>254.5</v>
       </c>
       <c r="C137" t="n">
-        <v>268</v>
+        <v>254.5</v>
       </c>
       <c r="D137" t="n">
-        <v>268.7</v>
+        <v>254.5</v>
       </c>
       <c r="E137" t="n">
-        <v>268</v>
+        <v>254.5</v>
       </c>
       <c r="F137" t="n">
-        <v>263</v>
+        <v>1432.98</v>
       </c>
       <c r="G137" t="n">
-        <v>265.1799999999999</v>
+        <v>-10581.80383518875</v>
       </c>
       <c r="H137" t="n">
-        <v>259.6099999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,42 +5231,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>269</v>
+        <v>257.3</v>
       </c>
       <c r="C138" t="n">
-        <v>269</v>
+        <v>257.3</v>
       </c>
       <c r="D138" t="n">
-        <v>269</v>
+        <v>257.3</v>
       </c>
       <c r="E138" t="n">
-        <v>269</v>
+        <v>257.3</v>
       </c>
       <c r="F138" t="n">
-        <v>103.2763</v>
+        <v>223.5405</v>
       </c>
       <c r="G138" t="n">
-        <v>265.3799999999999</v>
+        <v>-10358.26333518875</v>
       </c>
       <c r="H138" t="n">
-        <v>259.7599999999999</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,42 +5266,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C139" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D139" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E139" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F139" t="n">
-        <v>287.6749</v>
+        <v>41</v>
       </c>
       <c r="G139" t="n">
-        <v>265.6466666666666</v>
+        <v>-10317.26333518875</v>
       </c>
       <c r="H139" t="n">
-        <v>259.9266666666666</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6530,42 +5301,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C140" t="n">
-        <v>270.7</v>
+        <v>259</v>
       </c>
       <c r="D140" t="n">
-        <v>270.7</v>
+        <v>259</v>
       </c>
       <c r="E140" t="n">
-        <v>269.4</v>
+        <v>259</v>
       </c>
       <c r="F140" t="n">
-        <v>470.0743</v>
+        <v>7.5</v>
       </c>
       <c r="G140" t="n">
-        <v>265.9799999999999</v>
+        <v>-10317.26333518875</v>
       </c>
       <c r="H140" t="n">
-        <v>260.1049999999999</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,42 +5336,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>270.7</v>
+        <v>259</v>
       </c>
       <c r="C141" t="n">
-        <v>270.7</v>
+        <v>260</v>
       </c>
       <c r="D141" t="n">
-        <v>270.7</v>
+        <v>260</v>
       </c>
       <c r="E141" t="n">
-        <v>270.7</v>
+        <v>259</v>
       </c>
       <c r="F141" t="n">
-        <v>23.3468</v>
+        <v>141.7248</v>
       </c>
       <c r="G141" t="n">
-        <v>266.3133333333333</v>
+        <v>-10175.53853518875</v>
       </c>
       <c r="H141" t="n">
-        <v>260.2816666666666</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6618,42 +5371,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>272.6</v>
+        <v>261.9</v>
       </c>
       <c r="C142" t="n">
-        <v>272.6</v>
+        <v>261.9</v>
       </c>
       <c r="D142" t="n">
-        <v>272.6</v>
+        <v>261.9</v>
       </c>
       <c r="E142" t="n">
-        <v>272.6</v>
+        <v>261.9</v>
       </c>
       <c r="F142" t="n">
-        <v>1689.3601</v>
+        <v>5722</v>
       </c>
       <c r="G142" t="n">
-        <v>266.8199999999999</v>
+        <v>-4453.538535188749</v>
       </c>
       <c r="H142" t="n">
-        <v>260.4999999999999</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,43 +5406,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>271</v>
+        <v>261.9</v>
       </c>
       <c r="C143" t="n">
-        <v>271</v>
+        <v>261.9</v>
       </c>
       <c r="D143" t="n">
-        <v>271</v>
+        <v>261.9</v>
       </c>
       <c r="E143" t="n">
-        <v>271</v>
+        <v>261.9</v>
       </c>
       <c r="F143" t="n">
-        <v>3.3211</v>
+        <v>174</v>
       </c>
       <c r="G143" t="n">
-        <v>267.22</v>
+        <v>-4453.538535188749</v>
       </c>
       <c r="H143" t="n">
-        <v>260.6916666666665</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
-        <v>1.047836052836053</v>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -6706,36 +5441,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C144" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D144" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E144" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F144" t="n">
-        <v>1526.0534</v>
+        <v>6.95</v>
       </c>
       <c r="G144" t="n">
-        <v>267.6</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H144" t="n">
-        <v>260.8666666666666</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6744,36 +5476,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>270.2</v>
+        <v>264</v>
       </c>
       <c r="C145" t="n">
-        <v>270.2</v>
+        <v>264</v>
       </c>
       <c r="D145" t="n">
-        <v>270.2</v>
+        <v>264</v>
       </c>
       <c r="E145" t="n">
-        <v>270.2</v>
+        <v>264</v>
       </c>
       <c r="F145" t="n">
-        <v>763.0267</v>
+        <v>43.79</v>
       </c>
       <c r="G145" t="n">
-        <v>267.9933333333332</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H145" t="n">
-        <v>261.0449999999999</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,36 +5511,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C146" t="n">
-        <v>273.7</v>
+        <v>264</v>
       </c>
       <c r="D146" t="n">
-        <v>274.8</v>
+        <v>264</v>
       </c>
       <c r="E146" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F146" t="n">
-        <v>10612.68</v>
+        <v>1585.29</v>
       </c>
       <c r="G146" t="n">
-        <v>268.6199999999999</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H146" t="n">
-        <v>261.3066666666666</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6820,36 +5546,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>272.8</v>
+        <v>264</v>
       </c>
       <c r="C147" t="n">
-        <v>273.1</v>
+        <v>264</v>
       </c>
       <c r="D147" t="n">
-        <v>273.1</v>
+        <v>264</v>
       </c>
       <c r="E147" t="n">
-        <v>272.7</v>
+        <v>264</v>
       </c>
       <c r="F147" t="n">
-        <v>1763.0267</v>
+        <v>317.0565</v>
       </c>
       <c r="G147" t="n">
-        <v>269.1999999999999</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H147" t="n">
-        <v>261.5583333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,36 +5581,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>273.5</v>
+        <v>264.3</v>
       </c>
       <c r="C148" t="n">
-        <v>273.8</v>
+        <v>264.3</v>
       </c>
       <c r="D148" t="n">
-        <v>273.8</v>
+        <v>264.3</v>
       </c>
       <c r="E148" t="n">
-        <v>273.5</v>
+        <v>264.3</v>
       </c>
       <c r="F148" t="n">
-        <v>166.4</v>
+        <v>1149.425</v>
       </c>
       <c r="G148" t="n">
-        <v>269.8533333333332</v>
+        <v>-3297.163535188749</v>
       </c>
       <c r="H148" t="n">
-        <v>261.8216666666666</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6896,36 +5616,1048 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>274.8</v>
+        <v>264</v>
       </c>
       <c r="C149" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D149" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E149" t="n">
-        <v>274.8</v>
+        <v>264</v>
       </c>
       <c r="F149" t="n">
-        <v>39889.2906</v>
+        <v>1171.2212</v>
       </c>
       <c r="G149" t="n">
-        <v>270.5866666666665</v>
+        <v>-4468.384735188749</v>
       </c>
       <c r="H149" t="n">
-        <v>262.1049999999999</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>265</v>
+      </c>
+      <c r="C150" t="n">
+        <v>265</v>
+      </c>
+      <c r="D150" t="n">
+        <v>265</v>
+      </c>
+      <c r="E150" t="n">
+        <v>265</v>
+      </c>
+      <c r="F150" t="n">
+        <v>584.2188</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3884.165935188749</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1605.2555</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2278.910435188749</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>266</v>
+      </c>
+      <c r="C152" t="n">
+        <v>266</v>
+      </c>
+      <c r="D152" t="n">
+        <v>266</v>
+      </c>
+      <c r="E152" t="n">
+        <v>266</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1901.0865</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-377.8239351887491</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>266</v>
+      </c>
+      <c r="D153" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>266</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5468.4151</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-377.8239351887491</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>175.3159</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-553.1398351887492</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>215</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-553.1398351887492</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>265</v>
+      </c>
+      <c r="C156" t="n">
+        <v>265</v>
+      </c>
+      <c r="D156" t="n">
+        <v>265</v>
+      </c>
+      <c r="E156" t="n">
+        <v>265</v>
+      </c>
+      <c r="F156" t="n">
+        <v>192.1698</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-745.3096351887492</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>265</v>
+      </c>
+      <c r="C157" t="n">
+        <v>265</v>
+      </c>
+      <c r="D157" t="n">
+        <v>265</v>
+      </c>
+      <c r="E157" t="n">
+        <v>265</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1511.1073</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-745.3096351887492</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1402.1649</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1799.0151</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>200.9849</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2137.474535188749</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>264</v>
+      </c>
+      <c r="C162" t="n">
+        <v>264</v>
+      </c>
+      <c r="D162" t="n">
+        <v>264</v>
+      </c>
+      <c r="E162" t="n">
+        <v>264</v>
+      </c>
+      <c r="F162" t="n">
+        <v>166.4493</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2303.923835188749</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>264</v>
+      </c>
+      <c r="C163" t="n">
+        <v>264</v>
+      </c>
+      <c r="D163" t="n">
+        <v>264</v>
+      </c>
+      <c r="E163" t="n">
+        <v>264</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2032.603</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2303.923835188749</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>265</v>
+      </c>
+      <c r="C164" t="n">
+        <v>265</v>
+      </c>
+      <c r="D164" t="n">
+        <v>265</v>
+      </c>
+      <c r="E164" t="n">
+        <v>265</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10.4363</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2293.487535188749</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>266</v>
+      </c>
+      <c r="D165" t="n">
+        <v>266</v>
+      </c>
+      <c r="E165" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>227.1101</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2066.377435188749</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>268</v>
+      </c>
+      <c r="D166" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>268</v>
+      </c>
+      <c r="F166" t="n">
+        <v>263</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1803.377435188749</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>269</v>
+      </c>
+      <c r="C167" t="n">
+        <v>269</v>
+      </c>
+      <c r="D167" t="n">
+        <v>269</v>
+      </c>
+      <c r="E167" t="n">
+        <v>269</v>
+      </c>
+      <c r="F167" t="n">
+        <v>103.2763</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1700.101135188749</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>269</v>
+      </c>
+      <c r="C168" t="n">
+        <v>270</v>
+      </c>
+      <c r="D168" t="n">
+        <v>270</v>
+      </c>
+      <c r="E168" t="n">
+        <v>269</v>
+      </c>
+      <c r="F168" t="n">
+        <v>287.6749</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1412.426235188749</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>270</v>
+      </c>
+      <c r="C169" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>470.0743</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-942.3519351887492</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>23.3468</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-942.3519351887492</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1689.3601</v>
+      </c>
+      <c r="G171" t="n">
+        <v>747.0081648112509</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>271</v>
+      </c>
+      <c r="C172" t="n">
+        <v>271</v>
+      </c>
+      <c r="D172" t="n">
+        <v>271</v>
+      </c>
+      <c r="E172" t="n">
+        <v>271</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.3211</v>
+      </c>
+      <c r="G172" t="n">
+        <v>743.6870648112509</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>271</v>
+      </c>
+      <c r="C173" t="n">
+        <v>270</v>
+      </c>
+      <c r="D173" t="n">
+        <v>271</v>
+      </c>
+      <c r="E173" t="n">
+        <v>270</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1526.0534</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-782.3663351887491</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>763.0267</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-19.33963518874907</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>272</v>
+      </c>
+      <c r="C175" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>272</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10612.68</v>
+      </c>
+      <c r="G175" t="n">
+        <v>10593.34036481125</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1763.0267</v>
+      </c>
+      <c r="G176" t="n">
+        <v>8830.31366481125</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8996.71366481125</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>275</v>
+      </c>
+      <c r="D178" t="n">
+        <v>275</v>
+      </c>
+      <c r="E178" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>39889.2906</v>
+      </c>
+      <c r="G178" t="n">
+        <v>48886.00426481125</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>251.1</v>
+        <v>261.4</v>
       </c>
       <c r="C2" t="n">
-        <v>251.1</v>
+        <v>259.1</v>
       </c>
       <c r="D2" t="n">
-        <v>251.1</v>
+        <v>261.4</v>
       </c>
       <c r="E2" t="n">
-        <v>251.1</v>
+        <v>259.1</v>
       </c>
       <c r="F2" t="n">
-        <v>131</v>
+        <v>1160.597</v>
       </c>
       <c r="G2" t="n">
-        <v>-3120.344456488544</v>
+        <v>2091.106322406433</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,63 +467,69 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>250.3</v>
+        <v>259.6</v>
       </c>
       <c r="C3" t="n">
-        <v>250.3</v>
+        <v>260.1</v>
       </c>
       <c r="D3" t="n">
-        <v>250.3</v>
+        <v>261</v>
       </c>
       <c r="E3" t="n">
-        <v>250.3</v>
+        <v>259.6</v>
       </c>
       <c r="F3" t="n">
-        <v>279.3337</v>
+        <v>2509.7961</v>
       </c>
       <c r="G3" t="n">
-        <v>-3399.678156488544</v>
+        <v>4600.902422406432</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>259.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>259.1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>250.3</v>
+        <v>260.3</v>
       </c>
       <c r="C4" t="n">
-        <v>250.3</v>
+        <v>263.7</v>
       </c>
       <c r="D4" t="n">
-        <v>250.3</v>
+        <v>263.7</v>
       </c>
       <c r="E4" t="n">
-        <v>250.3</v>
+        <v>260.3</v>
       </c>
       <c r="F4" t="n">
-        <v>43.071</v>
+        <v>2643.2237</v>
       </c>
       <c r="G4" t="n">
-        <v>-3399.678156488544</v>
+        <v>7244.126122406433</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,37 +538,42 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.3</v>
+        <v>260.1</v>
       </c>
       <c r="K4" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>259.1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>253.2</v>
+        <v>263.7</v>
       </c>
       <c r="C5" t="n">
-        <v>253.2</v>
+        <v>261.2</v>
       </c>
       <c r="D5" t="n">
-        <v>253.2</v>
+        <v>263.9</v>
       </c>
       <c r="E5" t="n">
-        <v>253.2</v>
+        <v>260.8</v>
       </c>
       <c r="F5" t="n">
-        <v>611.667</v>
+        <v>13713.5558</v>
       </c>
       <c r="G5" t="n">
-        <v>-2788.011156488544</v>
+        <v>-6469.429677593567</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -566,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>250.3</v>
+        <v>263.7</v>
       </c>
       <c r="K5" t="n">
-        <v>250.3</v>
+        <v>259.1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -579,28 +595,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>253.1</v>
+        <v>262.4</v>
       </c>
       <c r="C6" t="n">
-        <v>253.1</v>
+        <v>262.4</v>
       </c>
       <c r="D6" t="n">
-        <v>253.1</v>
+        <v>262.4</v>
       </c>
       <c r="E6" t="n">
-        <v>253.1</v>
+        <v>262.4</v>
       </c>
       <c r="F6" t="n">
-        <v>566.6079999999999</v>
+        <v>139.0444</v>
       </c>
       <c r="G6" t="n">
-        <v>-3354.619156488544</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -609,41 +626,38 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>253.2</v>
+        <v>261.2</v>
       </c>
       <c r="K6" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>261.2</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="C7" t="n">
-        <v>256</v>
+        <v>262.4</v>
       </c>
       <c r="D7" t="n">
-        <v>256</v>
+        <v>262.4</v>
       </c>
       <c r="E7" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="F7" t="n">
-        <v>1557.6913</v>
+        <v>1387.385</v>
       </c>
       <c r="G7" t="n">
-        <v>-1796.927856488544</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -652,37 +666,42 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>253.1</v>
+        <v>262.4</v>
       </c>
       <c r="K7" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>261.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="C8" t="n">
-        <v>256.4</v>
+        <v>262.4</v>
       </c>
       <c r="D8" t="n">
-        <v>256.4</v>
+        <v>262.4</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4</v>
+        <v>262.4</v>
       </c>
       <c r="F8" t="n">
-        <v>1144.1159</v>
+        <v>266.486</v>
       </c>
       <c r="G8" t="n">
-        <v>-652.811956488544</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -691,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256</v>
+        <v>262.4</v>
       </c>
       <c r="K8" t="n">
-        <v>253.1</v>
+        <v>261.2</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -704,69 +723,69 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>256.4</v>
+        <v>263.8</v>
       </c>
       <c r="C9" t="n">
-        <v>256.4</v>
+        <v>266</v>
       </c>
       <c r="D9" t="n">
-        <v>256.4</v>
+        <v>266</v>
       </c>
       <c r="E9" t="n">
-        <v>256.4</v>
+        <v>263.8</v>
       </c>
       <c r="F9" t="n">
-        <v>326.1865</v>
+        <v>403.3406</v>
       </c>
       <c r="G9" t="n">
-        <v>-652.811956488544</v>
+        <v>-5927.044677593567</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>262.4</v>
+      </c>
       <c r="K9" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>262.4</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>256.4</v>
+        <v>264.4</v>
       </c>
       <c r="C10" t="n">
-        <v>256.4</v>
+        <v>264.4</v>
       </c>
       <c r="D10" t="n">
-        <v>256.4</v>
+        <v>264.4</v>
       </c>
       <c r="E10" t="n">
-        <v>256.4</v>
+        <v>264.4</v>
       </c>
       <c r="F10" t="n">
-        <v>95.0163</v>
+        <v>1740.938</v>
       </c>
       <c r="G10" t="n">
-        <v>-652.811956488544</v>
+        <v>-7667.982677593567</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -775,33 +794,40 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>255</v>
+        <v>264.1</v>
       </c>
       <c r="C11" t="n">
-        <v>255</v>
+        <v>266.1</v>
       </c>
       <c r="D11" t="n">
-        <v>255</v>
+        <v>267.7</v>
       </c>
       <c r="E11" t="n">
-        <v>255</v>
+        <v>264.1</v>
       </c>
       <c r="F11" t="n">
-        <v>214</v>
+        <v>4535.5902</v>
       </c>
       <c r="G11" t="n">
-        <v>-866.811956488544</v>
+        <v>-3132.392477593567</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -810,33 +836,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>254.1</v>
+        <v>267.7</v>
       </c>
       <c r="C12" t="n">
-        <v>254.1</v>
+        <v>265.4</v>
       </c>
       <c r="D12" t="n">
-        <v>254.1</v>
+        <v>267.7</v>
       </c>
       <c r="E12" t="n">
-        <v>254.1</v>
+        <v>265.4</v>
       </c>
       <c r="F12" t="n">
-        <v>169.56</v>
+        <v>3118.1394</v>
       </c>
       <c r="G12" t="n">
-        <v>-1036.371956488544</v>
+        <v>-6250.531877593568</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -850,28 +883,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>254</v>
+        <v>267.5</v>
       </c>
       <c r="C13" t="n">
-        <v>254</v>
+        <v>267.9</v>
       </c>
       <c r="D13" t="n">
-        <v>254</v>
+        <v>267.9</v>
       </c>
       <c r="E13" t="n">
-        <v>254</v>
+        <v>265.6</v>
       </c>
       <c r="F13" t="n">
-        <v>8.187099999999999</v>
+        <v>1320.1059</v>
       </c>
       <c r="G13" t="n">
-        <v>-1044.559056488544</v>
+        <v>-4930.425977593568</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,28 +919,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>254.5</v>
+        <v>268.7</v>
       </c>
       <c r="C14" t="n">
-        <v>254.5</v>
+        <v>268.7</v>
       </c>
       <c r="D14" t="n">
-        <v>254.5</v>
+        <v>268.7</v>
       </c>
       <c r="E14" t="n">
-        <v>254.5</v>
+        <v>268.7</v>
       </c>
       <c r="F14" t="n">
-        <v>150.3071</v>
+        <v>166.3835</v>
       </c>
       <c r="G14" t="n">
-        <v>-894.251956488544</v>
+        <v>-4764.042477593568</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -920,28 +955,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>255.3</v>
+        <v>266.2</v>
       </c>
       <c r="C15" t="n">
-        <v>255.3</v>
+        <v>265.4</v>
       </c>
       <c r="D15" t="n">
-        <v>255.3</v>
+        <v>266.2</v>
       </c>
       <c r="E15" t="n">
-        <v>255.3</v>
+        <v>265.4</v>
       </c>
       <c r="F15" t="n">
-        <v>150</v>
+        <v>804.617</v>
       </c>
       <c r="G15" t="n">
-        <v>-744.251956488544</v>
+        <v>-5568.659477593568</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -955,28 +991,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>256</v>
+        <v>265.4</v>
       </c>
       <c r="C16" t="n">
-        <v>256</v>
+        <v>266.2</v>
       </c>
       <c r="D16" t="n">
-        <v>256</v>
+        <v>266.9</v>
       </c>
       <c r="E16" t="n">
-        <v>256</v>
+        <v>265.3</v>
       </c>
       <c r="F16" t="n">
-        <v>6.8184</v>
+        <v>3484.5059</v>
       </c>
       <c r="G16" t="n">
-        <v>-737.433556488544</v>
+        <v>-2084.153577593568</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,28 +1027,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>255</v>
+        <v>266.9</v>
       </c>
       <c r="C17" t="n">
-        <v>256</v>
+        <v>266.1</v>
       </c>
       <c r="D17" t="n">
-        <v>256</v>
+        <v>266.9</v>
       </c>
       <c r="E17" t="n">
-        <v>255</v>
+        <v>266.1</v>
       </c>
       <c r="F17" t="n">
-        <v>13747.9187</v>
+        <v>205.412</v>
       </c>
       <c r="G17" t="n">
-        <v>-737.433556488544</v>
+        <v>-2289.565577593568</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1025,28 +1063,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>256.8</v>
+        <v>265.3</v>
       </c>
       <c r="C18" t="n">
-        <v>256.8</v>
+        <v>265.3</v>
       </c>
       <c r="D18" t="n">
-        <v>256.8</v>
+        <v>265.3</v>
       </c>
       <c r="E18" t="n">
-        <v>256.8</v>
+        <v>265.2</v>
       </c>
       <c r="F18" t="n">
-        <v>475.0344</v>
+        <v>948.4063</v>
       </c>
       <c r="G18" t="n">
-        <v>-262.399156488544</v>
+        <v>-3237.971877593568</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1060,28 +1099,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>256.6</v>
+        <v>268</v>
       </c>
       <c r="C19" t="n">
-        <v>256.6</v>
+        <v>268</v>
       </c>
       <c r="D19" t="n">
-        <v>256.6</v>
+        <v>268</v>
       </c>
       <c r="E19" t="n">
-        <v>256.6</v>
+        <v>268</v>
       </c>
       <c r="F19" t="n">
-        <v>249.3348</v>
+        <v>576.4333</v>
       </c>
       <c r="G19" t="n">
-        <v>-511.733956488544</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1095,28 +1135,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>256.1</v>
+        <v>268</v>
       </c>
       <c r="C20" t="n">
-        <v>256.1</v>
+        <v>268</v>
       </c>
       <c r="D20" t="n">
-        <v>256.1</v>
+        <v>268</v>
       </c>
       <c r="E20" t="n">
-        <v>256.1</v>
+        <v>268</v>
       </c>
       <c r="F20" t="n">
-        <v>249.5894</v>
+        <v>89.33</v>
       </c>
       <c r="G20" t="n">
-        <v>-761.3233564885441</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1130,28 +1171,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>256.1</v>
+        <v>266.3</v>
       </c>
       <c r="C21" t="n">
-        <v>256.1</v>
+        <v>266.2</v>
       </c>
       <c r="D21" t="n">
-        <v>256.1</v>
+        <v>268</v>
       </c>
       <c r="E21" t="n">
-        <v>256.1</v>
+        <v>266.2</v>
       </c>
       <c r="F21" t="n">
-        <v>16.18</v>
+        <v>680</v>
       </c>
       <c r="G21" t="n">
-        <v>-761.3233564885441</v>
+        <v>-3341.538577593568</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1165,28 +1207,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>255.7</v>
+        <v>266.2</v>
       </c>
       <c r="C22" t="n">
-        <v>255.7</v>
+        <v>265.3</v>
       </c>
       <c r="D22" t="n">
-        <v>255.7</v>
+        <v>267.8</v>
       </c>
       <c r="E22" t="n">
-        <v>255.7</v>
+        <v>265.3</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2826</v>
+        <v>1020.9705</v>
       </c>
       <c r="G22" t="n">
-        <v>-858.6059564885441</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1200,28 +1243,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>255.1</v>
+        <v>265.3</v>
       </c>
       <c r="C23" t="n">
-        <v>255.1</v>
+        <v>265.3</v>
       </c>
       <c r="D23" t="n">
-        <v>255.1</v>
+        <v>265.3</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1</v>
+        <v>265.3</v>
       </c>
       <c r="F23" t="n">
-        <v>324</v>
+        <v>26.09</v>
       </c>
       <c r="G23" t="n">
-        <v>-1182.605956488544</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1235,28 +1279,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C24" t="n">
-        <v>254</v>
+        <v>267.9</v>
       </c>
       <c r="D24" t="n">
-        <v>254</v>
+        <v>267.9</v>
       </c>
       <c r="E24" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F24" t="n">
-        <v>18.2036</v>
+        <v>351.5733</v>
       </c>
       <c r="G24" t="n">
-        <v>-1200.809556488544</v>
+        <v>-4010.935777593568</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1270,28 +1315,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>252.2</v>
+        <v>267.7</v>
       </c>
       <c r="C25" t="n">
-        <v>252.2</v>
+        <v>267.7</v>
       </c>
       <c r="D25" t="n">
-        <v>252.2</v>
+        <v>267.7</v>
       </c>
       <c r="E25" t="n">
-        <v>252.2</v>
+        <v>267.7</v>
       </c>
       <c r="F25" t="n">
-        <v>424.4125</v>
+        <v>227.795</v>
       </c>
       <c r="G25" t="n">
-        <v>-1625.222056488544</v>
+        <v>-4238.730777593568</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1305,28 +1351,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>253.5</v>
+        <v>267.9</v>
       </c>
       <c r="C26" t="n">
-        <v>253.5</v>
+        <v>267.9</v>
       </c>
       <c r="D26" t="n">
-        <v>253.5</v>
+        <v>267.9</v>
       </c>
       <c r="E26" t="n">
-        <v>253.5</v>
+        <v>267.9</v>
       </c>
       <c r="F26" t="n">
-        <v>826.322</v>
+        <v>930.8546</v>
       </c>
       <c r="G26" t="n">
-        <v>-798.9000564885442</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1340,28 +1387,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>254.2</v>
+        <v>267.9</v>
       </c>
       <c r="C27" t="n">
-        <v>254.2</v>
+        <v>267.9</v>
       </c>
       <c r="D27" t="n">
-        <v>254.2</v>
+        <v>267.9</v>
       </c>
       <c r="E27" t="n">
-        <v>254.2</v>
+        <v>267.9</v>
       </c>
       <c r="F27" t="n">
-        <v>724.482</v>
+        <v>774</v>
       </c>
       <c r="G27" t="n">
-        <v>-74.41805648854427</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1375,28 +1423,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>255.4</v>
+        <v>266</v>
       </c>
       <c r="C28" t="n">
-        <v>255.7</v>
+        <v>266</v>
       </c>
       <c r="D28" t="n">
-        <v>255.7</v>
+        <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>255.4</v>
+        <v>266</v>
       </c>
       <c r="F28" t="n">
-        <v>782.6259788949768</v>
+        <v>67.7144</v>
       </c>
       <c r="G28" t="n">
-        <v>708.2079224064325</v>
+        <v>-3375.590577593568</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1459,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>255.4</v>
+        <v>266.6</v>
       </c>
       <c r="C29" t="n">
-        <v>255.9</v>
+        <v>266.6</v>
       </c>
       <c r="D29" t="n">
-        <v>255.9</v>
+        <v>266.6</v>
       </c>
       <c r="E29" t="n">
-        <v>255.4</v>
+        <v>266.6</v>
       </c>
       <c r="F29" t="n">
-        <v>11731.5019</v>
+        <v>250</v>
       </c>
       <c r="G29" t="n">
-        <v>12439.70982240643</v>
+        <v>-3125.590577593568</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1445,28 +1495,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>256</v>
+        <v>266.6</v>
       </c>
       <c r="C30" t="n">
-        <v>256</v>
+        <v>268.9</v>
       </c>
       <c r="D30" t="n">
-        <v>256</v>
+        <v>268.9</v>
       </c>
       <c r="E30" t="n">
-        <v>256</v>
+        <v>266.6</v>
       </c>
       <c r="F30" t="n">
-        <v>9.842499999999999</v>
+        <v>1656.02</v>
       </c>
       <c r="G30" t="n">
-        <v>12449.55232240643</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1480,28 +1531,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>257.4</v>
+        <v>268.9</v>
       </c>
       <c r="C31" t="n">
-        <v>257.4</v>
+        <v>268.9</v>
       </c>
       <c r="D31" t="n">
-        <v>257.4</v>
+        <v>268.9</v>
       </c>
       <c r="E31" t="n">
-        <v>257.4</v>
+        <v>268.9</v>
       </c>
       <c r="F31" t="n">
-        <v>76.995</v>
+        <v>4145.4432</v>
       </c>
       <c r="G31" t="n">
-        <v>12526.54732240643</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1515,28 +1567,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>255.4</v>
+        <v>264</v>
       </c>
       <c r="C32" t="n">
-        <v>255.4</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>255.4</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
-        <v>255.4</v>
+        <v>264</v>
       </c>
       <c r="F32" t="n">
-        <v>28.0802</v>
+        <v>19.4203</v>
       </c>
       <c r="G32" t="n">
-        <v>12498.46712240643</v>
+        <v>-1488.990877593568</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1550,28 +1603,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C33" t="n">
-        <v>257</v>
+        <v>259.2</v>
       </c>
       <c r="D33" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E33" t="n">
-        <v>257</v>
+        <v>259.2</v>
       </c>
       <c r="F33" t="n">
-        <v>12.3379</v>
+        <v>802.3898</v>
       </c>
       <c r="G33" t="n">
-        <v>12510.80502240643</v>
+        <v>-2291.380677593568</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1585,28 +1639,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>255.9</v>
+        <v>259.1</v>
       </c>
       <c r="C34" t="n">
-        <v>256.1</v>
+        <v>259</v>
       </c>
       <c r="D34" t="n">
-        <v>256.2</v>
+        <v>259.1</v>
       </c>
       <c r="E34" t="n">
-        <v>255.9</v>
+        <v>259</v>
       </c>
       <c r="F34" t="n">
-        <v>9141.413500000001</v>
+        <v>147.97</v>
       </c>
       <c r="G34" t="n">
-        <v>3369.391522406433</v>
+        <v>-2439.350677593568</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1620,28 +1675,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>256.3</v>
+        <v>255.4</v>
       </c>
       <c r="C35" t="n">
-        <v>259</v>
+        <v>255.4</v>
       </c>
       <c r="D35" t="n">
-        <v>259</v>
+        <v>255.4</v>
       </c>
       <c r="E35" t="n">
-        <v>256.3</v>
+        <v>255.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1537.7415</v>
+        <v>110</v>
       </c>
       <c r="G35" t="n">
-        <v>4907.133022406433</v>
+        <v>-2549.350677593568</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1655,28 +1711,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>259</v>
+        <v>254.4</v>
       </c>
       <c r="C36" t="n">
-        <v>259</v>
+        <v>256.9</v>
       </c>
       <c r="D36" t="n">
-        <v>259</v>
+        <v>257.2</v>
       </c>
       <c r="E36" t="n">
-        <v>259</v>
+        <v>254.1</v>
       </c>
       <c r="F36" t="n">
-        <v>21.9123</v>
+        <v>8464.477800000001</v>
       </c>
       <c r="G36" t="n">
-        <v>4907.133022406433</v>
+        <v>5915.127122406433</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1690,28 +1747,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>259.2</v>
+        <v>257.1</v>
       </c>
       <c r="C37" t="n">
-        <v>259.2</v>
+        <v>260</v>
       </c>
       <c r="D37" t="n">
-        <v>259.2</v>
+        <v>260.1</v>
       </c>
       <c r="E37" t="n">
-        <v>259.2</v>
+        <v>256.9</v>
       </c>
       <c r="F37" t="n">
-        <v>46.1041</v>
+        <v>1750</v>
       </c>
       <c r="G37" t="n">
-        <v>4953.237122406433</v>
+        <v>7665.127122406433</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1725,28 +1783,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>260.1</v>
+        <v>258.1</v>
       </c>
       <c r="C38" t="n">
-        <v>258</v>
+        <v>258.1</v>
       </c>
       <c r="D38" t="n">
-        <v>260.1</v>
+        <v>258.1</v>
       </c>
       <c r="E38" t="n">
-        <v>258</v>
+        <v>258.1</v>
       </c>
       <c r="F38" t="n">
-        <v>9635.504800000001</v>
+        <v>155.97</v>
       </c>
       <c r="G38" t="n">
-        <v>-4682.267677593568</v>
+        <v>7509.157122406433</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1760,28 +1819,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259</v>
+        <v>258.3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.4</v>
+        <v>258</v>
       </c>
       <c r="D39" t="n">
-        <v>259</v>
+        <v>258.3</v>
       </c>
       <c r="E39" t="n">
-        <v>258.4</v>
+        <v>258</v>
       </c>
       <c r="F39" t="n">
-        <v>2096.4355</v>
+        <v>12959.2747</v>
       </c>
       <c r="G39" t="n">
-        <v>-2585.832177593568</v>
+        <v>-5450.117577593567</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,28 +1855,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>258.3</v>
+        <v>260</v>
       </c>
       <c r="C40" t="n">
-        <v>259.5</v>
+        <v>260.1</v>
       </c>
       <c r="D40" t="n">
-        <v>259.5</v>
+        <v>261.9</v>
       </c>
       <c r="E40" t="n">
-        <v>258.3</v>
+        <v>260</v>
       </c>
       <c r="F40" t="n">
-        <v>1474.6855</v>
+        <v>2149.9779</v>
       </c>
       <c r="G40" t="n">
-        <v>-1111.146677593568</v>
+        <v>-3300.139677593567</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,28 +1891,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>260</v>
+        <v>263.7</v>
       </c>
       <c r="C41" t="n">
-        <v>260.2</v>
+        <v>263.7</v>
       </c>
       <c r="D41" t="n">
-        <v>262.6</v>
+        <v>263.7</v>
       </c>
       <c r="E41" t="n">
-        <v>260</v>
+        <v>263.7</v>
       </c>
       <c r="F41" t="n">
-        <v>4188.85</v>
+        <v>589.3376</v>
       </c>
       <c r="G41" t="n">
-        <v>3077.703322406433</v>
+        <v>-2710.802077593567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1865,28 +1927,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>261</v>
+        <v>263.7</v>
       </c>
       <c r="C42" t="n">
-        <v>260.2</v>
+        <v>265.1</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E42" t="n">
-        <v>260.2</v>
+        <v>263.7</v>
       </c>
       <c r="F42" t="n">
-        <v>58.8122</v>
+        <v>2451.6624</v>
       </c>
       <c r="G42" t="n">
-        <v>3077.703322406433</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1900,28 +1963,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>261.3</v>
+        <v>265.1</v>
       </c>
       <c r="C43" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="D43" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="E43" t="n">
-        <v>261.3</v>
+        <v>265.1</v>
       </c>
       <c r="F43" t="n">
-        <v>174</v>
+        <v>1333.8532</v>
       </c>
       <c r="G43" t="n">
-        <v>3251.703322406433</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1935,28 +1999,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>261.4</v>
+        <v>266</v>
       </c>
       <c r="C44" t="n">
-        <v>259.1</v>
+        <v>266</v>
       </c>
       <c r="D44" t="n">
-        <v>261.4</v>
+        <v>266</v>
       </c>
       <c r="E44" t="n">
-        <v>259.1</v>
+        <v>266</v>
       </c>
       <c r="F44" t="n">
-        <v>1160.597</v>
+        <v>71.81010000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>2091.106322406433</v>
+        <v>-187.3295775935673</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1970,28 +2035,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>259.6</v>
+        <v>266.8</v>
       </c>
       <c r="C45" t="n">
-        <v>260.1</v>
+        <v>264.4</v>
       </c>
       <c r="D45" t="n">
-        <v>261</v>
+        <v>266.8</v>
       </c>
       <c r="E45" t="n">
-        <v>259.6</v>
+        <v>264.4</v>
       </c>
       <c r="F45" t="n">
-        <v>2509.7961</v>
+        <v>1137.6725</v>
       </c>
       <c r="G45" t="n">
-        <v>4600.902422406432</v>
+        <v>-1325.002077593567</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2005,28 +2071,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>260.3</v>
+        <v>264</v>
       </c>
       <c r="C46" t="n">
-        <v>263.7</v>
+        <v>264</v>
       </c>
       <c r="D46" t="n">
-        <v>263.7</v>
+        <v>264</v>
       </c>
       <c r="E46" t="n">
-        <v>260.3</v>
+        <v>264</v>
       </c>
       <c r="F46" t="n">
-        <v>2643.2237</v>
+        <v>9.59</v>
       </c>
       <c r="G46" t="n">
-        <v>7244.126122406433</v>
+        <v>-1334.592077593567</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2040,28 +2107,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="C47" t="n">
-        <v>261.2</v>
+        <v>258</v>
       </c>
       <c r="D47" t="n">
-        <v>263.9</v>
+        <v>261</v>
       </c>
       <c r="E47" t="n">
-        <v>260.8</v>
+        <v>258</v>
       </c>
       <c r="F47" t="n">
-        <v>13713.5558</v>
+        <v>1635</v>
       </c>
       <c r="G47" t="n">
-        <v>-6469.429677593567</v>
+        <v>-2969.592077593567</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2075,28 +2143,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>262.4</v>
+        <v>260.8</v>
       </c>
       <c r="C48" t="n">
-        <v>262.4</v>
+        <v>260.2</v>
       </c>
       <c r="D48" t="n">
-        <v>262.4</v>
+        <v>260.8</v>
       </c>
       <c r="E48" t="n">
-        <v>262.4</v>
+        <v>260.2</v>
       </c>
       <c r="F48" t="n">
-        <v>139.0444</v>
+        <v>13271.5276</v>
       </c>
       <c r="G48" t="n">
-        <v>-6330.385277593567</v>
+        <v>10301.93552240643</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2110,28 +2179,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="C49" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="D49" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="E49" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="F49" t="n">
-        <v>1387.385</v>
+        <v>15077.4092</v>
       </c>
       <c r="G49" t="n">
-        <v>-6330.385277593567</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2145,28 +2215,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="C50" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="D50" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="E50" t="n">
-        <v>262.4</v>
+        <v>260.3</v>
       </c>
       <c r="F50" t="n">
-        <v>266.486</v>
+        <v>108.87</v>
       </c>
       <c r="G50" t="n">
-        <v>-6330.385277593567</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2180,28 +2251,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>263.8</v>
+        <v>260.3</v>
       </c>
       <c r="C51" t="n">
-        <v>266</v>
+        <v>260.3</v>
       </c>
       <c r="D51" t="n">
-        <v>266</v>
+        <v>260.3</v>
       </c>
       <c r="E51" t="n">
-        <v>263.8</v>
+        <v>260.3</v>
       </c>
       <c r="F51" t="n">
-        <v>403.3406</v>
+        <v>895.67</v>
       </c>
       <c r="G51" t="n">
-        <v>-5927.044677593567</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2215,28 +2287,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>264.4</v>
+        <v>260.3</v>
       </c>
       <c r="C52" t="n">
-        <v>264.4</v>
+        <v>260.3</v>
       </c>
       <c r="D52" t="n">
-        <v>264.4</v>
+        <v>260.3</v>
       </c>
       <c r="E52" t="n">
-        <v>264.4</v>
+        <v>260.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1740.938</v>
+        <v>1258.3168</v>
       </c>
       <c r="G52" t="n">
-        <v>-7667.982677593567</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2250,28 +2323,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>264.1</v>
+        <v>264</v>
       </c>
       <c r="C53" t="n">
-        <v>266.1</v>
+        <v>264</v>
       </c>
       <c r="D53" t="n">
-        <v>267.7</v>
+        <v>264</v>
       </c>
       <c r="E53" t="n">
-        <v>264.1</v>
+        <v>264</v>
       </c>
       <c r="F53" t="n">
-        <v>4535.5902</v>
+        <v>48</v>
       </c>
       <c r="G53" t="n">
-        <v>-3132.392477593567</v>
+        <v>25427.34472240643</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2285,28 +2359,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>267.7</v>
+        <v>265</v>
       </c>
       <c r="C54" t="n">
-        <v>265.4</v>
+        <v>265.3</v>
       </c>
       <c r="D54" t="n">
-        <v>267.7</v>
+        <v>265.3</v>
       </c>
       <c r="E54" t="n">
-        <v>265.4</v>
+        <v>265</v>
       </c>
       <c r="F54" t="n">
-        <v>3118.1394</v>
+        <v>5659.450642404825</v>
       </c>
       <c r="G54" t="n">
-        <v>-6250.531877593568</v>
+        <v>31086.79536481125</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2320,28 +2395,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>267.5</v>
+        <v>264.7</v>
       </c>
       <c r="C55" t="n">
-        <v>267.9</v>
+        <v>264.7</v>
       </c>
       <c r="D55" t="n">
-        <v>267.9</v>
+        <v>264.7</v>
       </c>
       <c r="E55" t="n">
-        <v>265.6</v>
+        <v>264.7</v>
       </c>
       <c r="F55" t="n">
-        <v>1320.1059</v>
+        <v>5560.3245</v>
       </c>
       <c r="G55" t="n">
-        <v>-4930.425977593568</v>
+        <v>25526.47086481125</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2355,28 +2431,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>268.7</v>
+        <v>264.4</v>
       </c>
       <c r="C56" t="n">
-        <v>268.7</v>
+        <v>264.4</v>
       </c>
       <c r="D56" t="n">
-        <v>268.7</v>
+        <v>264.4</v>
       </c>
       <c r="E56" t="n">
-        <v>268.7</v>
+        <v>264.4</v>
       </c>
       <c r="F56" t="n">
-        <v>166.3835</v>
+        <v>22.6957</v>
       </c>
       <c r="G56" t="n">
-        <v>-4764.042477593568</v>
+        <v>25503.77516481125</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2390,28 +2467,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266.2</v>
+        <v>263.6</v>
       </c>
       <c r="C57" t="n">
-        <v>265.4</v>
+        <v>263.6</v>
       </c>
       <c r="D57" t="n">
-        <v>266.2</v>
+        <v>263.6</v>
       </c>
       <c r="E57" t="n">
-        <v>265.4</v>
+        <v>263.6</v>
       </c>
       <c r="F57" t="n">
-        <v>804.617</v>
+        <v>6034.8231</v>
       </c>
       <c r="G57" t="n">
-        <v>-5568.659477593568</v>
+        <v>19468.95206481125</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2425,34 +2503,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>265.4</v>
+        <v>263.3</v>
       </c>
       <c r="C58" t="n">
-        <v>266.2</v>
+        <v>263.3</v>
       </c>
       <c r="D58" t="n">
-        <v>266.9</v>
+        <v>263.3</v>
       </c>
       <c r="E58" t="n">
-        <v>265.3</v>
+        <v>263.3</v>
       </c>
       <c r="F58" t="n">
-        <v>3484.5059</v>
+        <v>5556.3609</v>
       </c>
       <c r="G58" t="n">
-        <v>-2084.153577593568</v>
+        <v>13912.59116481125</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2460,28 +2539,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>266.9</v>
+        <v>260.1</v>
       </c>
       <c r="C59" t="n">
-        <v>266.1</v>
+        <v>260.1</v>
       </c>
       <c r="D59" t="n">
-        <v>266.9</v>
+        <v>260.1</v>
       </c>
       <c r="E59" t="n">
-        <v>266.1</v>
+        <v>260.1</v>
       </c>
       <c r="F59" t="n">
-        <v>205.412</v>
+        <v>3.9636</v>
       </c>
       <c r="G59" t="n">
-        <v>-2289.565577593568</v>
+        <v>13908.62756481125</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2495,28 +2575,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>265.3</v>
+        <v>259.1</v>
       </c>
       <c r="C60" t="n">
-        <v>265.3</v>
+        <v>259.1</v>
       </c>
       <c r="D60" t="n">
-        <v>265.3</v>
+        <v>259.1</v>
       </c>
       <c r="E60" t="n">
-        <v>265.2</v>
+        <v>259.1</v>
       </c>
       <c r="F60" t="n">
-        <v>948.4063</v>
+        <v>162.8087</v>
       </c>
       <c r="G60" t="n">
-        <v>-3237.971877593568</v>
+        <v>13745.81886481125</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,28 +2611,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>268</v>
+        <v>259.1</v>
       </c>
       <c r="C61" t="n">
-        <v>268</v>
+        <v>258.4</v>
       </c>
       <c r="D61" t="n">
-        <v>268</v>
+        <v>259.1</v>
       </c>
       <c r="E61" t="n">
-        <v>268</v>
+        <v>258.4</v>
       </c>
       <c r="F61" t="n">
-        <v>576.4333</v>
+        <v>461.1128</v>
       </c>
       <c r="G61" t="n">
-        <v>-2661.538577593568</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2565,28 +2647,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>268</v>
+        <v>259.4</v>
       </c>
       <c r="C62" t="n">
-        <v>268</v>
+        <v>258.4</v>
       </c>
       <c r="D62" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E62" t="n">
-        <v>268</v>
+        <v>258.4</v>
       </c>
       <c r="F62" t="n">
-        <v>89.33</v>
+        <v>1937.5605</v>
       </c>
       <c r="G62" t="n">
-        <v>-2661.538577593568</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2600,28 +2683,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>266.3</v>
+        <v>258.5</v>
       </c>
       <c r="C63" t="n">
-        <v>266.2</v>
+        <v>258.5</v>
       </c>
       <c r="D63" t="n">
-        <v>268</v>
+        <v>258.5</v>
       </c>
       <c r="E63" t="n">
-        <v>266.2</v>
+        <v>258.5</v>
       </c>
       <c r="F63" t="n">
-        <v>680</v>
+        <v>1053.2845</v>
       </c>
       <c r="G63" t="n">
-        <v>-3341.538577593568</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2635,28 +2719,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>266.2</v>
+        <v>258.5</v>
       </c>
       <c r="C64" t="n">
-        <v>265.3</v>
+        <v>258.5</v>
       </c>
       <c r="D64" t="n">
-        <v>267.8</v>
+        <v>258.5</v>
       </c>
       <c r="E64" t="n">
-        <v>265.3</v>
+        <v>258.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1020.9705</v>
+        <v>14024.1247</v>
       </c>
       <c r="G64" t="n">
-        <v>-4362.509077593568</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2670,28 +2755,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>265.3</v>
+        <v>260</v>
       </c>
       <c r="C65" t="n">
-        <v>265.3</v>
+        <v>260</v>
       </c>
       <c r="D65" t="n">
-        <v>265.3</v>
+        <v>260</v>
       </c>
       <c r="E65" t="n">
-        <v>265.3</v>
+        <v>260</v>
       </c>
       <c r="F65" t="n">
-        <v>26.09</v>
+        <v>777.2731</v>
       </c>
       <c r="G65" t="n">
-        <v>-4362.509077593568</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2705,28 +2791,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C66" t="n">
-        <v>267.9</v>
+        <v>260</v>
       </c>
       <c r="D66" t="n">
-        <v>267.9</v>
+        <v>260</v>
       </c>
       <c r="E66" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F66" t="n">
-        <v>351.5733</v>
+        <v>322.8661</v>
       </c>
       <c r="G66" t="n">
-        <v>-4010.935777593568</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2740,28 +2827,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>267.7</v>
+        <v>260</v>
       </c>
       <c r="C67" t="n">
-        <v>267.7</v>
+        <v>260</v>
       </c>
       <c r="D67" t="n">
-        <v>267.7</v>
+        <v>260</v>
       </c>
       <c r="E67" t="n">
-        <v>267.7</v>
+        <v>260</v>
       </c>
       <c r="F67" t="n">
-        <v>227.795</v>
+        <v>48.6941</v>
       </c>
       <c r="G67" t="n">
-        <v>-4238.730777593568</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2775,28 +2863,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>267.9</v>
+        <v>260.1</v>
       </c>
       <c r="C68" t="n">
-        <v>267.9</v>
+        <v>260.1</v>
       </c>
       <c r="D68" t="n">
-        <v>267.9</v>
+        <v>260.1</v>
       </c>
       <c r="E68" t="n">
-        <v>267.9</v>
+        <v>260.1</v>
       </c>
       <c r="F68" t="n">
-        <v>930.8546</v>
+        <v>4.9145</v>
       </c>
       <c r="G68" t="n">
-        <v>-3307.876177593568</v>
+        <v>15120.17816481125</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2810,28 +2899,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>267.9</v>
+        <v>259.7</v>
       </c>
       <c r="C69" t="n">
-        <v>267.9</v>
+        <v>259.5</v>
       </c>
       <c r="D69" t="n">
-        <v>267.9</v>
+        <v>259.7</v>
       </c>
       <c r="E69" t="n">
-        <v>267.9</v>
+        <v>259.5</v>
       </c>
       <c r="F69" t="n">
-        <v>774</v>
+        <v>14586.3687</v>
       </c>
       <c r="G69" t="n">
-        <v>-3307.876177593568</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2845,28 +2935,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>266</v>
+        <v>259.5</v>
       </c>
       <c r="C70" t="n">
-        <v>266</v>
+        <v>259.5</v>
       </c>
       <c r="D70" t="n">
-        <v>266</v>
+        <v>259.5</v>
       </c>
       <c r="E70" t="n">
-        <v>266</v>
+        <v>259.5</v>
       </c>
       <c r="F70" t="n">
-        <v>67.7144</v>
+        <v>1992.92</v>
       </c>
       <c r="G70" t="n">
-        <v>-3375.590577593568</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2880,28 +2971,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="C71" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="D71" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="E71" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>368.31</v>
       </c>
       <c r="G71" t="n">
-        <v>-3125.590577593568</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2915,28 +3007,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="C72" t="n">
-        <v>268.9</v>
+        <v>259.5</v>
       </c>
       <c r="D72" t="n">
-        <v>268.9</v>
+        <v>259.5</v>
       </c>
       <c r="E72" t="n">
-        <v>266.6</v>
+        <v>259.5</v>
       </c>
       <c r="F72" t="n">
-        <v>1656.02</v>
+        <v>30.272</v>
       </c>
       <c r="G72" t="n">
-        <v>-1469.570577593568</v>
+        <v>533.8094648112528</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2950,28 +3043,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>268.9</v>
+        <v>258</v>
       </c>
       <c r="C73" t="n">
-        <v>268.9</v>
+        <v>258</v>
       </c>
       <c r="D73" t="n">
-        <v>268.9</v>
+        <v>258</v>
       </c>
       <c r="E73" t="n">
-        <v>268.9</v>
+        <v>258</v>
       </c>
       <c r="F73" t="n">
-        <v>4145.4432</v>
+        <v>476.9929</v>
       </c>
       <c r="G73" t="n">
-        <v>-1469.570577593568</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2985,28 +3079,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C74" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D74" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E74" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F74" t="n">
-        <v>19.4203</v>
+        <v>11.4459</v>
       </c>
       <c r="G74" t="n">
-        <v>-1488.990877593568</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3020,28 +3115,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C75" t="n">
-        <v>259.2</v>
+        <v>258</v>
       </c>
       <c r="D75" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E75" t="n">
-        <v>259.2</v>
+        <v>258</v>
       </c>
       <c r="F75" t="n">
-        <v>802.3898</v>
+        <v>2.3019</v>
       </c>
       <c r="G75" t="n">
-        <v>-2291.380677593568</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3055,28 +3151,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>259.1</v>
+        <v>255.7</v>
       </c>
       <c r="C76" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D76" t="n">
-        <v>259.1</v>
+        <v>258</v>
       </c>
       <c r="E76" t="n">
-        <v>259</v>
+        <v>255.6</v>
       </c>
       <c r="F76" t="n">
-        <v>147.97</v>
+        <v>17227.8707</v>
       </c>
       <c r="G76" t="n">
-        <v>-2439.350677593568</v>
+        <v>56.81656481125282</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3090,28 +3187,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>255.4</v>
+        <v>254</v>
       </c>
       <c r="C77" t="n">
-        <v>255.4</v>
+        <v>253</v>
       </c>
       <c r="D77" t="n">
-        <v>255.4</v>
+        <v>254</v>
       </c>
       <c r="E77" t="n">
-        <v>255.4</v>
+        <v>253</v>
       </c>
       <c r="F77" t="n">
-        <v>110</v>
+        <v>194.269</v>
       </c>
       <c r="G77" t="n">
-        <v>-2549.350677593568</v>
+        <v>-137.4524351887472</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3125,413 +3223,509 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>254.4</v>
+        <v>252.9</v>
       </c>
       <c r="C78" t="n">
-        <v>256.9</v>
+        <v>252.9</v>
       </c>
       <c r="D78" t="n">
-        <v>257.2</v>
+        <v>252.9</v>
       </c>
       <c r="E78" t="n">
-        <v>254.1</v>
+        <v>252.9</v>
       </c>
       <c r="F78" t="n">
-        <v>8464.477800000001</v>
+        <v>72.3954</v>
       </c>
       <c r="G78" t="n">
-        <v>5915.127122406433</v>
+        <v>-209.8478351887472</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>253</v>
+      </c>
+      <c r="K78" t="n">
+        <v>253</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>257.1</v>
+        <v>251</v>
       </c>
       <c r="C79" t="n">
-        <v>260</v>
+        <v>248.3</v>
       </c>
       <c r="D79" t="n">
-        <v>260.1</v>
+        <v>251</v>
       </c>
       <c r="E79" t="n">
-        <v>256.9</v>
+        <v>248.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1750</v>
+        <v>9704.5995</v>
       </c>
       <c r="G79" t="n">
-        <v>7665.127122406433</v>
+        <v>-9914.447335188748</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>253</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>258.1</v>
+        <v>251.6</v>
       </c>
       <c r="C80" t="n">
-        <v>258.1</v>
+        <v>251.6</v>
       </c>
       <c r="D80" t="n">
-        <v>258.1</v>
+        <v>251.6</v>
       </c>
       <c r="E80" t="n">
-        <v>258.1</v>
+        <v>251.6</v>
       </c>
       <c r="F80" t="n">
-        <v>155.97</v>
+        <v>129.52</v>
       </c>
       <c r="G80" t="n">
-        <v>7509.157122406433</v>
+        <v>-9784.927335188748</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>253</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>258.3</v>
+        <v>251.6</v>
       </c>
       <c r="C81" t="n">
-        <v>258</v>
+        <v>251.6</v>
       </c>
       <c r="D81" t="n">
-        <v>258.3</v>
+        <v>251.6</v>
       </c>
       <c r="E81" t="n">
-        <v>258</v>
+        <v>251.6</v>
       </c>
       <c r="F81" t="n">
-        <v>12959.2747</v>
+        <v>85</v>
       </c>
       <c r="G81" t="n">
-        <v>-5450.117577593567</v>
+        <v>-9784.927335188748</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>253</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C82" t="n">
-        <v>260.1</v>
+        <v>252</v>
       </c>
       <c r="D82" t="n">
-        <v>261.9</v>
+        <v>252</v>
       </c>
       <c r="E82" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F82" t="n">
-        <v>2149.9779</v>
+        <v>10.2982</v>
       </c>
       <c r="G82" t="n">
-        <v>-3300.139677593567</v>
+        <v>-9774.629135188748</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>253</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="C83" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="D83" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="E83" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="F83" t="n">
-        <v>589.3376</v>
+        <v>26</v>
       </c>
       <c r="G83" t="n">
-        <v>-2710.802077593567</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>252</v>
+      </c>
+      <c r="K83" t="n">
+        <v>253</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="C84" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="D84" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="E84" t="n">
-        <v>263.7</v>
+        <v>252.1</v>
       </c>
       <c r="F84" t="n">
-        <v>2451.6624</v>
+        <v>5.05</v>
       </c>
       <c r="G84" t="n">
-        <v>-259.1396775935673</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>253</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="C85" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="D85" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="E85" t="n">
-        <v>265.1</v>
+        <v>252.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1333.8532</v>
+        <v>1.015</v>
       </c>
       <c r="G85" t="n">
-        <v>-259.1396775935673</v>
+        <v>-9748.629135188748</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>253</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>266</v>
+        <v>253.1</v>
       </c>
       <c r="C86" t="n">
-        <v>266</v>
+        <v>253.5</v>
       </c>
       <c r="D86" t="n">
-        <v>266</v>
+        <v>253.5</v>
       </c>
       <c r="E86" t="n">
-        <v>266</v>
+        <v>253.1</v>
       </c>
       <c r="F86" t="n">
-        <v>71.81010000000001</v>
+        <v>1696.0109</v>
       </c>
       <c r="G86" t="n">
-        <v>-187.3295775935673</v>
+        <v>-8052.618235188748</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>253</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>266.8</v>
+        <v>253.5</v>
       </c>
       <c r="C87" t="n">
-        <v>264.4</v>
+        <v>254.6</v>
       </c>
       <c r="D87" t="n">
-        <v>266.8</v>
+        <v>255.9</v>
       </c>
       <c r="E87" t="n">
-        <v>264.4</v>
+        <v>253.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1137.6725</v>
+        <v>3175.0666</v>
       </c>
       <c r="G87" t="n">
-        <v>-1325.002077593567</v>
+        <v>-4877.551635188748</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>253</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>264</v>
+        <v>253.1</v>
       </c>
       <c r="C88" t="n">
-        <v>264</v>
+        <v>253.1</v>
       </c>
       <c r="D88" t="n">
-        <v>264</v>
+        <v>253.1</v>
       </c>
       <c r="E88" t="n">
-        <v>264</v>
+        <v>253.1</v>
       </c>
       <c r="F88" t="n">
-        <v>9.59</v>
+        <v>243</v>
       </c>
       <c r="G88" t="n">
-        <v>-1334.592077593567</v>
+        <v>-5120.551635188748</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="K88" t="n">
+        <v>253</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C89" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D89" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E89" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F89" t="n">
-        <v>1635</v>
+        <v>174.53</v>
       </c>
       <c r="G89" t="n">
-        <v>-2969.592077593567</v>
+        <v>-4946.021635188748</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3540,68 +3734,84 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>253</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>260.8</v>
+        <v>254</v>
       </c>
       <c r="C90" t="n">
-        <v>260.2</v>
+        <v>254</v>
       </c>
       <c r="D90" t="n">
-        <v>260.8</v>
+        <v>254</v>
       </c>
       <c r="E90" t="n">
-        <v>260.2</v>
+        <v>254</v>
       </c>
       <c r="F90" t="n">
-        <v>13271.5276</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>10301.93552240643</v>
+        <v>-4946.021635188748</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>254</v>
+      </c>
+      <c r="K90" t="n">
+        <v>253</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="C91" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="D91" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="E91" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
-        <v>15077.4092</v>
+        <v>10.6067</v>
       </c>
       <c r="G91" t="n">
-        <v>25379.34472240643</v>
+        <v>-4935.414935188748</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3610,33 +3820,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>253</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="C92" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="D92" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="E92" t="n">
-        <v>260.3</v>
+        <v>257</v>
       </c>
       <c r="F92" t="n">
-        <v>108.87</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>25379.34472240643</v>
+        <v>-4935.414935188748</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3645,33 +3862,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>253</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="C93" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="D93" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="E93" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="F93" t="n">
-        <v>895.67</v>
+        <v>3368.3085</v>
       </c>
       <c r="G93" t="n">
-        <v>25379.34472240643</v>
+        <v>-8303.723435188749</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3680,33 +3904,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>253</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="C94" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="D94" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="E94" t="n">
-        <v>260.3</v>
+        <v>255</v>
       </c>
       <c r="F94" t="n">
-        <v>1258.3168</v>
+        <v>845.1004</v>
       </c>
       <c r="G94" t="n">
-        <v>25379.34472240643</v>
+        <v>-9148.823835188748</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3715,33 +3946,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>253</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>264</v>
+        <v>254.5</v>
       </c>
       <c r="C95" t="n">
-        <v>264</v>
+        <v>254.5</v>
       </c>
       <c r="D95" t="n">
-        <v>264</v>
+        <v>254.5</v>
       </c>
       <c r="E95" t="n">
-        <v>264</v>
+        <v>254.5</v>
       </c>
       <c r="F95" t="n">
-        <v>48</v>
+        <v>1432.98</v>
       </c>
       <c r="G95" t="n">
-        <v>25427.34472240643</v>
+        <v>-10581.80383518875</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3750,33 +3988,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>253</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>265</v>
+        <v>257.3</v>
       </c>
       <c r="C96" t="n">
-        <v>265.3</v>
+        <v>257.3</v>
       </c>
       <c r="D96" t="n">
-        <v>265.3</v>
+        <v>257.3</v>
       </c>
       <c r="E96" t="n">
-        <v>265</v>
+        <v>257.3</v>
       </c>
       <c r="F96" t="n">
-        <v>5659.450642404825</v>
+        <v>223.5405</v>
       </c>
       <c r="G96" t="n">
-        <v>31086.79536481125</v>
+        <v>-10358.26333518875</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3785,33 +4030,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>253</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>264.7</v>
+        <v>259</v>
       </c>
       <c r="C97" t="n">
-        <v>264.7</v>
+        <v>259</v>
       </c>
       <c r="D97" t="n">
-        <v>264.7</v>
+        <v>259</v>
       </c>
       <c r="E97" t="n">
-        <v>264.7</v>
+        <v>259</v>
       </c>
       <c r="F97" t="n">
-        <v>5560.3245</v>
+        <v>41</v>
       </c>
       <c r="G97" t="n">
-        <v>25526.47086481125</v>
+        <v>-10317.26333518875</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3820,33 +4072,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>253</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>264.4</v>
+        <v>259</v>
       </c>
       <c r="C98" t="n">
-        <v>264.4</v>
+        <v>259</v>
       </c>
       <c r="D98" t="n">
-        <v>264.4</v>
+        <v>259</v>
       </c>
       <c r="E98" t="n">
-        <v>264.4</v>
+        <v>259</v>
       </c>
       <c r="F98" t="n">
-        <v>22.6957</v>
+        <v>7.5</v>
       </c>
       <c r="G98" t="n">
-        <v>25503.77516481125</v>
+        <v>-10317.26333518875</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3855,33 +4114,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>253</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>263.6</v>
+        <v>259</v>
       </c>
       <c r="C99" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="D99" t="n">
-        <v>263.6</v>
+        <v>260</v>
       </c>
       <c r="E99" t="n">
-        <v>263.6</v>
+        <v>259</v>
       </c>
       <c r="F99" t="n">
-        <v>6034.8231</v>
+        <v>141.7248</v>
       </c>
       <c r="G99" t="n">
-        <v>19468.95206481125</v>
+        <v>-10175.53853518875</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3890,33 +4156,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>253</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>263.3</v>
+        <v>261.9</v>
       </c>
       <c r="C100" t="n">
-        <v>263.3</v>
+        <v>261.9</v>
       </c>
       <c r="D100" t="n">
-        <v>263.3</v>
+        <v>261.9</v>
       </c>
       <c r="E100" t="n">
-        <v>263.3</v>
+        <v>261.9</v>
       </c>
       <c r="F100" t="n">
-        <v>5556.3609</v>
+        <v>5722</v>
       </c>
       <c r="G100" t="n">
-        <v>13912.59116481125</v>
+        <v>-4453.538535188749</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3925,33 +4198,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>253</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260.1</v>
+        <v>261.9</v>
       </c>
       <c r="C101" t="n">
-        <v>260.1</v>
+        <v>261.9</v>
       </c>
       <c r="D101" t="n">
-        <v>260.1</v>
+        <v>261.9</v>
       </c>
       <c r="E101" t="n">
-        <v>260.1</v>
+        <v>261.9</v>
       </c>
       <c r="F101" t="n">
-        <v>3.9636</v>
+        <v>174</v>
       </c>
       <c r="G101" t="n">
-        <v>13908.62756481125</v>
+        <v>-4453.538535188749</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3960,33 +4240,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>253</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="C102" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="D102" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="E102" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="F102" t="n">
-        <v>162.8087</v>
+        <v>6.95</v>
       </c>
       <c r="G102" t="n">
-        <v>13745.81886481125</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3995,33 +4282,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>253</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="C103" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="D103" t="n">
-        <v>259.1</v>
+        <v>264</v>
       </c>
       <c r="E103" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="F103" t="n">
-        <v>461.1128</v>
+        <v>43.79</v>
       </c>
       <c r="G103" t="n">
-        <v>13284.70606481125</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4030,33 +4324,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>253</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>259.4</v>
+        <v>264</v>
       </c>
       <c r="C104" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="D104" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E104" t="n">
-        <v>258.4</v>
+        <v>264</v>
       </c>
       <c r="F104" t="n">
-        <v>1937.5605</v>
+        <v>1585.29</v>
       </c>
       <c r="G104" t="n">
-        <v>13284.70606481125</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4065,33 +4366,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>253</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="C105" t="n">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="D105" t="n">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="E105" t="n">
-        <v>258.5</v>
+        <v>264</v>
       </c>
       <c r="F105" t="n">
-        <v>1053.2845</v>
+        <v>317.0565</v>
       </c>
       <c r="G105" t="n">
-        <v>14337.99056481125</v>
+        <v>-4446.588535188749</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4100,33 +4408,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>253</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>258.5</v>
+        <v>264.3</v>
       </c>
       <c r="C106" t="n">
-        <v>258.5</v>
+        <v>264.3</v>
       </c>
       <c r="D106" t="n">
-        <v>258.5</v>
+        <v>264.3</v>
       </c>
       <c r="E106" t="n">
-        <v>258.5</v>
+        <v>264.3</v>
       </c>
       <c r="F106" t="n">
-        <v>14024.1247</v>
+        <v>1149.425</v>
       </c>
       <c r="G106" t="n">
-        <v>14337.99056481125</v>
+        <v>-3297.163535188749</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4135,33 +4450,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>253</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C107" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D107" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E107" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F107" t="n">
-        <v>777.2731</v>
+        <v>1171.2212</v>
       </c>
       <c r="G107" t="n">
-        <v>15115.26366481125</v>
+        <v>-4468.384735188749</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4170,33 +4492,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>253</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C108" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D108" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E108" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F108" t="n">
-        <v>322.8661</v>
+        <v>584.2188</v>
       </c>
       <c r="G108" t="n">
-        <v>15115.26366481125</v>
+        <v>-3884.165935188749</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4205,33 +4534,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>253</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>260</v>
+        <v>265.5</v>
       </c>
       <c r="C109" t="n">
-        <v>260</v>
+        <v>265.5</v>
       </c>
       <c r="D109" t="n">
-        <v>260</v>
+        <v>265.5</v>
       </c>
       <c r="E109" t="n">
-        <v>260</v>
+        <v>265.5</v>
       </c>
       <c r="F109" t="n">
-        <v>48.6941</v>
+        <v>1605.2555</v>
       </c>
       <c r="G109" t="n">
-        <v>15115.26366481125</v>
+        <v>-2278.910435188749</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4240,33 +4576,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>253</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260.1</v>
+        <v>266</v>
       </c>
       <c r="C110" t="n">
-        <v>260.1</v>
+        <v>266</v>
       </c>
       <c r="D110" t="n">
-        <v>260.1</v>
+        <v>266</v>
       </c>
       <c r="E110" t="n">
-        <v>260.1</v>
+        <v>266</v>
       </c>
       <c r="F110" t="n">
-        <v>4.9145</v>
+        <v>1901.0865</v>
       </c>
       <c r="G110" t="n">
-        <v>15120.17816481125</v>
+        <v>-377.8239351887491</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4275,33 +4618,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>253</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>259.7</v>
+        <v>266.2</v>
       </c>
       <c r="C111" t="n">
-        <v>259.5</v>
+        <v>266</v>
       </c>
       <c r="D111" t="n">
-        <v>259.7</v>
+        <v>266.2</v>
       </c>
       <c r="E111" t="n">
-        <v>259.5</v>
+        <v>266</v>
       </c>
       <c r="F111" t="n">
-        <v>14586.3687</v>
+        <v>5468.4151</v>
       </c>
       <c r="G111" t="n">
-        <v>533.8094648112528</v>
+        <v>-377.8239351887491</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4310,33 +4660,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>253</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="C112" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="D112" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="E112" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="F112" t="n">
-        <v>1992.92</v>
+        <v>175.3159</v>
       </c>
       <c r="G112" t="n">
-        <v>533.8094648112528</v>
+        <v>-553.1398351887492</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4345,33 +4702,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>253</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="C113" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="D113" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="E113" t="n">
-        <v>259.5</v>
+        <v>265.7</v>
       </c>
       <c r="F113" t="n">
-        <v>368.31</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
-        <v>533.8094648112528</v>
+        <v>-553.1398351887492</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4380,33 +4744,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>253</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>259.5</v>
+        <v>265</v>
       </c>
       <c r="C114" t="n">
-        <v>259.5</v>
+        <v>265</v>
       </c>
       <c r="D114" t="n">
-        <v>259.5</v>
+        <v>265</v>
       </c>
       <c r="E114" t="n">
-        <v>259.5</v>
+        <v>265</v>
       </c>
       <c r="F114" t="n">
-        <v>30.272</v>
+        <v>192.1698</v>
       </c>
       <c r="G114" t="n">
-        <v>533.8094648112528</v>
+        <v>-745.3096351887492</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4415,33 +4786,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>253</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C115" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D115" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E115" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F115" t="n">
-        <v>476.9929</v>
+        <v>1511.1073</v>
       </c>
       <c r="G115" t="n">
-        <v>56.81656481125282</v>
+        <v>-745.3096351887492</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4450,33 +4828,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>253</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="C116" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="D116" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="E116" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="F116" t="n">
-        <v>11.4459</v>
+        <v>1402.1649</v>
       </c>
       <c r="G116" t="n">
-        <v>56.81656481125282</v>
+        <v>-2147.474535188749</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4485,33 +4870,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>253</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="C117" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="D117" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="E117" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="F117" t="n">
-        <v>2.3019</v>
+        <v>1799.0151</v>
       </c>
       <c r="G117" t="n">
-        <v>56.81656481125282</v>
+        <v>-2147.474535188749</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4520,33 +4912,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>253</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>255.7</v>
+        <v>264.3</v>
       </c>
       <c r="C118" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="D118" t="n">
-        <v>258</v>
+        <v>264.3</v>
       </c>
       <c r="E118" t="n">
-        <v>255.6</v>
+        <v>264.3</v>
       </c>
       <c r="F118" t="n">
-        <v>17227.8707</v>
+        <v>200.9849</v>
       </c>
       <c r="G118" t="n">
-        <v>56.81656481125282</v>
+        <v>-2147.474535188749</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4555,68 +4954,82 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>253</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>254</v>
+        <v>264.4</v>
       </c>
       <c r="C119" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2137.474535188749</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
         <v>253</v>
       </c>
-      <c r="D119" t="n">
-        <v>254</v>
-      </c>
-      <c r="E119" t="n">
-        <v>253</v>
-      </c>
-      <c r="F119" t="n">
-        <v>194.269</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-137.4524351887472</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>252.9</v>
+        <v>264</v>
       </c>
       <c r="C120" t="n">
-        <v>252.9</v>
+        <v>264</v>
       </c>
       <c r="D120" t="n">
-        <v>252.9</v>
+        <v>264</v>
       </c>
       <c r="E120" t="n">
-        <v>252.9</v>
+        <v>264</v>
       </c>
       <c r="F120" t="n">
-        <v>72.3954</v>
+        <v>166.4493</v>
       </c>
       <c r="G120" t="n">
-        <v>-209.8478351887472</v>
+        <v>-2303.923835188749</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4625,33 +5038,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>253</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C121" t="n">
-        <v>248.3</v>
+        <v>264</v>
       </c>
       <c r="D121" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E121" t="n">
-        <v>248.3</v>
+        <v>264</v>
       </c>
       <c r="F121" t="n">
-        <v>9704.5995</v>
+        <v>2032.603</v>
       </c>
       <c r="G121" t="n">
-        <v>-9914.447335188748</v>
+        <v>-2303.923835188749</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4660,33 +5080,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>253</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>251.6</v>
+        <v>265</v>
       </c>
       <c r="C122" t="n">
-        <v>251.6</v>
+        <v>265</v>
       </c>
       <c r="D122" t="n">
-        <v>251.6</v>
+        <v>265</v>
       </c>
       <c r="E122" t="n">
-        <v>251.6</v>
+        <v>265</v>
       </c>
       <c r="F122" t="n">
-        <v>129.52</v>
+        <v>10.4363</v>
       </c>
       <c r="G122" t="n">
-        <v>-9784.927335188748</v>
+        <v>-2293.487535188749</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4695,33 +5122,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>253</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>251.6</v>
+        <v>265.9</v>
       </c>
       <c r="C123" t="n">
-        <v>251.6</v>
+        <v>266</v>
       </c>
       <c r="D123" t="n">
-        <v>251.6</v>
+        <v>266</v>
       </c>
       <c r="E123" t="n">
-        <v>251.6</v>
+        <v>265.9</v>
       </c>
       <c r="F123" t="n">
-        <v>85</v>
+        <v>227.1101</v>
       </c>
       <c r="G123" t="n">
-        <v>-9784.927335188748</v>
+        <v>-2066.377435188749</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4730,33 +5164,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>253</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>252</v>
+        <v>268.7</v>
       </c>
       <c r="C124" t="n">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D124" t="n">
-        <v>252</v>
+        <v>268.7</v>
       </c>
       <c r="E124" t="n">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F124" t="n">
-        <v>10.2982</v>
+        <v>263</v>
       </c>
       <c r="G124" t="n">
-        <v>-9774.629135188748</v>
+        <v>-1803.377435188749</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4765,33 +5206,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>253</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="C125" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="D125" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="E125" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="F125" t="n">
-        <v>26</v>
+        <v>103.2763</v>
       </c>
       <c r="G125" t="n">
-        <v>-9748.629135188748</v>
+        <v>-1700.101135188749</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4800,33 +5248,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>253</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="C126" t="n">
-        <v>252.1</v>
+        <v>270</v>
       </c>
       <c r="D126" t="n">
-        <v>252.1</v>
+        <v>270</v>
       </c>
       <c r="E126" t="n">
-        <v>252.1</v>
+        <v>269</v>
       </c>
       <c r="F126" t="n">
-        <v>5.05</v>
+        <v>287.6749</v>
       </c>
       <c r="G126" t="n">
-        <v>-9748.629135188748</v>
+        <v>-1412.426235188749</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4835,33 +5290,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>253</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>252.1</v>
+        <v>270</v>
       </c>
       <c r="C127" t="n">
-        <v>252.1</v>
+        <v>270.7</v>
       </c>
       <c r="D127" t="n">
-        <v>252.1</v>
+        <v>270.7</v>
       </c>
       <c r="E127" t="n">
-        <v>252.1</v>
+        <v>269.4</v>
       </c>
       <c r="F127" t="n">
-        <v>1.015</v>
+        <v>470.0743</v>
       </c>
       <c r="G127" t="n">
-        <v>-9748.629135188748</v>
+        <v>-942.3519351887492</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4870,33 +5332,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>253</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>253.1</v>
+        <v>270.7</v>
       </c>
       <c r="C128" t="n">
-        <v>253.5</v>
+        <v>270.7</v>
       </c>
       <c r="D128" t="n">
-        <v>253.5</v>
+        <v>270.7</v>
       </c>
       <c r="E128" t="n">
-        <v>253.1</v>
+        <v>270.7</v>
       </c>
       <c r="F128" t="n">
-        <v>1696.0109</v>
+        <v>23.3468</v>
       </c>
       <c r="G128" t="n">
-        <v>-8052.618235188748</v>
+        <v>-942.3519351887492</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4905,33 +5374,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>253</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>253.5</v>
+        <v>272.6</v>
       </c>
       <c r="C129" t="n">
-        <v>254.6</v>
+        <v>272.6</v>
       </c>
       <c r="D129" t="n">
-        <v>255.9</v>
+        <v>272.6</v>
       </c>
       <c r="E129" t="n">
-        <v>253.5</v>
+        <v>272.6</v>
       </c>
       <c r="F129" t="n">
-        <v>3175.0666</v>
+        <v>1689.3601</v>
       </c>
       <c r="G129" t="n">
-        <v>-4877.551635188748</v>
+        <v>747.0081648112509</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4940,33 +5416,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>253</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>253.1</v>
+        <v>271</v>
       </c>
       <c r="C130" t="n">
-        <v>253.1</v>
+        <v>271</v>
       </c>
       <c r="D130" t="n">
-        <v>253.1</v>
+        <v>271</v>
       </c>
       <c r="E130" t="n">
-        <v>253.1</v>
+        <v>271</v>
       </c>
       <c r="F130" t="n">
-        <v>243</v>
+        <v>3.3211</v>
       </c>
       <c r="G130" t="n">
-        <v>-5120.551635188748</v>
+        <v>743.6870648112509</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4975,45 +5458,61 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>253</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C131" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D131" t="n">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E131" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F131" t="n">
-        <v>174.53</v>
+        <v>1526.0534</v>
       </c>
       <c r="G131" t="n">
-        <v>-4946.021635188748</v>
+        <v>-782.3663351887491</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>253</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>1.062193675889328</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.063266113088177</v>
       </c>
     </row>
     <row r="132">
@@ -5021,28 +5520,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>254</v>
+        <v>270.2</v>
       </c>
       <c r="C132" t="n">
-        <v>254</v>
+        <v>270.2</v>
       </c>
       <c r="D132" t="n">
-        <v>254</v>
+        <v>270.2</v>
       </c>
       <c r="E132" t="n">
-        <v>254</v>
+        <v>270.2</v>
       </c>
       <c r="F132" t="n">
-        <v>174</v>
+        <v>763.0267</v>
       </c>
       <c r="G132" t="n">
-        <v>-4946.021635188748</v>
+        <v>-19.33963518874907</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5050,34 +5549,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C133" t="n">
-        <v>257</v>
+        <v>273.7</v>
       </c>
       <c r="D133" t="n">
-        <v>257</v>
+        <v>274.8</v>
       </c>
       <c r="E133" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F133" t="n">
-        <v>10.6067</v>
+        <v>10612.68</v>
       </c>
       <c r="G133" t="n">
-        <v>-4935.414935188748</v>
+        <v>10593.34036481125</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5085,34 +5585,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>257</v>
+        <v>272.8</v>
       </c>
       <c r="C134" t="n">
-        <v>257</v>
+        <v>273.1</v>
       </c>
       <c r="D134" t="n">
-        <v>257</v>
+        <v>273.1</v>
       </c>
       <c r="E134" t="n">
-        <v>257</v>
+        <v>272.7</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>1763.0267</v>
       </c>
       <c r="G134" t="n">
-        <v>-4935.414935188748</v>
+        <v>8830.31366481125</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5120,34 +5621,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>256.5</v>
+        <v>273.5</v>
       </c>
       <c r="C135" t="n">
-        <v>256.5</v>
+        <v>273.8</v>
       </c>
       <c r="D135" t="n">
-        <v>256.5</v>
+        <v>273.8</v>
       </c>
       <c r="E135" t="n">
-        <v>256.5</v>
+        <v>273.5</v>
       </c>
       <c r="F135" t="n">
-        <v>3368.3085</v>
+        <v>166.4</v>
       </c>
       <c r="G135" t="n">
-        <v>-8303.723435188749</v>
+        <v>8996.71366481125</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5155,34 +5657,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>255</v>
+        <v>274.8</v>
       </c>
       <c r="C136" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D136" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="E136" t="n">
-        <v>255</v>
+        <v>274.8</v>
       </c>
       <c r="F136" t="n">
-        <v>845.1004</v>
+        <v>39889.2906</v>
       </c>
       <c r="G136" t="n">
-        <v>-9148.823835188748</v>
+        <v>48886.00426481125</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5190,1476 +5693,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1432.98</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-10581.80383518875</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>223.5405</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-10358.26333518875</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>259</v>
-      </c>
-      <c r="C139" t="n">
-        <v>259</v>
-      </c>
-      <c r="D139" t="n">
-        <v>259</v>
-      </c>
-      <c r="E139" t="n">
-        <v>259</v>
-      </c>
-      <c r="F139" t="n">
-        <v>41</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-10317.26333518875</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>259</v>
-      </c>
-      <c r="C140" t="n">
-        <v>259</v>
-      </c>
-      <c r="D140" t="n">
-        <v>259</v>
-      </c>
-      <c r="E140" t="n">
-        <v>259</v>
-      </c>
-      <c r="F140" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-10317.26333518875</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>259</v>
-      </c>
-      <c r="C141" t="n">
-        <v>260</v>
-      </c>
-      <c r="D141" t="n">
-        <v>260</v>
-      </c>
-      <c r="E141" t="n">
-        <v>259</v>
-      </c>
-      <c r="F141" t="n">
-        <v>141.7248</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-10175.53853518875</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5722</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-4453.538535188749</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="D143" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>261.9</v>
-      </c>
-      <c r="F143" t="n">
-        <v>174</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-4453.538535188749</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>264</v>
-      </c>
-      <c r="C144" t="n">
-        <v>264</v>
-      </c>
-      <c r="D144" t="n">
-        <v>264</v>
-      </c>
-      <c r="E144" t="n">
-        <v>264</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>264</v>
-      </c>
-      <c r="C145" t="n">
-        <v>264</v>
-      </c>
-      <c r="D145" t="n">
-        <v>264</v>
-      </c>
-      <c r="E145" t="n">
-        <v>264</v>
-      </c>
-      <c r="F145" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>264</v>
-      </c>
-      <c r="C146" t="n">
-        <v>264</v>
-      </c>
-      <c r="D146" t="n">
-        <v>264</v>
-      </c>
-      <c r="E146" t="n">
-        <v>264</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1585.29</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>264</v>
-      </c>
-      <c r="C147" t="n">
-        <v>264</v>
-      </c>
-      <c r="D147" t="n">
-        <v>264</v>
-      </c>
-      <c r="E147" t="n">
-        <v>264</v>
-      </c>
-      <c r="F147" t="n">
-        <v>317.0565</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="C148" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="D148" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="E148" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1149.425</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-3297.163535188749</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>264</v>
-      </c>
-      <c r="C149" t="n">
-        <v>264</v>
-      </c>
-      <c r="D149" t="n">
-        <v>264</v>
-      </c>
-      <c r="E149" t="n">
-        <v>264</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1171.2212</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4468.384735188749</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>265</v>
-      </c>
-      <c r="C150" t="n">
-        <v>265</v>
-      </c>
-      <c r="D150" t="n">
-        <v>265</v>
-      </c>
-      <c r="E150" t="n">
-        <v>265</v>
-      </c>
-      <c r="F150" t="n">
-        <v>584.2188</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-3884.165935188749</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>265.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1605.2555</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2278.910435188749</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>266</v>
-      </c>
-      <c r="C152" t="n">
-        <v>266</v>
-      </c>
-      <c r="D152" t="n">
-        <v>266</v>
-      </c>
-      <c r="E152" t="n">
-        <v>266</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1901.0865</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-377.8239351887491</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>266</v>
-      </c>
-      <c r="D153" t="n">
-        <v>266.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>266</v>
-      </c>
-      <c r="F153" t="n">
-        <v>5468.4151</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-377.8239351887491</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>175.3159</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-553.1398351887492</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>265.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>215</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-553.1398351887492</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>265</v>
-      </c>
-      <c r="C156" t="n">
-        <v>265</v>
-      </c>
-      <c r="D156" t="n">
-        <v>265</v>
-      </c>
-      <c r="E156" t="n">
-        <v>265</v>
-      </c>
-      <c r="F156" t="n">
-        <v>192.1698</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-745.3096351887492</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>265</v>
-      </c>
-      <c r="C157" t="n">
-        <v>265</v>
-      </c>
-      <c r="D157" t="n">
-        <v>265</v>
-      </c>
-      <c r="E157" t="n">
-        <v>265</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1511.1073</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-745.3096351887492</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="C158" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1402.1649</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1799.0151</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="C160" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="D160" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="E160" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>200.9849</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2137.474535188749</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>264</v>
-      </c>
-      <c r="C162" t="n">
-        <v>264</v>
-      </c>
-      <c r="D162" t="n">
-        <v>264</v>
-      </c>
-      <c r="E162" t="n">
-        <v>264</v>
-      </c>
-      <c r="F162" t="n">
-        <v>166.4493</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2303.923835188749</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>264</v>
-      </c>
-      <c r="C163" t="n">
-        <v>264</v>
-      </c>
-      <c r="D163" t="n">
-        <v>264</v>
-      </c>
-      <c r="E163" t="n">
-        <v>264</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2032.603</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2303.923835188749</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>265</v>
-      </c>
-      <c r="C164" t="n">
-        <v>265</v>
-      </c>
-      <c r="D164" t="n">
-        <v>265</v>
-      </c>
-      <c r="E164" t="n">
-        <v>265</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10.4363</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2293.487535188749</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="C165" t="n">
-        <v>266</v>
-      </c>
-      <c r="D165" t="n">
-        <v>266</v>
-      </c>
-      <c r="E165" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="F165" t="n">
-        <v>227.1101</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2066.377435188749</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>268</v>
-      </c>
-      <c r="D166" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>268</v>
-      </c>
-      <c r="F166" t="n">
-        <v>263</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1803.377435188749</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>269</v>
-      </c>
-      <c r="C167" t="n">
-        <v>269</v>
-      </c>
-      <c r="D167" t="n">
-        <v>269</v>
-      </c>
-      <c r="E167" t="n">
-        <v>269</v>
-      </c>
-      <c r="F167" t="n">
-        <v>103.2763</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1700.101135188749</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>269</v>
-      </c>
-      <c r="C168" t="n">
-        <v>270</v>
-      </c>
-      <c r="D168" t="n">
-        <v>270</v>
-      </c>
-      <c r="E168" t="n">
-        <v>269</v>
-      </c>
-      <c r="F168" t="n">
-        <v>287.6749</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1412.426235188749</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>270</v>
-      </c>
-      <c r="C169" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>269.4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>470.0743</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-942.3519351887492</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="E170" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>23.3468</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-942.3519351887492</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1689.3601</v>
-      </c>
-      <c r="G171" t="n">
-        <v>747.0081648112509</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>271</v>
-      </c>
-      <c r="C172" t="n">
-        <v>271</v>
-      </c>
-      <c r="D172" t="n">
-        <v>271</v>
-      </c>
-      <c r="E172" t="n">
-        <v>271</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3.3211</v>
-      </c>
-      <c r="G172" t="n">
-        <v>743.6870648112509</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>271</v>
-      </c>
-      <c r="C173" t="n">
-        <v>270</v>
-      </c>
-      <c r="D173" t="n">
-        <v>271</v>
-      </c>
-      <c r="E173" t="n">
-        <v>270</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1526.0534</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-782.3663351887491</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="D174" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="E174" t="n">
-        <v>270.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>763.0267</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-19.33963518874907</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>272</v>
-      </c>
-      <c r="C175" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>272</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10612.68</v>
-      </c>
-      <c r="G175" t="n">
-        <v>10593.34036481125</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1763.0267</v>
-      </c>
-      <c r="G176" t="n">
-        <v>8830.31366481125</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="C177" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="F177" t="n">
-        <v>166.4</v>
-      </c>
-      <c r="G177" t="n">
-        <v>8996.71366481125</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>275</v>
-      </c>
-      <c r="D178" t="n">
-        <v>275</v>
-      </c>
-      <c r="E178" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>39889.2906</v>
-      </c>
-      <c r="G178" t="n">
-        <v>48886.00426481125</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>261.4</v>
+        <v>264.1</v>
       </c>
       <c r="C2" t="n">
-        <v>259.1</v>
+        <v>262</v>
       </c>
       <c r="D2" t="n">
-        <v>261.4</v>
+        <v>264.1</v>
       </c>
       <c r="E2" t="n">
-        <v>259.1</v>
+        <v>262</v>
       </c>
       <c r="F2" t="n">
-        <v>1160.597</v>
+        <v>51.4761</v>
       </c>
       <c r="G2" t="n">
-        <v>2091.106322406433</v>
+        <v>6948.439800000006</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>259.6</v>
+        <v>261.8</v>
       </c>
       <c r="C3" t="n">
-        <v>260.1</v>
+        <v>261.8</v>
       </c>
       <c r="D3" t="n">
-        <v>261</v>
+        <v>261.8</v>
       </c>
       <c r="E3" t="n">
-        <v>259.6</v>
+        <v>261.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2509.7961</v>
+        <v>12017.7595</v>
       </c>
       <c r="G3" t="n">
-        <v>4600.902422406432</v>
+        <v>-5069.319699999994</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>259.1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7</v>
+        <v>256.5</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7</v>
+        <v>256.5</v>
       </c>
       <c r="E4" t="n">
-        <v>260.3</v>
+        <v>256.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2643.2237</v>
+        <v>500</v>
       </c>
       <c r="G4" t="n">
-        <v>7244.126122406433</v>
+        <v>-5569.319699999994</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>260.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>263.7</v>
+        <v>256.5</v>
       </c>
       <c r="C5" t="n">
-        <v>261.2</v>
+        <v>262.1</v>
       </c>
       <c r="D5" t="n">
-        <v>263.9</v>
+        <v>262.1</v>
       </c>
       <c r="E5" t="n">
-        <v>260.8</v>
+        <v>256.5</v>
       </c>
       <c r="F5" t="n">
-        <v>13713.5558</v>
+        <v>4530.13</v>
       </c>
       <c r="G5" t="n">
-        <v>-6469.429677593567</v>
+        <v>-1039.189699999994</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>263.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="C6" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="D6" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="E6" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="F6" t="n">
-        <v>139.0444</v>
+        <v>10.9161</v>
       </c>
       <c r="G6" t="n">
-        <v>-6330.385277593567</v>
+        <v>-1050.105799999993</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>261.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="D7" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="E7" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="F7" t="n">
-        <v>1387.385</v>
+        <v>220.201</v>
       </c>
       <c r="G7" t="n">
-        <v>-6330.385277593567</v>
+        <v>-1270.306799999993</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="D8" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
-        <v>262.4</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>266.486</v>
+        <v>5468.4151</v>
       </c>
       <c r="G8" t="n">
-        <v>-6330.385277593567</v>
+        <v>-1270.306799999993</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>261.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,35 +690,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>263.8</v>
+        <v>257.9</v>
       </c>
       <c r="C9" t="n">
-        <v>266</v>
+        <v>257.9</v>
       </c>
       <c r="D9" t="n">
-        <v>266</v>
+        <v>257.9</v>
       </c>
       <c r="E9" t="n">
-        <v>263.8</v>
+        <v>257.9</v>
       </c>
       <c r="F9" t="n">
-        <v>403.3406</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-5927.044677593567</v>
+        <v>-1260.306799999993</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>262.4</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -770,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>264.4</v>
+        <v>258.5</v>
       </c>
       <c r="C10" t="n">
-        <v>264.4</v>
+        <v>258.5</v>
       </c>
       <c r="D10" t="n">
-        <v>264.4</v>
+        <v>258.5</v>
       </c>
       <c r="E10" t="n">
-        <v>264.4</v>
+        <v>258.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1740.938</v>
+        <v>191.67</v>
       </c>
       <c r="G10" t="n">
-        <v>-7667.982677593567</v>
+        <v>-1068.636799999993</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -794,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -812,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>264.1</v>
+        <v>258.5</v>
       </c>
       <c r="C11" t="n">
-        <v>266.1</v>
+        <v>258.5</v>
       </c>
       <c r="D11" t="n">
-        <v>267.7</v>
+        <v>258.5</v>
       </c>
       <c r="E11" t="n">
-        <v>264.1</v>
+        <v>258.5</v>
       </c>
       <c r="F11" t="n">
-        <v>4535.5902</v>
+        <v>191</v>
       </c>
       <c r="G11" t="n">
-        <v>-3132.392477593567</v>
+        <v>-1068.636799999993</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -836,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>267.7</v>
+        <v>258.9</v>
       </c>
       <c r="C12" t="n">
-        <v>265.4</v>
+        <v>258.3</v>
       </c>
       <c r="D12" t="n">
-        <v>267.7</v>
+        <v>258.9</v>
       </c>
       <c r="E12" t="n">
-        <v>265.4</v>
+        <v>258.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3118.1394</v>
+        <v>36.5503</v>
       </c>
       <c r="G12" t="n">
-        <v>-6250.531877593568</v>
+        <v>-1105.187099999994</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -890,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>267.5</v>
+        <v>259.8</v>
       </c>
       <c r="C13" t="n">
-        <v>267.9</v>
+        <v>259.2</v>
       </c>
       <c r="D13" t="n">
-        <v>267.9</v>
+        <v>262</v>
       </c>
       <c r="E13" t="n">
-        <v>265.6</v>
+        <v>259.2</v>
       </c>
       <c r="F13" t="n">
-        <v>1320.1059</v>
+        <v>3569.08254351145</v>
       </c>
       <c r="G13" t="n">
-        <v>-4930.425977593568</v>
+        <v>2463.895443511457</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -926,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>268.7</v>
+        <v>259.9</v>
       </c>
       <c r="C14" t="n">
-        <v>268.7</v>
+        <v>259.9</v>
       </c>
       <c r="D14" t="n">
-        <v>268.7</v>
+        <v>259.9</v>
       </c>
       <c r="E14" t="n">
-        <v>268.7</v>
+        <v>259.9</v>
       </c>
       <c r="F14" t="n">
-        <v>166.3835</v>
+        <v>4.2555</v>
       </c>
       <c r="G14" t="n">
-        <v>-4764.042477593568</v>
+        <v>2468.150943511457</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -962,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>266.2</v>
+        <v>259.9</v>
       </c>
       <c r="C15" t="n">
-        <v>265.4</v>
+        <v>259.9</v>
       </c>
       <c r="D15" t="n">
-        <v>266.2</v>
+        <v>259.9</v>
       </c>
       <c r="E15" t="n">
-        <v>265.4</v>
+        <v>259.9</v>
       </c>
       <c r="F15" t="n">
-        <v>804.617</v>
+        <v>4.8386</v>
       </c>
       <c r="G15" t="n">
-        <v>-5568.659477593568</v>
+        <v>2468.150943511457</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -998,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265.4</v>
+        <v>258.2</v>
       </c>
       <c r="C16" t="n">
-        <v>266.2</v>
+        <v>258.2</v>
       </c>
       <c r="D16" t="n">
-        <v>266.9</v>
+        <v>258.2</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3</v>
+        <v>258.2</v>
       </c>
       <c r="F16" t="n">
-        <v>3484.5059</v>
+        <v>31.5403</v>
       </c>
       <c r="G16" t="n">
-        <v>-2084.153577593568</v>
+        <v>2436.610643511457</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1034,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>266.9</v>
+        <v>258.1</v>
       </c>
       <c r="C17" t="n">
-        <v>266.1</v>
+        <v>258.1</v>
       </c>
       <c r="D17" t="n">
-        <v>266.9</v>
+        <v>258.1</v>
       </c>
       <c r="E17" t="n">
-        <v>266.1</v>
+        <v>258.1</v>
       </c>
       <c r="F17" t="n">
-        <v>205.412</v>
+        <v>124</v>
       </c>
       <c r="G17" t="n">
-        <v>-2289.565577593568</v>
+        <v>2312.610643511457</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1070,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>265.3</v>
+        <v>256.2</v>
       </c>
       <c r="C18" t="n">
-        <v>265.3</v>
+        <v>256.2</v>
       </c>
       <c r="D18" t="n">
-        <v>265.3</v>
+        <v>256.2</v>
       </c>
       <c r="E18" t="n">
-        <v>265.2</v>
+        <v>256.2</v>
       </c>
       <c r="F18" t="n">
-        <v>948.4063</v>
+        <v>19.7732</v>
       </c>
       <c r="G18" t="n">
-        <v>-3237.971877593568</v>
+        <v>2292.837443511457</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1106,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>268</v>
+        <v>255.3</v>
       </c>
       <c r="C19" t="n">
-        <v>268</v>
+        <v>255.3</v>
       </c>
       <c r="D19" t="n">
-        <v>268</v>
+        <v>255.3</v>
       </c>
       <c r="E19" t="n">
-        <v>268</v>
+        <v>255.3</v>
       </c>
       <c r="F19" t="n">
-        <v>576.4333</v>
+        <v>366.7834</v>
       </c>
       <c r="G19" t="n">
-        <v>-2661.538577593568</v>
+        <v>1926.054043511456</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1142,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>268</v>
+        <v>254.2</v>
       </c>
       <c r="C20" t="n">
-        <v>268</v>
+        <v>254.1</v>
       </c>
       <c r="D20" t="n">
-        <v>268</v>
+        <v>254.2</v>
       </c>
       <c r="E20" t="n">
-        <v>268</v>
+        <v>254.1</v>
       </c>
       <c r="F20" t="n">
-        <v>89.33</v>
+        <v>3441.3762</v>
       </c>
       <c r="G20" t="n">
-        <v>-2661.538577593568</v>
+        <v>-1515.322156488544</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1178,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>266.3</v>
+        <v>255</v>
       </c>
       <c r="C21" t="n">
-        <v>266.2</v>
+        <v>255</v>
       </c>
       <c r="D21" t="n">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E21" t="n">
-        <v>266.2</v>
+        <v>255</v>
       </c>
       <c r="F21" t="n">
-        <v>680</v>
+        <v>366.7834</v>
       </c>
       <c r="G21" t="n">
-        <v>-3341.538577593568</v>
+        <v>-1148.538756488544</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1214,32 +1158,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>266.2</v>
+        <v>254.2</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3</v>
+        <v>254.4</v>
       </c>
       <c r="D22" t="n">
-        <v>267.8</v>
+        <v>254.4</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3</v>
+        <v>254.2</v>
       </c>
       <c r="F22" t="n">
-        <v>1020.9705</v>
+        <v>440.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>-4362.509077593568</v>
+        <v>-1589.538656488544</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>255</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1250,32 +1200,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>265.3</v>
+        <v>254</v>
       </c>
       <c r="C23" t="n">
-        <v>265.3</v>
+        <v>254</v>
       </c>
       <c r="D23" t="n">
-        <v>265.3</v>
+        <v>254</v>
       </c>
       <c r="E23" t="n">
-        <v>265.3</v>
+        <v>254</v>
       </c>
       <c r="F23" t="n">
-        <v>26.09</v>
+        <v>9.842499999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-4362.509077593568</v>
+        <v>-1599.381156488544</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>254.4</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1286,32 +1242,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C24" t="n">
-        <v>267.9</v>
+        <v>254</v>
       </c>
       <c r="D24" t="n">
-        <v>267.9</v>
+        <v>254</v>
       </c>
       <c r="E24" t="n">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F24" t="n">
-        <v>351.5733</v>
+        <v>10.5063</v>
       </c>
       <c r="G24" t="n">
-        <v>-4010.935777593568</v>
+        <v>-1599.381156488544</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>254</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1322,32 +1284,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>267.7</v>
+        <v>254</v>
       </c>
       <c r="C25" t="n">
-        <v>267.7</v>
+        <v>254</v>
       </c>
       <c r="D25" t="n">
-        <v>267.7</v>
+        <v>254</v>
       </c>
       <c r="E25" t="n">
-        <v>267.7</v>
+        <v>254</v>
       </c>
       <c r="F25" t="n">
-        <v>227.795</v>
+        <v>2.1171</v>
       </c>
       <c r="G25" t="n">
-        <v>-4238.730777593568</v>
+        <v>-1599.381156488544</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>254</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1358,32 +1326,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>267.9</v>
+        <v>253</v>
       </c>
       <c r="C26" t="n">
-        <v>267.9</v>
+        <v>253.6</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9</v>
+        <v>253.6</v>
       </c>
       <c r="E26" t="n">
-        <v>267.9</v>
+        <v>253</v>
       </c>
       <c r="F26" t="n">
-        <v>930.8546</v>
+        <v>1044.078</v>
       </c>
       <c r="G26" t="n">
-        <v>-3307.876177593568</v>
+        <v>-2643.459156488544</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>254</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1394,32 +1368,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>267.9</v>
+        <v>252.1</v>
       </c>
       <c r="C27" t="n">
-        <v>267.9</v>
+        <v>252.1</v>
       </c>
       <c r="D27" t="n">
-        <v>267.9</v>
+        <v>252.1</v>
       </c>
       <c r="E27" t="n">
-        <v>267.9</v>
+        <v>252.1</v>
       </c>
       <c r="F27" t="n">
-        <v>774</v>
+        <v>207.6237</v>
       </c>
       <c r="G27" t="n">
-        <v>-3307.876177593568</v>
+        <v>-2851.082856488544</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>253.6</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1430,32 +1410,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>266</v>
+        <v>252.7</v>
       </c>
       <c r="C28" t="n">
-        <v>266</v>
+        <v>252.7</v>
       </c>
       <c r="D28" t="n">
-        <v>266</v>
+        <v>252.7</v>
       </c>
       <c r="E28" t="n">
-        <v>266</v>
+        <v>252.7</v>
       </c>
       <c r="F28" t="n">
-        <v>67.7144</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-3375.590577593568</v>
+        <v>-2849.082856488544</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>252.1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1466,32 +1452,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>266.6</v>
+        <v>252.1</v>
       </c>
       <c r="C29" t="n">
-        <v>266.6</v>
+        <v>252.1</v>
       </c>
       <c r="D29" t="n">
-        <v>266.6</v>
+        <v>252.1</v>
       </c>
       <c r="E29" t="n">
-        <v>266.6</v>
+        <v>252.1</v>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>137.1665</v>
       </c>
       <c r="G29" t="n">
-        <v>-3125.590577593568</v>
+        <v>-2986.249356488544</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>252.7</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1502,32 +1494,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>266.6</v>
+        <v>252</v>
       </c>
       <c r="C30" t="n">
-        <v>268.9</v>
+        <v>252</v>
       </c>
       <c r="D30" t="n">
-        <v>268.9</v>
+        <v>252</v>
       </c>
       <c r="E30" t="n">
-        <v>266.6</v>
+        <v>252</v>
       </c>
       <c r="F30" t="n">
-        <v>1656.02</v>
+        <v>3.0951</v>
       </c>
       <c r="G30" t="n">
-        <v>-1469.570577593568</v>
+        <v>-2989.344456488544</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>252.1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1538,32 +1536,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>268.9</v>
+        <v>251.1</v>
       </c>
       <c r="C31" t="n">
-        <v>268.9</v>
+        <v>251.1</v>
       </c>
       <c r="D31" t="n">
-        <v>268.9</v>
+        <v>251.1</v>
       </c>
       <c r="E31" t="n">
-        <v>268.9</v>
+        <v>251.1</v>
       </c>
       <c r="F31" t="n">
-        <v>4145.4432</v>
+        <v>131</v>
       </c>
       <c r="G31" t="n">
-        <v>-1469.570577593568</v>
+        <v>-3120.344456488544</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>252</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1574,32 +1578,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="C32" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="D32" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="E32" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="F32" t="n">
-        <v>19.4203</v>
+        <v>279.3337</v>
       </c>
       <c r="G32" t="n">
-        <v>-1488.990877593568</v>
+        <v>-3399.678156488544</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>251.1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1610,32 +1620,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="C33" t="n">
-        <v>259.2</v>
+        <v>250.3</v>
       </c>
       <c r="D33" t="n">
-        <v>264</v>
+        <v>250.3</v>
       </c>
       <c r="E33" t="n">
-        <v>259.2</v>
+        <v>250.3</v>
       </c>
       <c r="F33" t="n">
-        <v>802.3898</v>
+        <v>43.071</v>
       </c>
       <c r="G33" t="n">
-        <v>-2291.380677593568</v>
+        <v>-3399.678156488544</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>250.3</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1646,32 +1662,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259.1</v>
+        <v>253.2</v>
       </c>
       <c r="C34" t="n">
-        <v>259</v>
+        <v>253.2</v>
       </c>
       <c r="D34" t="n">
-        <v>259.1</v>
+        <v>253.2</v>
       </c>
       <c r="E34" t="n">
-        <v>259</v>
+        <v>253.2</v>
       </c>
       <c r="F34" t="n">
-        <v>147.97</v>
+        <v>611.667</v>
       </c>
       <c r="G34" t="n">
-        <v>-2439.350677593568</v>
+        <v>-2788.011156488544</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>250.3</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1682,32 +1704,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>255.4</v>
+        <v>253.1</v>
       </c>
       <c r="C35" t="n">
-        <v>255.4</v>
+        <v>253.1</v>
       </c>
       <c r="D35" t="n">
-        <v>255.4</v>
+        <v>253.1</v>
       </c>
       <c r="E35" t="n">
-        <v>255.4</v>
+        <v>253.1</v>
       </c>
       <c r="F35" t="n">
-        <v>110</v>
+        <v>566.6079999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-2549.350677593568</v>
+        <v>-3354.619156488544</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>253.2</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1718,32 +1746,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>254.4</v>
+        <v>255.4</v>
       </c>
       <c r="C36" t="n">
-        <v>256.9</v>
+        <v>256</v>
       </c>
       <c r="D36" t="n">
-        <v>257.2</v>
+        <v>256</v>
       </c>
       <c r="E36" t="n">
-        <v>254.1</v>
+        <v>255.4</v>
       </c>
       <c r="F36" t="n">
-        <v>8464.477800000001</v>
+        <v>1557.6913</v>
       </c>
       <c r="G36" t="n">
-        <v>5915.127122406433</v>
+        <v>-1796.927856488544</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>253.1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1754,32 +1788,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>257.1</v>
+        <v>255.4</v>
       </c>
       <c r="C37" t="n">
-        <v>260</v>
+        <v>256.4</v>
       </c>
       <c r="D37" t="n">
-        <v>260.1</v>
+        <v>256.4</v>
       </c>
       <c r="E37" t="n">
-        <v>256.9</v>
+        <v>255.4</v>
       </c>
       <c r="F37" t="n">
-        <v>1750</v>
+        <v>1144.1159</v>
       </c>
       <c r="G37" t="n">
-        <v>7665.127122406433</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>256</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1790,22 +1830,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>258.1</v>
+        <v>256.4</v>
       </c>
       <c r="C38" t="n">
-        <v>258.1</v>
+        <v>256.4</v>
       </c>
       <c r="D38" t="n">
-        <v>258.1</v>
+        <v>256.4</v>
       </c>
       <c r="E38" t="n">
-        <v>258.1</v>
+        <v>256.4</v>
       </c>
       <c r="F38" t="n">
-        <v>155.97</v>
+        <v>326.1865</v>
       </c>
       <c r="G38" t="n">
-        <v>7509.157122406433</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1815,7 +1855,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1826,22 +1870,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>258.3</v>
+        <v>256.4</v>
       </c>
       <c r="C39" t="n">
-        <v>258</v>
+        <v>256.4</v>
       </c>
       <c r="D39" t="n">
-        <v>258.3</v>
+        <v>256.4</v>
       </c>
       <c r="E39" t="n">
-        <v>258</v>
+        <v>256.4</v>
       </c>
       <c r="F39" t="n">
-        <v>12959.2747</v>
+        <v>95.0163</v>
       </c>
       <c r="G39" t="n">
-        <v>-5450.117577593567</v>
+        <v>-652.811956488544</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1851,7 +1895,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1910,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C40" t="n">
-        <v>260.1</v>
+        <v>255</v>
       </c>
       <c r="D40" t="n">
-        <v>261.9</v>
+        <v>255</v>
       </c>
       <c r="E40" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F40" t="n">
-        <v>2149.9779</v>
+        <v>214</v>
       </c>
       <c r="G40" t="n">
-        <v>-3300.139677593567</v>
+        <v>-866.811956488544</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1887,7 +1935,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1898,22 +1950,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>263.7</v>
+        <v>254.1</v>
       </c>
       <c r="C41" t="n">
-        <v>263.7</v>
+        <v>254.1</v>
       </c>
       <c r="D41" t="n">
-        <v>263.7</v>
+        <v>254.1</v>
       </c>
       <c r="E41" t="n">
-        <v>263.7</v>
+        <v>254.1</v>
       </c>
       <c r="F41" t="n">
-        <v>589.3376</v>
+        <v>169.56</v>
       </c>
       <c r="G41" t="n">
-        <v>-2710.802077593567</v>
+        <v>-1036.371956488544</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1923,7 +1975,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1934,22 +1990,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>263.7</v>
+        <v>254</v>
       </c>
       <c r="C42" t="n">
-        <v>265.1</v>
+        <v>254</v>
       </c>
       <c r="D42" t="n">
-        <v>265.1</v>
+        <v>254</v>
       </c>
       <c r="E42" t="n">
-        <v>263.7</v>
+        <v>254</v>
       </c>
       <c r="F42" t="n">
-        <v>2451.6624</v>
+        <v>8.187099999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-259.1396775935673</v>
+        <v>-1044.559056488544</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1959,7 +2015,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1970,32 +2030,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>265.1</v>
+        <v>254.5</v>
       </c>
       <c r="C43" t="n">
-        <v>265.1</v>
+        <v>254.5</v>
       </c>
       <c r="D43" t="n">
-        <v>265.1</v>
+        <v>254.5</v>
       </c>
       <c r="E43" t="n">
-        <v>265.1</v>
+        <v>254.5</v>
       </c>
       <c r="F43" t="n">
-        <v>1333.8532</v>
+        <v>150.3071</v>
       </c>
       <c r="G43" t="n">
-        <v>-259.1396775935673</v>
+        <v>-894.251956488544</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>254</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2006,22 +2072,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>266</v>
+        <v>255.3</v>
       </c>
       <c r="C44" t="n">
-        <v>266</v>
+        <v>255.3</v>
       </c>
       <c r="D44" t="n">
-        <v>266</v>
+        <v>255.3</v>
       </c>
       <c r="E44" t="n">
-        <v>266</v>
+        <v>255.3</v>
       </c>
       <c r="F44" t="n">
-        <v>71.81010000000001</v>
+        <v>150</v>
       </c>
       <c r="G44" t="n">
-        <v>-187.3295775935673</v>
+        <v>-744.251956488544</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2031,7 +2097,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +2112,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>266.8</v>
+        <v>256</v>
       </c>
       <c r="C45" t="n">
-        <v>264.4</v>
+        <v>256</v>
       </c>
       <c r="D45" t="n">
-        <v>266.8</v>
+        <v>256</v>
       </c>
       <c r="E45" t="n">
-        <v>264.4</v>
+        <v>256</v>
       </c>
       <c r="F45" t="n">
-        <v>1137.6725</v>
+        <v>6.8184</v>
       </c>
       <c r="G45" t="n">
-        <v>-1325.002077593567</v>
+        <v>-737.433556488544</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2067,7 +2137,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2152,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C46" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D46" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E46" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F46" t="n">
-        <v>9.59</v>
+        <v>13747.9187</v>
       </c>
       <c r="G46" t="n">
-        <v>-1334.592077593567</v>
+        <v>-737.433556488544</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2103,7 +2177,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2192,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>261</v>
+        <v>256.8</v>
       </c>
       <c r="C47" t="n">
-        <v>258</v>
+        <v>256.8</v>
       </c>
       <c r="D47" t="n">
-        <v>261</v>
+        <v>256.8</v>
       </c>
       <c r="E47" t="n">
-        <v>258</v>
+        <v>256.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1635</v>
+        <v>475.0344</v>
       </c>
       <c r="G47" t="n">
-        <v>-2969.592077593567</v>
+        <v>-262.399156488544</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2139,7 +2217,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2150,22 +2232,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>260.8</v>
+        <v>256.6</v>
       </c>
       <c r="C48" t="n">
-        <v>260.2</v>
+        <v>256.6</v>
       </c>
       <c r="D48" t="n">
-        <v>260.8</v>
+        <v>256.6</v>
       </c>
       <c r="E48" t="n">
-        <v>260.2</v>
+        <v>256.6</v>
       </c>
       <c r="F48" t="n">
-        <v>13271.5276</v>
+        <v>249.3348</v>
       </c>
       <c r="G48" t="n">
-        <v>10301.93552240643</v>
+        <v>-511.733956488544</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2175,7 +2257,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2186,22 +2272,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="C49" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="D49" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="E49" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="F49" t="n">
-        <v>15077.4092</v>
+        <v>249.5894</v>
       </c>
       <c r="G49" t="n">
-        <v>25379.34472240643</v>
+        <v>-761.3233564885441</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2211,7 +2297,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2312,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="C50" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="D50" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="E50" t="n">
-        <v>260.3</v>
+        <v>256.1</v>
       </c>
       <c r="F50" t="n">
-        <v>108.87</v>
+        <v>16.18</v>
       </c>
       <c r="G50" t="n">
-        <v>25379.34472240643</v>
+        <v>-761.3233564885441</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2247,7 +2337,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2352,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>260.3</v>
+        <v>255.7</v>
       </c>
       <c r="C51" t="n">
-        <v>260.3</v>
+        <v>255.7</v>
       </c>
       <c r="D51" t="n">
-        <v>260.3</v>
+        <v>255.7</v>
       </c>
       <c r="E51" t="n">
-        <v>260.3</v>
+        <v>255.7</v>
       </c>
       <c r="F51" t="n">
-        <v>895.67</v>
+        <v>97.2826</v>
       </c>
       <c r="G51" t="n">
-        <v>25379.34472240643</v>
+        <v>-858.6059564885441</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2283,7 +2377,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2294,22 +2392,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>260.3</v>
+        <v>255.1</v>
       </c>
       <c r="C52" t="n">
-        <v>260.3</v>
+        <v>255.1</v>
       </c>
       <c r="D52" t="n">
-        <v>260.3</v>
+        <v>255.1</v>
       </c>
       <c r="E52" t="n">
-        <v>260.3</v>
+        <v>255.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1258.3168</v>
+        <v>324</v>
       </c>
       <c r="G52" t="n">
-        <v>25379.34472240643</v>
+        <v>-1182.605956488544</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2319,7 +2417,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2432,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C53" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D53" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E53" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F53" t="n">
-        <v>48</v>
+        <v>18.2036</v>
       </c>
       <c r="G53" t="n">
-        <v>25427.34472240643</v>
+        <v>-1200.809556488544</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2355,7 +2457,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2472,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>265</v>
+        <v>252.2</v>
       </c>
       <c r="C54" t="n">
-        <v>265.3</v>
+        <v>252.2</v>
       </c>
       <c r="D54" t="n">
-        <v>265.3</v>
+        <v>252.2</v>
       </c>
       <c r="E54" t="n">
-        <v>265</v>
+        <v>252.2</v>
       </c>
       <c r="F54" t="n">
-        <v>5659.450642404825</v>
+        <v>424.4125</v>
       </c>
       <c r="G54" t="n">
-        <v>31086.79536481125</v>
+        <v>-1625.222056488544</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2391,7 +2497,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2402,22 +2512,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>264.7</v>
+        <v>253.5</v>
       </c>
       <c r="C55" t="n">
-        <v>264.7</v>
+        <v>253.5</v>
       </c>
       <c r="D55" t="n">
-        <v>264.7</v>
+        <v>253.5</v>
       </c>
       <c r="E55" t="n">
-        <v>264.7</v>
+        <v>253.5</v>
       </c>
       <c r="F55" t="n">
-        <v>5560.3245</v>
+        <v>826.322</v>
       </c>
       <c r="G55" t="n">
-        <v>25526.47086481125</v>
+        <v>-798.9000564885442</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2427,7 +2537,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2552,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>264.4</v>
+        <v>254.2</v>
       </c>
       <c r="C56" t="n">
-        <v>264.4</v>
+        <v>254.2</v>
       </c>
       <c r="D56" t="n">
-        <v>264.4</v>
+        <v>254.2</v>
       </c>
       <c r="E56" t="n">
-        <v>264.4</v>
+        <v>254.2</v>
       </c>
       <c r="F56" t="n">
-        <v>22.6957</v>
+        <v>724.482</v>
       </c>
       <c r="G56" t="n">
-        <v>25503.77516481125</v>
+        <v>-74.41805648854427</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2463,7 +2577,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2474,22 +2592,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>263.6</v>
+        <v>255.4</v>
       </c>
       <c r="C57" t="n">
-        <v>263.6</v>
+        <v>255.7</v>
       </c>
       <c r="D57" t="n">
-        <v>263.6</v>
+        <v>255.7</v>
       </c>
       <c r="E57" t="n">
-        <v>263.6</v>
+        <v>255.4</v>
       </c>
       <c r="F57" t="n">
-        <v>6034.8231</v>
+        <v>782.6259788949768</v>
       </c>
       <c r="G57" t="n">
-        <v>19468.95206481125</v>
+        <v>708.2079224064325</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2499,7 +2617,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2510,32 +2632,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>263.3</v>
+        <v>255.4</v>
       </c>
       <c r="C58" t="n">
-        <v>263.3</v>
+        <v>255.9</v>
       </c>
       <c r="D58" t="n">
-        <v>263.3</v>
+        <v>255.9</v>
       </c>
       <c r="E58" t="n">
-        <v>263.3</v>
+        <v>255.4</v>
       </c>
       <c r="F58" t="n">
-        <v>5556.3609</v>
+        <v>11731.5019</v>
       </c>
       <c r="G58" t="n">
-        <v>13912.59116481125</v>
+        <v>12439.70982240643</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2672,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>260.1</v>
+        <v>256</v>
       </c>
       <c r="C59" t="n">
-        <v>260.1</v>
+        <v>256</v>
       </c>
       <c r="D59" t="n">
-        <v>260.1</v>
+        <v>256</v>
       </c>
       <c r="E59" t="n">
-        <v>260.1</v>
+        <v>256</v>
       </c>
       <c r="F59" t="n">
-        <v>3.9636</v>
+        <v>9.842499999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>13908.62756481125</v>
+        <v>12449.55232240643</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2571,7 +2697,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2712,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>259.1</v>
+        <v>257.4</v>
       </c>
       <c r="C60" t="n">
-        <v>259.1</v>
+        <v>257.4</v>
       </c>
       <c r="D60" t="n">
-        <v>259.1</v>
+        <v>257.4</v>
       </c>
       <c r="E60" t="n">
-        <v>259.1</v>
+        <v>257.4</v>
       </c>
       <c r="F60" t="n">
-        <v>162.8087</v>
+        <v>76.995</v>
       </c>
       <c r="G60" t="n">
-        <v>13745.81886481125</v>
+        <v>12526.54732240643</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2607,7 +2737,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2752,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>259.1</v>
+        <v>255.4</v>
       </c>
       <c r="C61" t="n">
-        <v>258.4</v>
+        <v>255.4</v>
       </c>
       <c r="D61" t="n">
-        <v>259.1</v>
+        <v>255.4</v>
       </c>
       <c r="E61" t="n">
-        <v>258.4</v>
+        <v>255.4</v>
       </c>
       <c r="F61" t="n">
-        <v>461.1128</v>
+        <v>28.0802</v>
       </c>
       <c r="G61" t="n">
-        <v>13284.70606481125</v>
+        <v>12498.46712240643</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2643,7 +2777,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2792,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>259.4</v>
+        <v>257</v>
       </c>
       <c r="C62" t="n">
-        <v>258.4</v>
+        <v>257</v>
       </c>
       <c r="D62" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E62" t="n">
-        <v>258.4</v>
+        <v>257</v>
       </c>
       <c r="F62" t="n">
-        <v>1937.5605</v>
+        <v>12.3379</v>
       </c>
       <c r="G62" t="n">
-        <v>13284.70606481125</v>
+        <v>12510.80502240643</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2679,7 +2817,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2690,22 +2832,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>258.5</v>
+        <v>255.9</v>
       </c>
       <c r="C63" t="n">
-        <v>258.5</v>
+        <v>256.1</v>
       </c>
       <c r="D63" t="n">
-        <v>258.5</v>
+        <v>256.2</v>
       </c>
       <c r="E63" t="n">
-        <v>258.5</v>
+        <v>255.9</v>
       </c>
       <c r="F63" t="n">
-        <v>1053.2845</v>
+        <v>9141.413500000001</v>
       </c>
       <c r="G63" t="n">
-        <v>14337.99056481125</v>
+        <v>3369.391522406433</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2715,7 +2857,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2726,22 +2872,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>258.5</v>
+        <v>256.3</v>
       </c>
       <c r="C64" t="n">
-        <v>258.5</v>
+        <v>259</v>
       </c>
       <c r="D64" t="n">
-        <v>258.5</v>
+        <v>259</v>
       </c>
       <c r="E64" t="n">
-        <v>258.5</v>
+        <v>256.3</v>
       </c>
       <c r="F64" t="n">
-        <v>14024.1247</v>
+        <v>1537.7415</v>
       </c>
       <c r="G64" t="n">
-        <v>14337.99056481125</v>
+        <v>4907.133022406433</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2751,7 +2897,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2762,22 +2912,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D65" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E65" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F65" t="n">
-        <v>777.2731</v>
+        <v>21.9123</v>
       </c>
       <c r="G65" t="n">
-        <v>15115.26366481125</v>
+        <v>4907.133022406433</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2787,7 +2937,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2798,22 +2952,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>260</v>
+        <v>259.2</v>
       </c>
       <c r="C66" t="n">
-        <v>260</v>
+        <v>259.2</v>
       </c>
       <c r="D66" t="n">
-        <v>260</v>
+        <v>259.2</v>
       </c>
       <c r="E66" t="n">
-        <v>260</v>
+        <v>259.2</v>
       </c>
       <c r="F66" t="n">
-        <v>322.8661</v>
+        <v>46.1041</v>
       </c>
       <c r="G66" t="n">
-        <v>15115.26366481125</v>
+        <v>4953.237122406433</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2823,7 +2977,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2834,22 +2992,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="C67" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D67" t="n">
-        <v>260</v>
+        <v>260.1</v>
       </c>
       <c r="E67" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F67" t="n">
-        <v>48.6941</v>
+        <v>9635.504800000001</v>
       </c>
       <c r="G67" t="n">
-        <v>15115.26366481125</v>
+        <v>-4682.267677593568</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2859,7 +3017,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2870,22 +3032,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>260.1</v>
+        <v>259</v>
       </c>
       <c r="C68" t="n">
-        <v>260.1</v>
+        <v>258.4</v>
       </c>
       <c r="D68" t="n">
-        <v>260.1</v>
+        <v>259</v>
       </c>
       <c r="E68" t="n">
-        <v>260.1</v>
+        <v>258.4</v>
       </c>
       <c r="F68" t="n">
-        <v>4.9145</v>
+        <v>2096.4355</v>
       </c>
       <c r="G68" t="n">
-        <v>15120.17816481125</v>
+        <v>-2585.832177593568</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2895,7 +3057,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2906,22 +3072,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>259.7</v>
+        <v>258.3</v>
       </c>
       <c r="C69" t="n">
         <v>259.5</v>
       </c>
       <c r="D69" t="n">
-        <v>259.7</v>
+        <v>259.5</v>
       </c>
       <c r="E69" t="n">
-        <v>259.5</v>
+        <v>258.3</v>
       </c>
       <c r="F69" t="n">
-        <v>14586.3687</v>
+        <v>1474.6855</v>
       </c>
       <c r="G69" t="n">
-        <v>533.8094648112528</v>
+        <v>-1111.146677593568</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2931,7 +3097,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2942,22 +3112,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C70" t="n">
-        <v>259.5</v>
+        <v>260.2</v>
       </c>
       <c r="D70" t="n">
-        <v>259.5</v>
+        <v>262.6</v>
       </c>
       <c r="E70" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="F70" t="n">
-        <v>1992.92</v>
+        <v>4188.85</v>
       </c>
       <c r="G70" t="n">
-        <v>533.8094648112528</v>
+        <v>3077.703322406433</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2967,7 +3137,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2978,35 +3152,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>259.5</v>
+        <v>261</v>
       </c>
       <c r="C71" t="n">
-        <v>259.5</v>
+        <v>260.2</v>
       </c>
       <c r="D71" t="n">
-        <v>259.5</v>
+        <v>261</v>
       </c>
       <c r="E71" t="n">
-        <v>259.5</v>
+        <v>260.2</v>
       </c>
       <c r="F71" t="n">
-        <v>368.31</v>
+        <v>58.8122</v>
       </c>
       <c r="G71" t="n">
-        <v>533.8094648112528</v>
+        <v>3077.703322406433</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3014,28 +3190,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>259.5</v>
+        <v>261.3</v>
       </c>
       <c r="C72" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="D72" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="E72" t="n">
-        <v>259.5</v>
+        <v>261.3</v>
       </c>
       <c r="F72" t="n">
-        <v>30.272</v>
+        <v>174</v>
       </c>
       <c r="G72" t="n">
-        <v>533.8094648112528</v>
+        <v>3251.703322406433</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3050,28 +3226,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>258</v>
+        <v>261.4</v>
       </c>
       <c r="C73" t="n">
-        <v>258</v>
+        <v>259.1</v>
       </c>
       <c r="D73" t="n">
-        <v>258</v>
+        <v>261.4</v>
       </c>
       <c r="E73" t="n">
-        <v>258</v>
+        <v>259.1</v>
       </c>
       <c r="F73" t="n">
-        <v>476.9929</v>
+        <v>1160.597</v>
       </c>
       <c r="G73" t="n">
-        <v>56.81656481125282</v>
+        <v>2091.106322406433</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3086,28 +3262,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>258</v>
+        <v>259.6</v>
       </c>
       <c r="C74" t="n">
-        <v>258</v>
+        <v>260.1</v>
       </c>
       <c r="D74" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E74" t="n">
-        <v>258</v>
+        <v>259.6</v>
       </c>
       <c r="F74" t="n">
-        <v>11.4459</v>
+        <v>2509.7961</v>
       </c>
       <c r="G74" t="n">
-        <v>56.81656481125282</v>
+        <v>4600.902422406432</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3122,28 +3298,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>258</v>
+        <v>260.3</v>
       </c>
       <c r="C75" t="n">
-        <v>258</v>
+        <v>263.7</v>
       </c>
       <c r="D75" t="n">
-        <v>258</v>
+        <v>263.7</v>
       </c>
       <c r="E75" t="n">
-        <v>258</v>
+        <v>260.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2.3019</v>
+        <v>2643.2237</v>
       </c>
       <c r="G75" t="n">
-        <v>56.81656481125282</v>
+        <v>7244.126122406433</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3158,28 +3334,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>255.7</v>
+        <v>263.7</v>
       </c>
       <c r="C76" t="n">
-        <v>258</v>
+        <v>261.2</v>
       </c>
       <c r="D76" t="n">
-        <v>258</v>
+        <v>263.9</v>
       </c>
       <c r="E76" t="n">
-        <v>255.6</v>
+        <v>260.8</v>
       </c>
       <c r="F76" t="n">
-        <v>17227.8707</v>
+        <v>13713.5558</v>
       </c>
       <c r="G76" t="n">
-        <v>56.81656481125282</v>
+        <v>-6469.429677593567</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3194,28 +3370,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>254</v>
+        <v>262.4</v>
       </c>
       <c r="C77" t="n">
-        <v>253</v>
+        <v>262.4</v>
       </c>
       <c r="D77" t="n">
-        <v>254</v>
+        <v>262.4</v>
       </c>
       <c r="E77" t="n">
-        <v>253</v>
+        <v>262.4</v>
       </c>
       <c r="F77" t="n">
-        <v>194.269</v>
+        <v>139.0444</v>
       </c>
       <c r="G77" t="n">
-        <v>-137.4524351887472</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3230,35 +3406,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>252.9</v>
+        <v>262.4</v>
       </c>
       <c r="C78" t="n">
-        <v>252.9</v>
+        <v>262.4</v>
       </c>
       <c r="D78" t="n">
-        <v>252.9</v>
+        <v>262.4</v>
       </c>
       <c r="E78" t="n">
-        <v>252.9</v>
+        <v>262.4</v>
       </c>
       <c r="F78" t="n">
-        <v>72.3954</v>
+        <v>1387.385</v>
       </c>
       <c r="G78" t="n">
-        <v>-209.8478351887472</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>253</v>
-      </c>
-      <c r="K78" t="n">
-        <v>253</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3270,40 +3442,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>251</v>
+        <v>262.4</v>
       </c>
       <c r="C79" t="n">
-        <v>248.3</v>
+        <v>262.4</v>
       </c>
       <c r="D79" t="n">
-        <v>251</v>
+        <v>262.4</v>
       </c>
       <c r="E79" t="n">
-        <v>248.3</v>
+        <v>262.4</v>
       </c>
       <c r="F79" t="n">
-        <v>9704.5995</v>
+        <v>266.486</v>
       </c>
       <c r="G79" t="n">
-        <v>-9914.447335188748</v>
+        <v>-6330.385277593567</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>253</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3314,40 +3478,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>251.6</v>
+        <v>263.8</v>
       </c>
       <c r="C80" t="n">
-        <v>251.6</v>
+        <v>266</v>
       </c>
       <c r="D80" t="n">
-        <v>251.6</v>
+        <v>266</v>
       </c>
       <c r="E80" t="n">
-        <v>251.6</v>
+        <v>263.8</v>
       </c>
       <c r="F80" t="n">
-        <v>129.52</v>
+        <v>403.3406</v>
       </c>
       <c r="G80" t="n">
-        <v>-9784.927335188748</v>
+        <v>-5927.044677593567</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>248.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>253</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3358,40 +3514,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>251.6</v>
+        <v>264.4</v>
       </c>
       <c r="C81" t="n">
-        <v>251.6</v>
+        <v>264.4</v>
       </c>
       <c r="D81" t="n">
-        <v>251.6</v>
+        <v>264.4</v>
       </c>
       <c r="E81" t="n">
-        <v>251.6</v>
+        <v>264.4</v>
       </c>
       <c r="F81" t="n">
-        <v>85</v>
+        <v>1740.938</v>
       </c>
       <c r="G81" t="n">
-        <v>-9784.927335188748</v>
+        <v>-7667.982677593567</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>253</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3402,40 +3550,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>252</v>
+        <v>264.1</v>
       </c>
       <c r="C82" t="n">
-        <v>252</v>
+        <v>266.1</v>
       </c>
       <c r="D82" t="n">
-        <v>252</v>
+        <v>267.7</v>
       </c>
       <c r="E82" t="n">
-        <v>252</v>
+        <v>264.1</v>
       </c>
       <c r="F82" t="n">
-        <v>10.2982</v>
+        <v>4535.5902</v>
       </c>
       <c r="G82" t="n">
-        <v>-9774.629135188748</v>
+        <v>-3132.392477593567</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>251.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>253</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3446,40 +3586,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>252.1</v>
+        <v>267.7</v>
       </c>
       <c r="C83" t="n">
-        <v>252.1</v>
+        <v>265.4</v>
       </c>
       <c r="D83" t="n">
-        <v>252.1</v>
+        <v>267.7</v>
       </c>
       <c r="E83" t="n">
-        <v>252.1</v>
+        <v>265.4</v>
       </c>
       <c r="F83" t="n">
-        <v>26</v>
+        <v>3118.1394</v>
       </c>
       <c r="G83" t="n">
-        <v>-9748.629135188748</v>
+        <v>-6250.531877593568</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>252</v>
-      </c>
-      <c r="K83" t="n">
-        <v>253</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3490,40 +3622,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>252.1</v>
+        <v>267.5</v>
       </c>
       <c r="C84" t="n">
-        <v>252.1</v>
+        <v>267.9</v>
       </c>
       <c r="D84" t="n">
-        <v>252.1</v>
+        <v>267.9</v>
       </c>
       <c r="E84" t="n">
-        <v>252.1</v>
+        <v>265.6</v>
       </c>
       <c r="F84" t="n">
-        <v>5.05</v>
+        <v>1320.1059</v>
       </c>
       <c r="G84" t="n">
-        <v>-9748.629135188748</v>
+        <v>-4930.425977593568</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K84" t="n">
-        <v>253</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3534,40 +3658,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>252.1</v>
+        <v>268.7</v>
       </c>
       <c r="C85" t="n">
-        <v>252.1</v>
+        <v>268.7</v>
       </c>
       <c r="D85" t="n">
-        <v>252.1</v>
+        <v>268.7</v>
       </c>
       <c r="E85" t="n">
-        <v>252.1</v>
+        <v>268.7</v>
       </c>
       <c r="F85" t="n">
-        <v>1.015</v>
+        <v>166.3835</v>
       </c>
       <c r="G85" t="n">
-        <v>-9748.629135188748</v>
+        <v>-4764.042477593568</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K85" t="n">
-        <v>253</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3578,40 +3694,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>253.1</v>
+        <v>266.2</v>
       </c>
       <c r="C86" t="n">
-        <v>253.5</v>
+        <v>265.4</v>
       </c>
       <c r="D86" t="n">
-        <v>253.5</v>
+        <v>266.2</v>
       </c>
       <c r="E86" t="n">
-        <v>253.1</v>
+        <v>265.4</v>
       </c>
       <c r="F86" t="n">
-        <v>1696.0109</v>
+        <v>804.617</v>
       </c>
       <c r="G86" t="n">
-        <v>-8052.618235188748</v>
+        <v>-5568.659477593568</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>253</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3622,40 +3730,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>253.5</v>
+        <v>265.4</v>
       </c>
       <c r="C87" t="n">
-        <v>254.6</v>
+        <v>266.2</v>
       </c>
       <c r="D87" t="n">
-        <v>255.9</v>
+        <v>266.9</v>
       </c>
       <c r="E87" t="n">
-        <v>253.5</v>
+        <v>265.3</v>
       </c>
       <c r="F87" t="n">
-        <v>3175.0666</v>
+        <v>3484.5059</v>
       </c>
       <c r="G87" t="n">
-        <v>-4877.551635188748</v>
+        <v>-2084.153577593568</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>253</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3666,40 +3766,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>253.1</v>
+        <v>266.9</v>
       </c>
       <c r="C88" t="n">
-        <v>253.1</v>
+        <v>266.1</v>
       </c>
       <c r="D88" t="n">
-        <v>253.1</v>
+        <v>266.9</v>
       </c>
       <c r="E88" t="n">
-        <v>253.1</v>
+        <v>266.1</v>
       </c>
       <c r="F88" t="n">
-        <v>243</v>
+        <v>205.412</v>
       </c>
       <c r="G88" t="n">
-        <v>-5120.551635188748</v>
+        <v>-2289.565577593568</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>254.6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>253</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3710,38 +3802,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>254</v>
+        <v>265.3</v>
       </c>
       <c r="C89" t="n">
-        <v>254</v>
+        <v>265.3</v>
       </c>
       <c r="D89" t="n">
-        <v>254</v>
+        <v>265.3</v>
       </c>
       <c r="E89" t="n">
-        <v>254</v>
+        <v>265.2</v>
       </c>
       <c r="F89" t="n">
-        <v>174.53</v>
+        <v>948.4063</v>
       </c>
       <c r="G89" t="n">
-        <v>-4946.021635188748</v>
+        <v>-3237.971877593568</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>253</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3752,40 +3838,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C90" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D90" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E90" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F90" t="n">
-        <v>174</v>
+        <v>576.4333</v>
       </c>
       <c r="G90" t="n">
-        <v>-4946.021635188748</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>254</v>
-      </c>
-      <c r="K90" t="n">
-        <v>253</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3796,38 +3874,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C91" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D91" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E91" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F91" t="n">
-        <v>10.6067</v>
+        <v>89.33</v>
       </c>
       <c r="G91" t="n">
-        <v>-4935.414935188748</v>
+        <v>-2661.538577593568</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>253</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3838,38 +3910,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257</v>
+        <v>266.3</v>
       </c>
       <c r="C92" t="n">
-        <v>257</v>
+        <v>266.2</v>
       </c>
       <c r="D92" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="E92" t="n">
-        <v>257</v>
+        <v>266.2</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>680</v>
       </c>
       <c r="G92" t="n">
-        <v>-4935.414935188748</v>
+        <v>-3341.538577593568</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>253</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3880,38 +3946,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>256.5</v>
+        <v>266.2</v>
       </c>
       <c r="C93" t="n">
-        <v>256.5</v>
+        <v>265.3</v>
       </c>
       <c r="D93" t="n">
-        <v>256.5</v>
+        <v>267.8</v>
       </c>
       <c r="E93" t="n">
-        <v>256.5</v>
+        <v>265.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3368.3085</v>
+        <v>1020.9705</v>
       </c>
       <c r="G93" t="n">
-        <v>-8303.723435188749</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>253</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3922,22 +3982,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>265.3</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>265.3</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>265.3</v>
       </c>
       <c r="E94" t="n">
-        <v>255</v>
+        <v>265.3</v>
       </c>
       <c r="F94" t="n">
-        <v>845.1004</v>
+        <v>26.09</v>
       </c>
       <c r="G94" t="n">
-        <v>-9148.823835188748</v>
+        <v>-4362.509077593568</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3946,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>253</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +4018,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>254.5</v>
+        <v>267</v>
       </c>
       <c r="C95" t="n">
-        <v>254.5</v>
+        <v>267.9</v>
       </c>
       <c r="D95" t="n">
-        <v>254.5</v>
+        <v>267.9</v>
       </c>
       <c r="E95" t="n">
-        <v>254.5</v>
+        <v>267</v>
       </c>
       <c r="F95" t="n">
-        <v>1432.98</v>
+        <v>351.5733</v>
       </c>
       <c r="G95" t="n">
-        <v>-10581.80383518875</v>
+        <v>-4010.935777593568</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3988,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>253</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4006,22 +4054,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>257.3</v>
+        <v>267.7</v>
       </c>
       <c r="C96" t="n">
-        <v>257.3</v>
+        <v>267.7</v>
       </c>
       <c r="D96" t="n">
-        <v>257.3</v>
+        <v>267.7</v>
       </c>
       <c r="E96" t="n">
-        <v>257.3</v>
+        <v>267.7</v>
       </c>
       <c r="F96" t="n">
-        <v>223.5405</v>
+        <v>227.795</v>
       </c>
       <c r="G96" t="n">
-        <v>-10358.26333518875</v>
+        <v>-4238.730777593568</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4030,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>253</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4048,22 +4090,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="C97" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="D97" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="E97" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="F97" t="n">
-        <v>41</v>
+        <v>930.8546</v>
       </c>
       <c r="G97" t="n">
-        <v>-10317.26333518875</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4072,14 +4114,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>253</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4090,22 +4126,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="C98" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="D98" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="E98" t="n">
-        <v>259</v>
+        <v>267.9</v>
       </c>
       <c r="F98" t="n">
-        <v>7.5</v>
+        <v>774</v>
       </c>
       <c r="G98" t="n">
-        <v>-10317.26333518875</v>
+        <v>-3307.876177593568</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4114,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>253</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4132,22 +4162,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C99" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D99" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E99" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F99" t="n">
-        <v>141.7248</v>
+        <v>67.7144</v>
       </c>
       <c r="G99" t="n">
-        <v>-10175.53853518875</v>
+        <v>-3375.590577593568</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4156,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>253</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4174,22 +4198,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="C100" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="D100" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="E100" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="F100" t="n">
-        <v>5722</v>
+        <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>-4453.538535188749</v>
+        <v>-3125.590577593568</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4198,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>253</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4234,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="C101" t="n">
-        <v>261.9</v>
+        <v>268.9</v>
       </c>
       <c r="D101" t="n">
-        <v>261.9</v>
+        <v>268.9</v>
       </c>
       <c r="E101" t="n">
-        <v>261.9</v>
+        <v>266.6</v>
       </c>
       <c r="F101" t="n">
-        <v>174</v>
+        <v>1656.02</v>
       </c>
       <c r="G101" t="n">
-        <v>-4453.538535188749</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4240,14 +4258,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>253</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4258,22 +4270,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="C102" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="D102" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="E102" t="n">
-        <v>264</v>
+        <v>268.9</v>
       </c>
       <c r="F102" t="n">
-        <v>6.95</v>
+        <v>4145.4432</v>
       </c>
       <c r="G102" t="n">
-        <v>-4446.588535188749</v>
+        <v>-1469.570577593568</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4282,14 +4294,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>253</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4312,10 +4318,10 @@
         <v>264</v>
       </c>
       <c r="F103" t="n">
-        <v>43.79</v>
+        <v>19.4203</v>
       </c>
       <c r="G103" t="n">
-        <v>-4446.588535188749</v>
+        <v>-1488.990877593568</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4324,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>253</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4345,19 +4345,19 @@
         <v>264</v>
       </c>
       <c r="C104" t="n">
-        <v>264</v>
+        <v>259.2</v>
       </c>
       <c r="D104" t="n">
         <v>264</v>
       </c>
       <c r="E104" t="n">
-        <v>264</v>
+        <v>259.2</v>
       </c>
       <c r="F104" t="n">
-        <v>1585.29</v>
+        <v>802.3898</v>
       </c>
       <c r="G104" t="n">
-        <v>-4446.588535188749</v>
+        <v>-2291.380677593568</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4366,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>253</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4384,22 +4378,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>264</v>
+        <v>259.1</v>
       </c>
       <c r="C105" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D105" t="n">
-        <v>264</v>
+        <v>259.1</v>
       </c>
       <c r="E105" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F105" t="n">
-        <v>317.0565</v>
+        <v>147.97</v>
       </c>
       <c r="G105" t="n">
-        <v>-4446.588535188749</v>
+        <v>-2439.350677593568</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4408,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>253</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4414,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>264.3</v>
+        <v>255.4</v>
       </c>
       <c r="C106" t="n">
-        <v>264.3</v>
+        <v>255.4</v>
       </c>
       <c r="D106" t="n">
-        <v>264.3</v>
+        <v>255.4</v>
       </c>
       <c r="E106" t="n">
-        <v>264.3</v>
+        <v>255.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1149.425</v>
+        <v>110</v>
       </c>
       <c r="G106" t="n">
-        <v>-3297.163535188749</v>
+        <v>-2549.350677593568</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4450,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>253</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4468,22 +4450,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>264</v>
+        <v>254.4</v>
       </c>
       <c r="C107" t="n">
-        <v>264</v>
+        <v>256.9</v>
       </c>
       <c r="D107" t="n">
-        <v>264</v>
+        <v>257.2</v>
       </c>
       <c r="E107" t="n">
-        <v>264</v>
+        <v>254.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1171.2212</v>
+        <v>8464.477800000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-4468.384735188749</v>
+        <v>5915.127122406433</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4492,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>253</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4510,22 +4486,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>265</v>
+        <v>257.1</v>
       </c>
       <c r="C108" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D108" t="n">
-        <v>265</v>
+        <v>260.1</v>
       </c>
       <c r="E108" t="n">
-        <v>265</v>
+        <v>256.9</v>
       </c>
       <c r="F108" t="n">
-        <v>584.2188</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="n">
-        <v>-3884.165935188749</v>
+        <v>7665.127122406433</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4534,14 +4510,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>253</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4552,22 +4522,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>265.5</v>
+        <v>258.1</v>
       </c>
       <c r="C109" t="n">
-        <v>265.5</v>
+        <v>258.1</v>
       </c>
       <c r="D109" t="n">
-        <v>265.5</v>
+        <v>258.1</v>
       </c>
       <c r="E109" t="n">
-        <v>265.5</v>
+        <v>258.1</v>
       </c>
       <c r="F109" t="n">
-        <v>1605.2555</v>
+        <v>155.97</v>
       </c>
       <c r="G109" t="n">
-        <v>-2278.910435188749</v>
+        <v>7509.157122406433</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4576,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>253</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4594,22 +4558,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>266</v>
+        <v>258.3</v>
       </c>
       <c r="C110" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D110" t="n">
-        <v>266</v>
+        <v>258.3</v>
       </c>
       <c r="E110" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F110" t="n">
-        <v>1901.0865</v>
+        <v>12959.2747</v>
       </c>
       <c r="G110" t="n">
-        <v>-377.8239351887491</v>
+        <v>-5450.117577593567</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4618,14 +4582,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>253</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +4594,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>266.2</v>
+        <v>260</v>
       </c>
       <c r="C111" t="n">
-        <v>266</v>
+        <v>260.1</v>
       </c>
       <c r="D111" t="n">
-        <v>266.2</v>
+        <v>261.9</v>
       </c>
       <c r="E111" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F111" t="n">
-        <v>5468.4151</v>
+        <v>2149.9779</v>
       </c>
       <c r="G111" t="n">
-        <v>-377.8239351887491</v>
+        <v>-3300.139677593567</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4660,14 +4618,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>253</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4678,22 +4630,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="C112" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="D112" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="E112" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="F112" t="n">
-        <v>175.3159</v>
+        <v>589.3376</v>
       </c>
       <c r="G112" t="n">
-        <v>-553.1398351887492</v>
+        <v>-2710.802077593567</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4702,14 +4654,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>253</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +4666,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="C113" t="n">
-        <v>265.7</v>
+        <v>265.1</v>
       </c>
       <c r="D113" t="n">
-        <v>265.7</v>
+        <v>265.1</v>
       </c>
       <c r="E113" t="n">
-        <v>265.7</v>
+        <v>263.7</v>
       </c>
       <c r="F113" t="n">
-        <v>215</v>
+        <v>2451.6624</v>
       </c>
       <c r="G113" t="n">
-        <v>-553.1398351887492</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4744,14 +4690,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>253</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4762,22 +4702,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="C114" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="D114" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="E114" t="n">
-        <v>265</v>
+        <v>265.1</v>
       </c>
       <c r="F114" t="n">
-        <v>192.1698</v>
+        <v>1333.8532</v>
       </c>
       <c r="G114" t="n">
-        <v>-745.3096351887492</v>
+        <v>-259.1396775935673</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4786,14 +4726,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>253</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4804,22 +4738,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E115" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F115" t="n">
-        <v>1511.1073</v>
+        <v>71.81010000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-745.3096351887492</v>
+        <v>-187.3295775935673</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4828,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>253</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4846,22 +4774,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>264.3</v>
+        <v>266.8</v>
       </c>
       <c r="C116" t="n">
-        <v>264.3</v>
+        <v>264.4</v>
       </c>
       <c r="D116" t="n">
-        <v>264.3</v>
+        <v>266.8</v>
       </c>
       <c r="E116" t="n">
-        <v>264.3</v>
+        <v>264.4</v>
       </c>
       <c r="F116" t="n">
-        <v>1402.1649</v>
+        <v>1137.6725</v>
       </c>
       <c r="G116" t="n">
-        <v>-2147.474535188749</v>
+        <v>-1325.002077593567</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4870,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>253</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4888,22 +4810,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="C117" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="D117" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="E117" t="n">
-        <v>264.3</v>
+        <v>264</v>
       </c>
       <c r="F117" t="n">
-        <v>1799.0151</v>
+        <v>9.59</v>
       </c>
       <c r="G117" t="n">
-        <v>-2147.474535188749</v>
+        <v>-1334.592077593567</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4912,14 +4834,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>253</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4930,22 +4846,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>264.3</v>
+        <v>261</v>
       </c>
       <c r="C118" t="n">
-        <v>264.3</v>
+        <v>258</v>
       </c>
       <c r="D118" t="n">
-        <v>264.3</v>
+        <v>261</v>
       </c>
       <c r="E118" t="n">
-        <v>264.3</v>
+        <v>258</v>
       </c>
       <c r="F118" t="n">
-        <v>200.9849</v>
+        <v>1635</v>
       </c>
       <c r="G118" t="n">
-        <v>-2147.474535188749</v>
+        <v>-2969.592077593567</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4954,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>253</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4972,22 +4882,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>264.4</v>
+        <v>260.8</v>
       </c>
       <c r="C119" t="n">
-        <v>264.4</v>
+        <v>260.2</v>
       </c>
       <c r="D119" t="n">
-        <v>264.4</v>
+        <v>260.8</v>
       </c>
       <c r="E119" t="n">
-        <v>264.4</v>
+        <v>260.2</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>13271.5276</v>
       </c>
       <c r="G119" t="n">
-        <v>-2137.474535188749</v>
+        <v>10301.93552240643</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4996,14 +4906,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>253</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5014,22 +4918,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="C120" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="D120" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="E120" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="F120" t="n">
-        <v>166.4493</v>
+        <v>15077.4092</v>
       </c>
       <c r="G120" t="n">
-        <v>-2303.923835188749</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5038,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>253</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +4954,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="C121" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="D121" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="E121" t="n">
-        <v>264</v>
+        <v>260.3</v>
       </c>
       <c r="F121" t="n">
-        <v>2032.603</v>
+        <v>108.87</v>
       </c>
       <c r="G121" t="n">
-        <v>-2303.923835188749</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5080,14 +4978,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>253</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5098,22 +4990,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>265</v>
+        <v>260.3</v>
       </c>
       <c r="C122" t="n">
-        <v>265</v>
+        <v>260.3</v>
       </c>
       <c r="D122" t="n">
-        <v>265</v>
+        <v>260.3</v>
       </c>
       <c r="E122" t="n">
-        <v>265</v>
+        <v>260.3</v>
       </c>
       <c r="F122" t="n">
-        <v>10.4363</v>
+        <v>895.67</v>
       </c>
       <c r="G122" t="n">
-        <v>-2293.487535188749</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5122,14 +5014,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>253</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5140,22 +5026,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>265.9</v>
+        <v>260.3</v>
       </c>
       <c r="C123" t="n">
-        <v>266</v>
+        <v>260.3</v>
       </c>
       <c r="D123" t="n">
-        <v>266</v>
+        <v>260.3</v>
       </c>
       <c r="E123" t="n">
-        <v>265.9</v>
+        <v>260.3</v>
       </c>
       <c r="F123" t="n">
-        <v>227.1101</v>
+        <v>1258.3168</v>
       </c>
       <c r="G123" t="n">
-        <v>-2066.377435188749</v>
+        <v>25379.34472240643</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5164,14 +5050,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>253</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5182,22 +5062,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>268.7</v>
+        <v>264</v>
       </c>
       <c r="C124" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D124" t="n">
-        <v>268.7</v>
+        <v>264</v>
       </c>
       <c r="E124" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F124" t="n">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="G124" t="n">
-        <v>-1803.377435188749</v>
+        <v>25427.34472240643</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5206,14 +5086,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>253</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5224,22 +5098,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C125" t="n">
-        <v>269</v>
+        <v>265.3</v>
       </c>
       <c r="D125" t="n">
-        <v>269</v>
+        <v>265.3</v>
       </c>
       <c r="E125" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F125" t="n">
-        <v>103.2763</v>
+        <v>5659.450642404825</v>
       </c>
       <c r="G125" t="n">
-        <v>-1700.101135188749</v>
+        <v>31086.79536481125</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5248,14 +5122,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>253</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5266,22 +5134,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>269</v>
+        <v>264.7</v>
       </c>
       <c r="C126" t="n">
-        <v>270</v>
+        <v>264.7</v>
       </c>
       <c r="D126" t="n">
-        <v>270</v>
+        <v>264.7</v>
       </c>
       <c r="E126" t="n">
-        <v>269</v>
+        <v>264.7</v>
       </c>
       <c r="F126" t="n">
-        <v>287.6749</v>
+        <v>5560.3245</v>
       </c>
       <c r="G126" t="n">
-        <v>-1412.426235188749</v>
+        <v>25526.47086481125</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5290,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>253</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5308,22 +5170,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>270</v>
+        <v>264.4</v>
       </c>
       <c r="C127" t="n">
-        <v>270.7</v>
+        <v>264.4</v>
       </c>
       <c r="D127" t="n">
-        <v>270.7</v>
+        <v>264.4</v>
       </c>
       <c r="E127" t="n">
-        <v>269.4</v>
+        <v>264.4</v>
       </c>
       <c r="F127" t="n">
-        <v>470.0743</v>
+        <v>22.6957</v>
       </c>
       <c r="G127" t="n">
-        <v>-942.3519351887492</v>
+        <v>25503.77516481125</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5332,14 +5194,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>253</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5350,22 +5206,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>270.7</v>
+        <v>263.6</v>
       </c>
       <c r="C128" t="n">
-        <v>270.7</v>
+        <v>263.6</v>
       </c>
       <c r="D128" t="n">
-        <v>270.7</v>
+        <v>263.6</v>
       </c>
       <c r="E128" t="n">
-        <v>270.7</v>
+        <v>263.6</v>
       </c>
       <c r="F128" t="n">
-        <v>23.3468</v>
+        <v>6034.8231</v>
       </c>
       <c r="G128" t="n">
-        <v>-942.3519351887492</v>
+        <v>19468.95206481125</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5374,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>253</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5392,22 +5242,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>272.6</v>
+        <v>263.3</v>
       </c>
       <c r="C129" t="n">
-        <v>272.6</v>
+        <v>263.3</v>
       </c>
       <c r="D129" t="n">
-        <v>272.6</v>
+        <v>263.3</v>
       </c>
       <c r="E129" t="n">
-        <v>272.6</v>
+        <v>263.3</v>
       </c>
       <c r="F129" t="n">
-        <v>1689.3601</v>
+        <v>5556.3609</v>
       </c>
       <c r="G129" t="n">
-        <v>747.0081648112509</v>
+        <v>13912.59116481125</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5416,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>253</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5434,22 +5278,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>271</v>
+        <v>260.1</v>
       </c>
       <c r="C130" t="n">
-        <v>271</v>
+        <v>260.1</v>
       </c>
       <c r="D130" t="n">
-        <v>271</v>
+        <v>260.1</v>
       </c>
       <c r="E130" t="n">
-        <v>271</v>
+        <v>260.1</v>
       </c>
       <c r="F130" t="n">
-        <v>3.3211</v>
+        <v>3.9636</v>
       </c>
       <c r="G130" t="n">
-        <v>743.6870648112509</v>
+        <v>13908.62756481125</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5458,14 +5302,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>253</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5476,72 +5314,64 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>271</v>
+        <v>259.1</v>
       </c>
       <c r="C131" t="n">
-        <v>270</v>
+        <v>259.1</v>
       </c>
       <c r="D131" t="n">
-        <v>271</v>
+        <v>259.1</v>
       </c>
       <c r="E131" t="n">
-        <v>270</v>
+        <v>259.1</v>
       </c>
       <c r="F131" t="n">
-        <v>1526.0534</v>
+        <v>162.8087</v>
       </c>
       <c r="G131" t="n">
-        <v>-782.3663351887491</v>
+        <v>13745.81886481125</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>253</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1.062193675889328</v>
-      </c>
-      <c r="N131" t="n">
-        <v>1.063266113088177</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>270.2</v>
+        <v>259.1</v>
       </c>
       <c r="C132" t="n">
-        <v>270.2</v>
+        <v>258.4</v>
       </c>
       <c r="D132" t="n">
-        <v>270.2</v>
+        <v>259.1</v>
       </c>
       <c r="E132" t="n">
-        <v>270.2</v>
+        <v>258.4</v>
       </c>
       <c r="F132" t="n">
-        <v>763.0267</v>
+        <v>461.1128</v>
       </c>
       <c r="G132" t="n">
-        <v>-19.33963518874907</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5556,28 +5386,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>272</v>
+        <v>259.4</v>
       </c>
       <c r="C133" t="n">
-        <v>273.7</v>
+        <v>258.4</v>
       </c>
       <c r="D133" t="n">
-        <v>274.8</v>
+        <v>261</v>
       </c>
       <c r="E133" t="n">
-        <v>272</v>
+        <v>258.4</v>
       </c>
       <c r="F133" t="n">
-        <v>10612.68</v>
+        <v>1937.5605</v>
       </c>
       <c r="G133" t="n">
-        <v>10593.34036481125</v>
+        <v>13284.70606481125</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5592,28 +5422,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>272.8</v>
+        <v>258.5</v>
       </c>
       <c r="C134" t="n">
-        <v>273.1</v>
+        <v>258.5</v>
       </c>
       <c r="D134" t="n">
-        <v>273.1</v>
+        <v>258.5</v>
       </c>
       <c r="E134" t="n">
-        <v>272.7</v>
+        <v>258.5</v>
       </c>
       <c r="F134" t="n">
-        <v>1763.0267</v>
+        <v>1053.2845</v>
       </c>
       <c r="G134" t="n">
-        <v>8830.31366481125</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5628,28 +5458,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>273.5</v>
+        <v>258.5</v>
       </c>
       <c r="C135" t="n">
-        <v>273.8</v>
+        <v>258.5</v>
       </c>
       <c r="D135" t="n">
-        <v>273.8</v>
+        <v>258.5</v>
       </c>
       <c r="E135" t="n">
-        <v>273.5</v>
+        <v>258.5</v>
       </c>
       <c r="F135" t="n">
-        <v>166.4</v>
+        <v>14024.1247</v>
       </c>
       <c r="G135" t="n">
-        <v>8996.71366481125</v>
+        <v>14337.99056481125</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5664,28 +5494,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>274.8</v>
+        <v>260</v>
       </c>
       <c r="C136" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D136" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E136" t="n">
-        <v>274.8</v>
+        <v>260</v>
       </c>
       <c r="F136" t="n">
-        <v>39889.2906</v>
+        <v>777.2731</v>
       </c>
       <c r="G136" t="n">
-        <v>48886.00426481125</v>
+        <v>15115.26366481125</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5695,6 +5525,2562 @@
       </c>
       <c r="N136" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>260</v>
+      </c>
+      <c r="C137" t="n">
+        <v>260</v>
+      </c>
+      <c r="D137" t="n">
+        <v>260</v>
+      </c>
+      <c r="E137" t="n">
+        <v>260</v>
+      </c>
+      <c r="F137" t="n">
+        <v>322.8661</v>
+      </c>
+      <c r="G137" t="n">
+        <v>15115.26366481125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>260</v>
+      </c>
+      <c r="C138" t="n">
+        <v>260</v>
+      </c>
+      <c r="D138" t="n">
+        <v>260</v>
+      </c>
+      <c r="E138" t="n">
+        <v>260</v>
+      </c>
+      <c r="F138" t="n">
+        <v>48.6941</v>
+      </c>
+      <c r="G138" t="n">
+        <v>15115.26366481125</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.9145</v>
+      </c>
+      <c r="G139" t="n">
+        <v>15120.17816481125</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14586.3687</v>
+      </c>
+      <c r="G140" t="n">
+        <v>533.8094648112528</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1992.92</v>
+      </c>
+      <c r="G141" t="n">
+        <v>533.8094648112528</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>368.31</v>
+      </c>
+      <c r="G142" t="n">
+        <v>533.8094648112528</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30.272</v>
+      </c>
+      <c r="G143" t="n">
+        <v>533.8094648112528</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>258</v>
+      </c>
+      <c r="C144" t="n">
+        <v>258</v>
+      </c>
+      <c r="D144" t="n">
+        <v>258</v>
+      </c>
+      <c r="E144" t="n">
+        <v>258</v>
+      </c>
+      <c r="F144" t="n">
+        <v>476.9929</v>
+      </c>
+      <c r="G144" t="n">
+        <v>56.81656481125282</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>258</v>
+      </c>
+      <c r="C145" t="n">
+        <v>258</v>
+      </c>
+      <c r="D145" t="n">
+        <v>258</v>
+      </c>
+      <c r="E145" t="n">
+        <v>258</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.4459</v>
+      </c>
+      <c r="G145" t="n">
+        <v>56.81656481125282</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>258</v>
+      </c>
+      <c r="C146" t="n">
+        <v>258</v>
+      </c>
+      <c r="D146" t="n">
+        <v>258</v>
+      </c>
+      <c r="E146" t="n">
+        <v>258</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.3019</v>
+      </c>
+      <c r="G146" t="n">
+        <v>56.81656481125282</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>255.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>258</v>
+      </c>
+      <c r="D147" t="n">
+        <v>258</v>
+      </c>
+      <c r="E147" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17227.8707</v>
+      </c>
+      <c r="G147" t="n">
+        <v>56.81656481125282</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>254</v>
+      </c>
+      <c r="C148" t="n">
+        <v>253</v>
+      </c>
+      <c r="D148" t="n">
+        <v>254</v>
+      </c>
+      <c r="E148" t="n">
+        <v>253</v>
+      </c>
+      <c r="F148" t="n">
+        <v>194.269</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-137.4524351887472</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>72.3954</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-209.8478351887472</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>251</v>
+      </c>
+      <c r="C150" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>251</v>
+      </c>
+      <c r="E150" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9704.5995</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-9914.447335188748</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>129.52</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-9784.927335188748</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>85</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-9784.927335188748</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>252</v>
+      </c>
+      <c r="C153" t="n">
+        <v>252</v>
+      </c>
+      <c r="D153" t="n">
+        <v>252</v>
+      </c>
+      <c r="E153" t="n">
+        <v>252</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10.2982</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-9774.629135188748</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-9748.629135188748</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-9748.629135188748</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9748.629135188748</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1696.0109</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-8052.618235188748</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3175.0666</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4877.551635188748</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>243</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5120.551635188748</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>254</v>
+      </c>
+      <c r="C160" t="n">
+        <v>254</v>
+      </c>
+      <c r="D160" t="n">
+        <v>254</v>
+      </c>
+      <c r="E160" t="n">
+        <v>254</v>
+      </c>
+      <c r="F160" t="n">
+        <v>174.53</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4946.021635188748</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>254</v>
+      </c>
+      <c r="C161" t="n">
+        <v>254</v>
+      </c>
+      <c r="D161" t="n">
+        <v>254</v>
+      </c>
+      <c r="E161" t="n">
+        <v>254</v>
+      </c>
+      <c r="F161" t="n">
+        <v>174</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4946.021635188748</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>257</v>
+      </c>
+      <c r="C162" t="n">
+        <v>257</v>
+      </c>
+      <c r="D162" t="n">
+        <v>257</v>
+      </c>
+      <c r="E162" t="n">
+        <v>257</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10.6067</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4935.414935188748</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>257</v>
+      </c>
+      <c r="C163" t="n">
+        <v>257</v>
+      </c>
+      <c r="D163" t="n">
+        <v>257</v>
+      </c>
+      <c r="E163" t="n">
+        <v>257</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4935.414935188748</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>256.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3368.3085</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-8303.723435188749</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>255</v>
+      </c>
+      <c r="C165" t="n">
+        <v>255</v>
+      </c>
+      <c r="D165" t="n">
+        <v>255</v>
+      </c>
+      <c r="E165" t="n">
+        <v>255</v>
+      </c>
+      <c r="F165" t="n">
+        <v>845.1004</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-9148.823835188748</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1432.98</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-10581.80383518875</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>223.5405</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-10358.26333518875</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>259</v>
+      </c>
+      <c r="C168" t="n">
+        <v>259</v>
+      </c>
+      <c r="D168" t="n">
+        <v>259</v>
+      </c>
+      <c r="E168" t="n">
+        <v>259</v>
+      </c>
+      <c r="F168" t="n">
+        <v>41</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-10317.26333518875</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>259</v>
+      </c>
+      <c r="C169" t="n">
+        <v>259</v>
+      </c>
+      <c r="D169" t="n">
+        <v>259</v>
+      </c>
+      <c r="E169" t="n">
+        <v>259</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-10317.26333518875</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>259</v>
+      </c>
+      <c r="C170" t="n">
+        <v>260</v>
+      </c>
+      <c r="D170" t="n">
+        <v>260</v>
+      </c>
+      <c r="E170" t="n">
+        <v>259</v>
+      </c>
+      <c r="F170" t="n">
+        <v>141.7248</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-10175.53853518875</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5722</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4453.538535188749</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>174</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4453.538535188749</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>264</v>
+      </c>
+      <c r="C173" t="n">
+        <v>264</v>
+      </c>
+      <c r="D173" t="n">
+        <v>264</v>
+      </c>
+      <c r="E173" t="n">
+        <v>264</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4446.588535188749</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>264</v>
+      </c>
+      <c r="C174" t="n">
+        <v>264</v>
+      </c>
+      <c r="D174" t="n">
+        <v>264</v>
+      </c>
+      <c r="E174" t="n">
+        <v>264</v>
+      </c>
+      <c r="F174" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4446.588535188749</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>264</v>
+      </c>
+      <c r="C175" t="n">
+        <v>264</v>
+      </c>
+      <c r="D175" t="n">
+        <v>264</v>
+      </c>
+      <c r="E175" t="n">
+        <v>264</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1585.29</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4446.588535188749</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>264</v>
+      </c>
+      <c r="C176" t="n">
+        <v>264</v>
+      </c>
+      <c r="D176" t="n">
+        <v>264</v>
+      </c>
+      <c r="E176" t="n">
+        <v>264</v>
+      </c>
+      <c r="F176" t="n">
+        <v>317.0565</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4446.588535188749</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1149.425</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-3297.163535188749</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>264</v>
+      </c>
+      <c r="C178" t="n">
+        <v>264</v>
+      </c>
+      <c r="D178" t="n">
+        <v>264</v>
+      </c>
+      <c r="E178" t="n">
+        <v>264</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1171.2212</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4468.384735188749</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>265</v>
+      </c>
+      <c r="C179" t="n">
+        <v>265</v>
+      </c>
+      <c r="D179" t="n">
+        <v>265</v>
+      </c>
+      <c r="E179" t="n">
+        <v>265</v>
+      </c>
+      <c r="F179" t="n">
+        <v>584.2188</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-3884.165935188749</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1605.2555</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2278.910435188749</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>266</v>
+      </c>
+      <c r="C181" t="n">
+        <v>266</v>
+      </c>
+      <c r="D181" t="n">
+        <v>266</v>
+      </c>
+      <c r="E181" t="n">
+        <v>266</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1901.0865</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-377.8239351887491</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>266</v>
+      </c>
+      <c r="D182" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>266</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5468.4151</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-377.8239351887491</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>175.3159</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-553.1398351887492</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>215</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-553.1398351887492</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>265</v>
+      </c>
+      <c r="C185" t="n">
+        <v>265</v>
+      </c>
+      <c r="D185" t="n">
+        <v>265</v>
+      </c>
+      <c r="E185" t="n">
+        <v>265</v>
+      </c>
+      <c r="F185" t="n">
+        <v>192.1698</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-745.3096351887492</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>265</v>
+      </c>
+      <c r="C186" t="n">
+        <v>265</v>
+      </c>
+      <c r="D186" t="n">
+        <v>265</v>
+      </c>
+      <c r="E186" t="n">
+        <v>265</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1511.1073</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-745.3096351887492</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1402.1649</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E188" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1799.0151</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>200.9849</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2147.474535188749</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>10</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2137.474535188749</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>264</v>
+      </c>
+      <c r="C191" t="n">
+        <v>264</v>
+      </c>
+      <c r="D191" t="n">
+        <v>264</v>
+      </c>
+      <c r="E191" t="n">
+        <v>264</v>
+      </c>
+      <c r="F191" t="n">
+        <v>166.4493</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2303.923835188749</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>264</v>
+      </c>
+      <c r="C192" t="n">
+        <v>264</v>
+      </c>
+      <c r="D192" t="n">
+        <v>264</v>
+      </c>
+      <c r="E192" t="n">
+        <v>264</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2032.603</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2303.923835188749</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>265</v>
+      </c>
+      <c r="C193" t="n">
+        <v>265</v>
+      </c>
+      <c r="D193" t="n">
+        <v>265</v>
+      </c>
+      <c r="E193" t="n">
+        <v>265</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10.4363</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-2293.487535188749</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>266</v>
+      </c>
+      <c r="D194" t="n">
+        <v>266</v>
+      </c>
+      <c r="E194" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>227.1101</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-2066.377435188749</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>268</v>
+      </c>
+      <c r="D195" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="E195" t="n">
+        <v>268</v>
+      </c>
+      <c r="F195" t="n">
+        <v>263</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1803.377435188749</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>269</v>
+      </c>
+      <c r="C196" t="n">
+        <v>269</v>
+      </c>
+      <c r="D196" t="n">
+        <v>269</v>
+      </c>
+      <c r="E196" t="n">
+        <v>269</v>
+      </c>
+      <c r="F196" t="n">
+        <v>103.2763</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1700.101135188749</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>269</v>
+      </c>
+      <c r="C197" t="n">
+        <v>270</v>
+      </c>
+      <c r="D197" t="n">
+        <v>270</v>
+      </c>
+      <c r="E197" t="n">
+        <v>269</v>
+      </c>
+      <c r="F197" t="n">
+        <v>287.6749</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1412.426235188749</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>270</v>
+      </c>
+      <c r="C198" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D198" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="F198" t="n">
+        <v>470.0743</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-942.3519351887492</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="C199" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="D199" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23.3468</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-942.3519351887492</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1689.3601</v>
+      </c>
+      <c r="G200" t="n">
+        <v>747.0081648112509</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>271</v>
+      </c>
+      <c r="C201" t="n">
+        <v>271</v>
+      </c>
+      <c r="D201" t="n">
+        <v>271</v>
+      </c>
+      <c r="E201" t="n">
+        <v>271</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.3211</v>
+      </c>
+      <c r="G201" t="n">
+        <v>743.6870648112509</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>271</v>
+      </c>
+      <c r="C202" t="n">
+        <v>270</v>
+      </c>
+      <c r="D202" t="n">
+        <v>271</v>
+      </c>
+      <c r="E202" t="n">
+        <v>270</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1526.0534</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-782.3663351887491</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>763.0267</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-19.33963518874907</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>272</v>
+      </c>
+      <c r="C204" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>272</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10612.68</v>
+      </c>
+      <c r="G204" t="n">
+        <v>10593.34036481125</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1763.0267</v>
+      </c>
+      <c r="G205" t="n">
+        <v>8830.31366481125</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C206" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="G206" t="n">
+        <v>8996.71366481125</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="C207" t="n">
+        <v>275</v>
+      </c>
+      <c r="D207" t="n">
+        <v>275</v>
+      </c>
+      <c r="E207" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="F207" t="n">
+        <v>39889.2906</v>
+      </c>
+      <c r="G207" t="n">
+        <v>48886.00426481125</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>6948.439800000006</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-5069.319699999994</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-5569.319699999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1050.105799999993</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1105.187099999994</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>2468.150943511457</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>1926.054043511456</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-1515.322156488544</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-1148.538756488544</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,22 +1113,13 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>255</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1220,22 +1146,13 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>254.4</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1262,22 +1179,13 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>254</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,24 +1210,19 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J25" t="n">
         <v>254</v>
       </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1344,24 +1247,23 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J26" t="n">
         <v>254</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1386,24 +1288,23 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>253.6</v>
       </c>
       <c r="J27" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,24 +1329,21 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1470,24 +1368,23 @@
         <v>-2986.249356488544</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>252.7</v>
       </c>
       <c r="J29" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1512,24 +1409,23 @@
         <v>-2989.344456488544</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>252.1</v>
       </c>
       <c r="J30" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1554,24 +1450,23 @@
         <v>-3120.344456488544</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="J31" t="n">
-        <v>252</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1596,24 +1491,21 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1638,24 +1530,23 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>250.3</v>
       </c>
       <c r="J33" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1680,24 +1571,23 @@
         <v>-2788.011156488544</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>250.3</v>
       </c>
       <c r="J34" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1722,24 +1612,23 @@
         <v>-3354.619156488544</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>253.2</v>
       </c>
       <c r="J35" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1764,24 +1653,21 @@
         <v>-1796.927856488544</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1806,24 +1692,21 @@
         <v>-652.811956488544</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>256</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,20 +1733,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>254</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1890,20 +1772,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>254</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,20 +1811,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>254</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1970,20 +1850,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>254</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,20 +1889,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>254</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2048,24 +1926,21 @@
         <v>-894.251956488544</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>254</v>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,20 +1967,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>254</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,20 +2006,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>254</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,20 +2045,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>254</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2212,20 +2084,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>254</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,20 +2123,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>254</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2292,20 +2162,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>254</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2332,20 +2201,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2370,22 +2238,23 @@
         <v>-858.6059564885441</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>256.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>254</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2410,22 +2279,23 @@
         <v>-1182.605956488544</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>255.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>254</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2450,22 +2320,23 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>255.1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>254</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2490,22 +2361,23 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="J54" t="n">
+        <v>254</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2530,22 +2402,23 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>252.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>254</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2570,22 +2443,23 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>253.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>254</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2610,22 +2484,23 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>254.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>254</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,22 +2525,23 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>255.7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>254</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2690,22 +2566,23 @@
         <v>12449.55232240643</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>255.9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>254</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2730,22 +2607,23 @@
         <v>12526.54732240643</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="J60" t="n">
+        <v>254</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2770,22 +2648,23 @@
         <v>12498.46712240643</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>257.4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>254</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2810,22 +2689,23 @@
         <v>12510.80502240643</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>255.4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>254</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2850,22 +2730,23 @@
         <v>3369.391522406433</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="J63" t="n">
+        <v>254</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2890,22 +2771,23 @@
         <v>4907.133022406433</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>256.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>254</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2932,20 +2814,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>254</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2972,20 +2853,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>254</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3012,20 +2892,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>254</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,22 +2929,23 @@
         <v>-2585.832177593568</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="J68" t="n">
+        <v>254</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3090,22 +2970,23 @@
         <v>-1111.146677593568</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>258.4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>254</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,22 +3011,23 @@
         <v>3077.703322406433</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>254</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3170,20 +3052,23 @@
         <v>3077.703322406433</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>260.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>254</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3210,16 +3095,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>254</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3246,16 +3134,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>254</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3282,16 +3173,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3318,16 +3212,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>254</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3354,16 +3251,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>254</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3390,16 +3290,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>254</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3426,16 +3329,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>254</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3462,16 +3368,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>254</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3498,16 +3407,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>254</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3532,18 +3444,21 @@
         <v>-7667.982677593567</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>254</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.035944881889764</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3570,16 +3485,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3604,18 +3516,15 @@
         <v>-6250.531877593568</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3640,18 +3549,15 @@
         <v>-4930.425977593568</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3676,18 +3582,15 @@
         <v>-4764.042477593568</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3712,18 +3615,15 @@
         <v>-5568.659477593568</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3748,18 +3648,15 @@
         <v>-2084.153577593568</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3784,18 +3681,15 @@
         <v>-2289.565577593568</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3820,18 +3714,15 @@
         <v>-3237.971877593568</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3858,16 +3749,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3894,16 +3782,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3928,18 +3813,15 @@
         <v>-3341.538577593568</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3966,16 +3848,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4000,18 +3879,15 @@
         <v>-4362.509077593568</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4038,16 +3914,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4074,16 +3947,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4110,16 +3980,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4146,16 +4013,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4182,16 +4046,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4218,16 +4079,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4254,16 +4112,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4290,16 +4145,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4326,16 +4178,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4362,16 +4211,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4398,16 +4244,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4434,16 +4277,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4468,18 +4308,21 @@
         <v>5915.127122406433</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>255.4</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4504,18 +4347,21 @@
         <v>7665.127122406433</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>256.9</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4542,16 +4388,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4578,16 +4425,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4614,16 +4462,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4650,16 +4499,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4686,16 +4536,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4722,16 +4573,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4758,16 +4610,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4794,16 +4647,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4830,16 +4684,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4866,16 +4721,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4902,16 +4758,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4938,16 +4795,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4974,16 +4832,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5010,16 +4869,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5046,16 +4906,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5082,16 +4943,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5118,16 +4980,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5154,16 +5017,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5190,16 +5054,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5226,16 +5091,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5262,16 +5128,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5298,16 +5165,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5334,16 +5202,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5370,16 +5239,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5406,16 +5276,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5442,16 +5313,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5478,16 +5350,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5514,16 +5387,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5550,16 +5424,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5586,16 +5461,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5622,16 +5498,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5658,16 +5535,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5694,16 +5572,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5730,16 +5609,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5766,16 +5646,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5802,16 +5683,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5838,16 +5720,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5874,16 +5757,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5910,16 +5794,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5946,16 +5831,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5982,16 +5868,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6018,16 +5905,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6054,16 +5942,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6090,16 +5979,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6126,16 +6016,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6162,16 +6053,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6198,16 +6090,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6234,16 +6127,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6270,16 +6164,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6306,16 +6201,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6342,16 +6238,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6378,16 +6275,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6414,16 +6312,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6450,16 +6349,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6486,16 +6386,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6522,16 +6423,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6558,16 +6460,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6594,16 +6497,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6630,16 +6534,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6666,16 +6571,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6702,16 +6608,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6738,16 +6645,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6774,16 +6682,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6810,16 +6719,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6846,16 +6756,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6882,16 +6793,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6918,16 +6830,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6954,16 +6867,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6990,16 +6904,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7026,16 +6941,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7062,16 +6978,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7098,16 +7015,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7134,16 +7052,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7170,16 +7089,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7204,18 +7124,17 @@
         <v>-553.1398351887492</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7240,18 +7159,15 @@
         <v>-553.1398351887492</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7276,18 +7192,15 @@
         <v>-745.3096351887492</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7312,18 +7225,15 @@
         <v>-745.3096351887492</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7348,18 +7258,15 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7384,18 +7291,15 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7420,18 +7324,15 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7458,16 +7359,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7494,16 +7392,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7530,16 +7425,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7566,16 +7458,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7602,16 +7491,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7636,18 +7522,15 @@
         <v>-1803.377435188749</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7672,18 +7555,15 @@
         <v>-1700.101135188749</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7708,18 +7588,15 @@
         <v>-1412.426235188749</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7744,18 +7621,15 @@
         <v>-942.3519351887492</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7780,18 +7654,15 @@
         <v>-942.3519351887492</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7816,18 +7687,15 @@
         <v>747.0081648112509</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7852,18 +7720,15 @@
         <v>743.6870648112509</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7888,18 +7753,15 @@
         <v>-782.3663351887491</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7924,18 +7786,15 @@
         <v>-19.33963518874907</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7960,18 +7819,15 @@
         <v>10593.34036481125</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7996,18 +7852,15 @@
         <v>8830.31366481125</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8032,18 +7885,15 @@
         <v>8996.71366481125</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8068,20 +7918,17 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6948.439800000006</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5069.319699999994</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5569.319699999994</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1050.105799999993</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -717,8 +717,12 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>257.9</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -750,9 +754,17 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -783,9 +795,17 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,10 +834,14 @@
         <v>2463.895443511457</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>258.3</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +871,19 @@
         <v>2468.150943511457</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -882,9 +914,17 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,10 +953,14 @@
         <v>2436.610643511457</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>259.9</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -946,11 +990,19 @@
         <v>2312.610643511457</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1031,19 @@
         <v>2292.837443511457</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1014,8 +1074,12 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1047,9 +1111,17 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1080,9 +1152,17 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>254.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1113,9 +1193,17 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>255</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1146,9 +1234,17 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1179,9 +1275,17 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>254</v>
+      </c>
+      <c r="J24" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,15 +1314,19 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>254</v>
       </c>
       <c r="J25" t="n">
-        <v>254</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>256.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1355,17 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>254</v>
       </c>
       <c r="J26" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1288,13 +1396,13 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>253.6</v>
       </c>
       <c r="J27" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1329,11 +1437,13 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>252.1</v>
+      </c>
       <c r="J28" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1368,13 +1478,13 @@
         <v>-2986.249356488544</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>252.7</v>
       </c>
       <c r="J29" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1409,13 +1519,13 @@
         <v>-2989.344456488544</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>252.1</v>
       </c>
       <c r="J30" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1450,13 +1560,13 @@
         <v>-3120.344456488544</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>252</v>
       </c>
       <c r="J31" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1491,11 +1601,13 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>251.1</v>
+      </c>
       <c r="J32" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1530,13 +1642,13 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>250.3</v>
       </c>
       <c r="J33" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1571,13 +1683,13 @@
         <v>-2788.011156488544</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>250.3</v>
       </c>
       <c r="J34" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1612,13 +1724,13 @@
         <v>-3354.619156488544</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>253.2</v>
       </c>
       <c r="J35" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1653,11 +1765,13 @@
         <v>-1796.927856488544</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>253.1</v>
+      </c>
       <c r="J36" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1696,7 +1810,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1735,7 +1849,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1774,7 +1888,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1813,7 +1927,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1852,7 +1966,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1891,7 +2005,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1930,7 +2044,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1969,7 +2083,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2008,7 +2122,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2047,7 +2161,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2086,7 +2200,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2125,7 +2239,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2164,7 +2278,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2203,7 +2317,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2238,13 +2352,11 @@
         <v>-858.6059564885441</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2279,13 +2391,11 @@
         <v>-1182.605956488544</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2320,13 +2430,11 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>255.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2361,13 +2469,11 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2402,13 +2508,11 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>252.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2443,13 +2547,11 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>253.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2484,13 +2586,11 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2525,13 +2625,11 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2566,13 +2664,11 @@
         <v>12449.55232240643</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>255.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2607,13 +2703,11 @@
         <v>12526.54732240643</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2648,13 +2742,11 @@
         <v>12498.46712240643</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>257.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2689,13 +2781,11 @@
         <v>12510.80502240643</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>255.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2730,13 +2820,11 @@
         <v>3369.391522406433</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2771,13 +2859,11 @@
         <v>4907.133022406433</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2816,7 +2902,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2855,7 +2941,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2894,7 +2980,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2929,13 +3015,11 @@
         <v>-2585.832177593568</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2970,13 +3054,11 @@
         <v>-1111.146677593568</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>258.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3011,13 +3093,11 @@
         <v>3077.703322406433</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3052,13 +3132,11 @@
         <v>3077.703322406433</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>260.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3097,7 +3175,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3136,7 +3214,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3175,7 +3253,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3214,7 +3292,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3253,7 +3331,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3292,7 +3370,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3331,7 +3409,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3370,7 +3448,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3409,7 +3487,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3444,19 +3522,19 @@
         <v>-7667.982677593567</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>254</v>
+        <v>256.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.035944881889764</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -3486,8 +3564,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3600,17 @@
         <v>-6250.531877593568</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3549,11 +3639,17 @@
         <v>-4930.425977593568</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3582,11 +3678,17 @@
         <v>-4764.042477593568</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3615,11 +3717,17 @@
         <v>-5568.659477593568</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3756,17 @@
         <v>-2084.153577593568</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3681,11 +3795,17 @@
         <v>-2289.565577593568</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3714,11 +3834,17 @@
         <v>-3237.971877593568</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3750,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3783,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3813,11 +3951,17 @@
         <v>-3341.538577593568</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3849,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +4029,17 @@
         <v>-4362.509077593568</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3915,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3948,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3981,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4014,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4047,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4080,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4113,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4146,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4179,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4212,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4245,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4278,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4308,15 +4536,15 @@
         <v>5915.127122406433</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4347,12 +4575,12 @@
         <v>7665.127122406433</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,7 +4617,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,7 +4656,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,7 +4695,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,7 +4734,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,7 +4773,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4574,7 +4812,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,7 +4851,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,7 +4890,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,7 +4929,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,7 +4968,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,7 +5007,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,7 +5046,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,7 +5085,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,7 +5124,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,7 +5163,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,7 +5202,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,17 +5238,19 @@
         <v>31086.79536481125</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>256.2</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>1.03051912568306</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -5015,15 +5277,11 @@
         <v>25526.47086481125</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5052,15 +5310,11 @@
         <v>25503.77516481125</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5089,15 +5343,11 @@
         <v>19468.95206481125</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5126,15 +5376,11 @@
         <v>13912.59116481125</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5163,15 +5409,11 @@
         <v>13908.62756481125</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5200,15 +5442,11 @@
         <v>13745.81886481125</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5237,15 +5475,11 @@
         <v>13284.70606481125</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5274,15 +5508,11 @@
         <v>13284.70606481125</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5311,15 +5541,11 @@
         <v>14337.99056481125</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5348,15 +5574,11 @@
         <v>14337.99056481125</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5385,15 +5607,11 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5422,15 +5640,11 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5459,15 +5673,11 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5496,15 +5706,11 @@
         <v>15120.17816481125</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5533,15 +5739,11 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5570,15 +5772,11 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5607,15 +5805,11 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5644,15 +5838,11 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5685,11 +5875,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +5908,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5759,11 +5941,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5796,11 +5974,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +6007,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5870,11 +6040,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5907,11 +6073,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +6106,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +6139,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6018,11 +6172,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +6205,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6092,11 +6238,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6129,11 +6271,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6166,11 +6304,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +6337,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +6370,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6277,11 +6403,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6436,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +6469,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +6502,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6425,11 +6535,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6462,11 +6568,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6601,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +6634,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6667,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6700,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6733,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6766,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6799,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6832,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6795,11 +6865,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6832,11 +6898,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6869,11 +6931,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6906,11 +6964,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +6997,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6980,11 +7030,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +7063,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +7096,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +7129,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7124,16 +7158,14 @@
         <v>-553.1398351887492</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
       <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -7159,7 +7191,7 @@
         <v>-553.1398351887492</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7192,7 +7224,7 @@
         <v>-745.3096351887492</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7225,7 +7257,7 @@
         <v>-745.3096351887492</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7258,7 +7290,7 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7291,7 +7323,7 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7324,7 +7356,7 @@
         <v>-2147.474535188749</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7522,7 +7554,7 @@
         <v>-1803.377435188749</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7555,7 +7587,7 @@
         <v>-1700.101135188749</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7588,7 +7620,7 @@
         <v>-1412.426235188749</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7621,7 +7653,7 @@
         <v>-942.3519351887492</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7654,7 +7686,7 @@
         <v>-942.3519351887492</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7687,7 +7719,7 @@
         <v>747.0081648112509</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7720,7 +7752,7 @@
         <v>743.6870648112509</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7753,7 +7785,7 @@
         <v>-782.3663351887491</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7786,7 +7818,7 @@
         <v>-19.33963518874907</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7819,7 +7851,7 @@
         <v>10593.34036481125</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7852,7 +7884,7 @@
         <v>8830.31366481125</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7885,7 +7917,7 @@
         <v>8996.71366481125</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7918,7 +7950,7 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7929,6 +7961,6 @@
       <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>257.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,19 +748,11 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -793,19 +781,11 @@
         <v>-1105.187099999994</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,14 +814,10 @@
         <v>2463.895443511457</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>258.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -871,19 +847,11 @@
         <v>2468.150943511457</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -912,19 +880,11 @@
         <v>2468.150943511457</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,14 +913,10 @@
         <v>2436.610643511457</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
@@ -990,19 +946,11 @@
         <v>2312.610643511457</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1031,19 +979,11 @@
         <v>2292.837443511457</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +1012,10 @@
         <v>1926.054043511456</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>256.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1109,19 +1045,11 @@
         <v>-1515.322156488544</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1150,19 +1078,11 @@
         <v>-1148.538756488544</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>254.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1191,19 +1111,11 @@
         <v>-1589.538656488544</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>255</v>
-      </c>
-      <c r="J22" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,19 +1144,11 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>254.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1273,19 +1177,11 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>254</v>
-      </c>
-      <c r="J24" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,19 +1210,11 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>254</v>
-      </c>
-      <c r="J25" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1355,19 +1243,11 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>254</v>
-      </c>
-      <c r="J26" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1396,19 +1276,11 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,19 +1309,11 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1478,19 +1342,11 @@
         <v>-2986.249356488544</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>252.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1519,19 +1375,11 @@
         <v>-2989.344456488544</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1560,19 +1408,11 @@
         <v>-3120.344456488544</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>252</v>
-      </c>
-      <c r="J31" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1601,19 +1441,11 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1642,19 +1474,11 @@
         <v>-3399.678156488544</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1683,19 +1507,11 @@
         <v>-2788.011156488544</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1724,19 +1540,11 @@
         <v>-3354.619156488544</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1765,19 +1573,11 @@
         <v>-1796.927856488544</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>253.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1926,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2043,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>256.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2157,15 +1903,15 @@
         <v>-737.433556488544</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>256</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2196,12 +1942,12 @@
         <v>-262.399156488544</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>256</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,12 +1981,12 @@
         <v>-511.733956488544</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>256.8</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,12 +2020,12 @@
         <v>-761.3233564885441</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,9 +2062,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,9 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,9 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,12 +2170,12 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>255.1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2469,12 +2209,12 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>254</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,12 +2248,12 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,12 +2287,12 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,12 +2326,12 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>254.2</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,12 +2365,12 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>255.7</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,9 +2407,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,9 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2745,9 +2481,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,9 +2518,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,9 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,9 +2592,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,9 +2629,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,9 +2666,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,9 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,9 +2740,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,9 +2777,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,9 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3135,9 +2851,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,9 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,9 +2925,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,9 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,9 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3330,9 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,9 +3073,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,9 +3147,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,9 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,9 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,9 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,9 +3295,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,9 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,9 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,9 +3406,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,9 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,9 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,9 +3554,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,9 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,9 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,9 +3776,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,9 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,9 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,9 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,9 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,9 +3961,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4344,9 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,9 +4035,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4422,9 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,9 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4500,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,9 +4183,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4578,9 +4220,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,9 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,9 +4294,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,9 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,9 +4368,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,9 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4812,9 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,9 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,9 +4516,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,9 +4553,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4968,9 +4590,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5007,9 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,9 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5085,9 +4701,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,9 +4738,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,9 +4775,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5202,9 +4812,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5238,19 +4846,17 @@
         <v>31086.79536481125</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>256.2</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.03051912568306</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -5277,11 +4883,15 @@
         <v>25526.47086481125</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +4920,15 @@
         <v>25503.77516481125</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5343,11 +4957,15 @@
         <v>19468.95206481125</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +4994,15 @@
         <v>13912.59116481125</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5409,11 +5031,15 @@
         <v>13908.62756481125</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5068,15 @@
         <v>13745.81886481125</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5475,11 +5105,15 @@
         <v>13284.70606481125</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5142,15 @@
         <v>13284.70606481125</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5541,11 +5179,15 @@
         <v>14337.99056481125</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5574,11 +5216,15 @@
         <v>14337.99056481125</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5607,11 +5253,15 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5640,11 +5290,15 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5673,11 +5327,15 @@
         <v>15115.26366481125</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +5364,15 @@
         <v>15120.17816481125</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5401,15 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +5438,15 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5475,15 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5512,15 @@
         <v>533.8094648112528</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5875,7 +5553,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5908,7 +5590,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5941,7 +5627,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5974,7 +5664,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6007,7 +5701,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6040,7 +5738,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6073,7 +5775,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6106,7 +5812,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6139,7 +5849,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6172,7 +5886,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6205,7 +5923,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6238,7 +5960,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6271,7 +5997,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6304,7 +6034,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6337,7 +6071,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6370,7 +6108,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6403,7 +6145,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6436,7 +6182,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6469,7 +6219,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6502,7 +6256,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6535,7 +6293,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6568,7 +6330,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6601,7 +6367,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6634,7 +6404,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6667,7 +6441,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6700,7 +6478,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6733,7 +6515,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6766,7 +6552,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6799,7 +6589,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6832,7 +6626,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6865,7 +6663,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +6700,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6931,7 +6737,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6964,7 +6774,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6997,7 +6811,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7030,7 +6848,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7063,7 +6885,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7096,7 +6922,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7129,7 +6959,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7162,7 +6996,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7195,7 +7033,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7228,7 +7070,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7261,7 +7107,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7294,7 +7144,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7327,7 +7181,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7360,7 +7218,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7393,7 +7255,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7426,7 +7292,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7459,7 +7329,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7492,7 +7366,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7525,7 +7403,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7558,7 +7440,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7591,7 +7477,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7624,7 +7514,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7657,7 +7551,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7690,7 +7588,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7723,7 +7625,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7756,7 +7662,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7789,7 +7699,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7822,7 +7736,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7855,7 +7773,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7888,7 +7810,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7921,7 +7847,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7950,17 +7880,21 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -550,11 +550,17 @@
         <v>-1039.189699999994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>256.5</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +589,17 @@
         <v>-1050.105799999993</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>262.1</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,17 @@
         <v>-1270.306799999993</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>258</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +667,17 @@
         <v>-1270.306799999993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>256</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +706,17 @@
         <v>-1260.306799999993</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>256</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,17 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>257.9</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +784,17 @@
         <v>-1068.636799999993</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>258.5</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,17 @@
         <v>-1105.187099999994</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>258.5</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,17 @@
         <v>2463.895443511457</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>258.3</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +979,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1012,17 @@
         <v>2312.610643511457</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>258.2</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,15 @@
         <v>2292.837443511457</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1088,17 @@
         <v>1926.054043511456</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>256.2</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1127,17 @@
         <v>-1515.322156488544</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>255.3</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1166,17 @@
         <v>-1148.538756488544</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>254.1</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1205,17 @@
         <v>-1589.538656488544</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>255</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1244,15 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1281,17 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>254</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1320,15 @@
         <v>-1599.381156488544</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1357,15 @@
         <v>-2643.459156488544</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1394,15 @@
         <v>-2851.082856488544</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1431,15 @@
         <v>-2849.082856488544</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1472,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1509,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1546,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1583,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1620,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1657,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1694,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1731,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1768,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1805,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1842,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1879,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1916,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1953,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1990,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2027,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2064,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,15 +2097,13 @@
         <v>-737.433556488544</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1942,11 +2134,9 @@
         <v>-262.399156488544</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -1981,11 +2171,9 @@
         <v>-511.733956488544</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>256.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2020,11 +2208,9 @@
         <v>-761.3233564885441</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>256.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2170,11 +2356,9 @@
         <v>-1200.809556488544</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>255.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2209,11 +2393,9 @@
         <v>-1625.222056488544</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2248,11 +2430,9 @@
         <v>-798.9000564885442</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>252.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2287,11 +2467,9 @@
         <v>-74.41805648854427</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>253.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2326,11 +2504,9 @@
         <v>708.2079224064325</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2365,11 +2541,9 @@
         <v>12439.70982240643</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -7621,18 +7795,16 @@
         <v>747.0081648112509</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -7658,15 +7830,11 @@
         <v>743.6870648112509</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7695,15 +7863,11 @@
         <v>-782.3663351887491</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7732,15 +7896,11 @@
         <v>-19.33963518874907</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7769,15 +7929,11 @@
         <v>10593.34036481125</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7806,15 +7962,11 @@
         <v>8830.31366481125</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7843,15 +7995,11 @@
         <v>8996.71366481125</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7880,15 +8028,11 @@
         <v>48886.00426481125</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest ZRX.xlsx
+++ b/BackTest/2020-01-16 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>51.4761</v>
       </c>
       <c r="G2" t="n">
-        <v>6948.439800000006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12017.7595</v>
       </c>
       <c r="G3" t="n">
-        <v>-5069.319699999994</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>500</v>
       </c>
       <c r="G4" t="n">
-        <v>-5569.319699999994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,24 +533,15 @@
         <v>4530.13</v>
       </c>
       <c r="G5" t="n">
-        <v>-1039.189699999994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>256.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,24 +563,15 @@
         <v>10.9161</v>
       </c>
       <c r="G6" t="n">
-        <v>-1050.105799999993</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>262.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,24 +593,15 @@
         <v>220.201</v>
       </c>
       <c r="G7" t="n">
-        <v>-1270.306799999993</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,24 +623,15 @@
         <v>5468.4151</v>
       </c>
       <c r="G8" t="n">
-        <v>-1270.306799999993</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,24 +653,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>-1260.306799999993</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,24 +683,15 @@
         <v>191.67</v>
       </c>
       <c r="G10" t="n">
-        <v>-1068.636799999993</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>257.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,24 +713,15 @@
         <v>191</v>
       </c>
       <c r="G11" t="n">
-        <v>-1068.636799999993</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>258.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,24 +743,15 @@
         <v>36.5503</v>
       </c>
       <c r="G12" t="n">
-        <v>-1105.187099999994</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>258.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,24 +773,15 @@
         <v>3569.08254351145</v>
       </c>
       <c r="G13" t="n">
-        <v>2463.895443511457</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>258.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -898,22 +803,15 @@
         <v>4.2555</v>
       </c>
       <c r="G14" t="n">
-        <v>2468.150943511457</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,22 +833,15 @@
         <v>4.8386</v>
       </c>
       <c r="G15" t="n">
-        <v>2468.150943511457</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -972,22 +863,15 @@
         <v>31.5403</v>
       </c>
       <c r="G16" t="n">
-        <v>2436.610643511457</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,24 +893,15 @@
         <v>124</v>
       </c>
       <c r="G17" t="n">
-        <v>2312.610643511457</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>258.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,22 +923,15 @@
         <v>19.7732</v>
       </c>
       <c r="G18" t="n">
-        <v>2292.837443511457</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1085,24 +953,15 @@
         <v>366.7834</v>
       </c>
       <c r="G19" t="n">
-        <v>1926.054043511456</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,24 +983,15 @@
         <v>3441.3762</v>
       </c>
       <c r="G20" t="n">
-        <v>-1515.322156488544</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>255.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1163,24 +1013,15 @@
         <v>366.7834</v>
       </c>
       <c r="G21" t="n">
-        <v>-1148.538756488544</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>254.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1202,24 +1043,15 @@
         <v>440.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>-1589.538656488544</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1241,22 +1073,15 @@
         <v>9.842499999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-1599.381156488544</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1278,24 +1103,19 @@
         <v>10.5063</v>
       </c>
       <c r="G24" t="n">
-        <v>-1599.381156488544</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I24" t="n">
         <v>254</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1317,22 +1137,23 @@
         <v>2.1171</v>
       </c>
       <c r="G25" t="n">
-        <v>-1599.381156488544</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="I25" t="n">
+        <v>254</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1354,22 +1175,23 @@
         <v>1044.078</v>
       </c>
       <c r="G26" t="n">
-        <v>-2643.459156488544</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="I26" t="n">
+        <v>254</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1391,22 +1213,23 @@
         <v>207.6237</v>
       </c>
       <c r="G27" t="n">
-        <v>-2851.082856488544</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>253.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>254</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,22 +1251,23 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-2849.082856488544</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>252.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>254</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1465,22 +1289,23 @@
         <v>137.1665</v>
       </c>
       <c r="G29" t="n">
-        <v>-2986.249356488544</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>252.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>254</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,22 +1327,23 @@
         <v>3.0951</v>
       </c>
       <c r="G30" t="n">
-        <v>-2989.344456488544</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>252.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>254</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1539,22 +1365,23 @@
         <v>131</v>
       </c>
       <c r="G31" t="n">
-        <v>-3120.344456488544</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>252</v>
+      </c>
+      <c r="I31" t="n">
+        <v>254</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,22 +1403,23 @@
         <v>279.3337</v>
       </c>
       <c r="G32" t="n">
-        <v>-3399.678156488544</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>251.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>254</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1613,22 +1441,23 @@
         <v>43.071</v>
       </c>
       <c r="G33" t="n">
-        <v>-3399.678156488544</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>250.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>254</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1650,22 +1479,23 @@
         <v>611.667</v>
       </c>
       <c r="G34" t="n">
-        <v>-2788.011156488544</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>250.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>254</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1687,22 +1517,23 @@
         <v>566.6079999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-3354.619156488544</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>253.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>254</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1724,22 +1555,23 @@
         <v>1557.6913</v>
       </c>
       <c r="G36" t="n">
-        <v>-1796.927856488544</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>253.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>254</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1761,22 +1593,21 @@
         <v>1144.1159</v>
       </c>
       <c r="G37" t="n">
-        <v>-652.811956488544</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>254</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1798,22 +1629,21 @@
         <v>326.1865</v>
       </c>
       <c r="G38" t="n">
-        <v>-652.811956488544</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>254</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1835,22 +1665,21 @@
         <v>95.0163</v>
       </c>
       <c r="G39" t="n">
-        <v>-652.811956488544</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>254</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1872,22 +1701,21 @@
         <v>214</v>
       </c>
       <c r="G40" t="n">
-        <v>-866.811956488544</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>254</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1909,22 +1737,21 @@
         <v>169.56</v>
       </c>
       <c r="G41" t="n">
-        <v>-1036.371956488544</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>254</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1946,22 +1773,21 @@
         <v>8.187099999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-1044.559056488544</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>254</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1983,22 +1809,21 @@
         <v>150.3071</v>
       </c>
       <c r="G43" t="n">
-        <v>-894.251956488544</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>254</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2020,22 +1845,21 @@
         <v>150</v>
       </c>
       <c r="G44" t="n">
-        <v>-744.251956488544</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>254</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2057,22 +1881,21 @@
         <v>6.8184</v>
       </c>
       <c r="G45" t="n">
-        <v>-737.433556488544</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>254</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2094,22 +1917,21 @@
         <v>13747.9187</v>
       </c>
       <c r="G46" t="n">
-        <v>-737.433556488544</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>254</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2131,22 +1953,21 @@
         <v>475.0344</v>
       </c>
       <c r="G47" t="n">
-        <v>-262.399156488544</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>254</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2168,22 +1989,21 @@
         <v>249.3348</v>
       </c>
       <c r="G48" t="n">
-        <v>-511.733956488544</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>254</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2205,22 +2025,21 @@
         <v>249.5894</v>
       </c>
       <c r="G49" t="n">
-        <v>-761.3233564885441</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>254</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,22 +2061,21 @@
         <v>16.18</v>
       </c>
       <c r="G50" t="n">
-        <v>-761.3233564885441</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>254</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2279,22 +2097,21 @@
         <v>97.2826</v>
       </c>
       <c r="G51" t="n">
-        <v>-858.6059564885441</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>254</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2316,22 +2133,21 @@
         <v>324</v>
       </c>
       <c r="G52" t="n">
-        <v>-1182.605956488544</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>254</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2353,22 +2169,21 @@
         <v>18.2036</v>
       </c>
       <c r="G53" t="n">
-        <v>-1200.809556488544</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>254</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2390,22 +2205,21 @@
         <v>424.4125</v>
       </c>
       <c r="G54" t="n">
-        <v>-1625.222056488544</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>254</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2427,22 +2241,21 @@
         <v>826.322</v>
       </c>
       <c r="G55" t="n">
-        <v>-798.9000564885442</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>254</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2464,22 +2277,21 @@
         <v>724.482</v>
       </c>
       <c r="G56" t="n">
-        <v>-74.41805648854427</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>254</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2501,22 +2313,21 @@
         <v>782.6259788949768</v>
       </c>
       <c r="G57" t="n">
-        <v>708.2079224064325</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>254</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2538,22 +2349,21 @@
         <v>11731.5019</v>
       </c>
       <c r="G58" t="n">
-        <v>12439.70982240643</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>254</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2575,22 +2385,21 @@
         <v>9.842499999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>12449.55232240643</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>254</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2612,22 +2421,21 @@
         <v>76.995</v>
       </c>
       <c r="G60" t="n">
-        <v>12526.54732240643</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>254</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2649,22 +2457,21 @@
         <v>28.0802</v>
       </c>
       <c r="G61" t="n">
-        <v>12498.46712240643</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>254</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2686,22 +2493,21 @@
         <v>12.3379</v>
       </c>
       <c r="G62" t="n">
-        <v>12510.80502240643</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>254</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2723,22 +2529,21 @@
         <v>9141.413500000001</v>
       </c>
       <c r="G63" t="n">
-        <v>3369.391522406433</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>254</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2760,22 +2565,21 @@
         <v>1537.7415</v>
       </c>
       <c r="G64" t="n">
-        <v>4907.133022406433</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>254</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2797,22 +2601,21 @@
         <v>21.9123</v>
       </c>
       <c r="G65" t="n">
-        <v>4907.133022406433</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>254</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2834,22 +2637,21 @@
         <v>46.1041</v>
       </c>
       <c r="G66" t="n">
-        <v>4953.237122406433</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>254</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2871,22 +2673,21 @@
         <v>9635.504800000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-4682.267677593568</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>254</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,22 +2709,21 @@
         <v>2096.4355</v>
       </c>
       <c r="G68" t="n">
-        <v>-2585.832177593568</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>254</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2945,22 +2745,21 @@
         <v>1474.6855</v>
       </c>
       <c r="G69" t="n">
-        <v>-1111.146677593568</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>254</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2982,22 +2781,21 @@
         <v>4188.85</v>
       </c>
       <c r="G70" t="n">
-        <v>3077.703322406433</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>254</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3019,22 +2817,21 @@
         <v>58.8122</v>
       </c>
       <c r="G71" t="n">
-        <v>3077.703322406433</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>254</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3056,22 +2853,21 @@
         <v>174</v>
       </c>
       <c r="G72" t="n">
-        <v>3251.703322406433</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>254</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3093,22 +2889,21 @@
         <v>1160.597</v>
       </c>
       <c r="G73" t="n">
-        <v>2091.106322406433</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>254</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,22 +2925,21 @@
         <v>2509.7961</v>
       </c>
       <c r="G74" t="n">
-        <v>4600.902422406432</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>254</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3167,22 +2961,21 @@
         <v>2643.2237</v>
       </c>
       <c r="G75" t="n">
-        <v>7244.126122406433</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>254</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3204,22 +2997,21 @@
         <v>13713.5558</v>
       </c>
       <c r="G76" t="n">
-        <v>-6469.429677593567</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>254</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3241,22 +3033,21 @@
         <v>139.0444</v>
       </c>
       <c r="G77" t="n">
-        <v>-6330.385277593567</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>254</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3278,22 +3069,21 @@
         <v>1387.385</v>
       </c>
       <c r="G78" t="n">
-        <v>-6330.385277593567</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>254</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3315,22 +3105,21 @@
         <v>266.486</v>
       </c>
       <c r="G79" t="n">
-        <v>-6330.385277593567</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>254</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3352,22 +3141,21 @@
         <v>403.3406</v>
       </c>
       <c r="G80" t="n">
-        <v>-5927.044677593567</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>254</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3389,22 +3177,21 @@
         <v>1740.938</v>
       </c>
       <c r="G81" t="n">
-        <v>-7667.982677593567</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>254</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3426,22 +3213,21 @@
         <v>4535.5902</v>
       </c>
       <c r="G82" t="n">
-        <v>-3132.392477593567</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>254</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3463,22 +3249,21 @@
         <v>3118.1394</v>
       </c>
       <c r="G83" t="n">
-        <v>-6250.531877593568</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>254</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,22 +3285,21 @@
         <v>1320.1059</v>
       </c>
       <c r="G84" t="n">
-        <v>-4930.425977593568</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>254</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3537,22 +3321,21 @@
         <v>166.3835</v>
       </c>
       <c r="G85" t="n">
-        <v>-4764.042477593568</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>254</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3574,22 +3357,21 @@
         <v>804.617</v>
       </c>
       <c r="G86" t="n">
-        <v>-5568.659477593568</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>254</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3611,22 +3393,21 @@
         <v>3484.5059</v>
       </c>
       <c r="G87" t="n">
-        <v>-2084.153577593568</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>254</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3648,22 +3429,21 @@
         <v>205.412</v>
       </c>
       <c r="G88" t="n">
-        <v>-2289.565577593568</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>254</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3685,22 +3465,21 @@
         <v>948.4063</v>
       </c>
       <c r="G89" t="n">
-        <v>-3237.971877593568</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>254</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3722,22 +3501,21 @@
         <v>576.4333</v>
       </c>
       <c r="G90" t="n">
-        <v>-2661.538577593568</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>254</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3759,22 +3537,21 @@
         <v>89.33</v>
       </c>
       <c r="G91" t="n">
-        <v>-2661.538577593568</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>254</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3796,22 +3573,21 @@
         <v>680</v>
       </c>
       <c r="G92" t="n">
-        <v>-3341.538577593568</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>254</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3833,22 +3609,21 @@
         <v>1020.9705</v>
       </c>
       <c r="G93" t="n">
-        <v>-4362.509077593568</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>254</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3870,22 +3645,21 @@
         <v>26.09</v>
       </c>
       <c r="G94" t="n">
-        <v>-4362.509077593568</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>254</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3907,22 +3681,21 @@
         <v>351.5733</v>
       </c>
       <c r="G95" t="n">
-        <v>-4010.935777593568</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>254</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3944,22 +3717,21 @@
         <v>227.795</v>
       </c>
       <c r="G96" t="n">
-        <v>-4238.730777593568</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>254</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3981,22 +3753,21 @@
         <v>930.8546</v>
       </c>
       <c r="G97" t="n">
-        <v>-3307.876177593568</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>254</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4018,22 +3789,21 @@
         <v>774</v>
       </c>
       <c r="G98" t="n">
-        <v>-3307.876177593568</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>254</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4055,22 +3825,21 @@
         <v>67.7144</v>
       </c>
       <c r="G99" t="n">
-        <v>-3375.590577593568</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>254</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4092,22 +3861,21 @@
         <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>-3125.590577593568</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>254</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4129,22 +3897,21 @@
         <v>1656.02</v>
       </c>
       <c r="G101" t="n">
-        <v>-1469.570577593568</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>254</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4166,22 +3933,21 @@
         <v>4145.4432</v>
       </c>
       <c r="G102" t="n">
-        <v>-1469.570577593568</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>254</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4203,22 +3969,21 @@
         <v>19.4203</v>
       </c>
       <c r="G103" t="n">
-        <v>-1488.990877593568</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>254</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4240,22 +4005,21 @@
         <v>802.3898</v>
       </c>
       <c r="G104" t="n">
-        <v>-2291.380677593568</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>254</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4277,22 +4041,21 @@
         <v>147.97</v>
       </c>
       <c r="G105" t="n">
-        <v>-2439.350677593568</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>254</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4314,22 +4077,21 @@
         <v>110</v>
       </c>
       <c r="G106" t="n">
-        <v>-2549.350677593568</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>254</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4351,22 +4113,21 @@
         <v>8464.477800000001</v>
       </c>
       <c r="G107" t="n">
-        <v>5915.127122406433</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>254</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4388,22 +4149,21 @@
         <v>1750</v>
       </c>
       <c r="G108" t="n">
-        <v>7665.127122406433</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>254</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4425,22 +4185,21 @@
         <v>155.97</v>
       </c>
       <c r="G109" t="n">
-        <v>7509.157122406433</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>254</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4462,22 +4221,21 @@
         <v>12959.2747</v>
       </c>
       <c r="G110" t="n">
-        <v>-5450.117577593567</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>254</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4499,22 +4257,21 @@
         <v>2149.9779</v>
       </c>
       <c r="G111" t="n">
-        <v>-3300.139677593567</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>254</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4536,22 +4293,21 @@
         <v>589.3376</v>
       </c>
       <c r="G112" t="n">
-        <v>-2710.802077593567</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>254</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4573,22 +4329,21 @@
         <v>2451.6624</v>
       </c>
       <c r="G113" t="n">
-        <v>-259.1396775935673</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>254</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4610,22 +4365,21 @@
         <v>1333.8532</v>
       </c>
       <c r="G114" t="n">
-        <v>-259.1396775935673</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>254</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4647,22 +4401,21 @@
         <v>71.81010000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-187.3295775935673</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>254</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4684,22 +4437,21 @@
         <v>1137.6725</v>
       </c>
       <c r="G116" t="n">
-        <v>-1325.002077593567</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>254</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4721,22 +4473,21 @@
         <v>9.59</v>
       </c>
       <c r="G117" t="n">
-        <v>-1334.592077593567</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>254</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4758,22 +4509,21 @@
         <v>1635</v>
       </c>
       <c r="G118" t="n">
-        <v>-2969.592077593567</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>254</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4795,22 +4545,21 @@
         <v>13271.5276</v>
       </c>
       <c r="G119" t="n">
-        <v>10301.93552240643</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>254</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4832,22 +4581,21 @@
         <v>15077.4092</v>
       </c>
       <c r="G120" t="n">
-        <v>25379.34472240643</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>254</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4869,22 +4617,21 @@
         <v>108.87</v>
       </c>
       <c r="G121" t="n">
-        <v>25379.34472240643</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>254</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4906,22 +4653,21 @@
         <v>895.67</v>
       </c>
       <c r="G122" t="n">
-        <v>25379.34472240643</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>254</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4943,22 +4689,21 @@
         <v>1258.3168</v>
       </c>
       <c r="G123" t="n">
-        <v>25379.34472240643</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>254</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4980,22 +4725,21 @@
         <v>48</v>
       </c>
       <c r="G124" t="n">
-        <v>25427.34472240643</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>254</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5017,22 +4761,21 @@
         <v>5659.450642404825</v>
       </c>
       <c r="G125" t="n">
-        <v>31086.79536481125</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>254</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5054,22 +4797,21 @@
         <v>5560.3245</v>
       </c>
       <c r="G126" t="n">
-        <v>25526.47086481125</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>254</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5091,22 +4833,21 @@
         <v>22.6957</v>
       </c>
       <c r="G127" t="n">
-        <v>25503.77516481125</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>254</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5128,22 +4869,21 @@
         <v>6034.8231</v>
       </c>
       <c r="G128" t="n">
-        <v>19468.95206481125</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>254</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5165,22 +4905,21 @@
         <v>5556.3609</v>
       </c>
       <c r="G129" t="n">
-        <v>13912.59116481125</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>254</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5202,22 +4941,21 @@
         <v>3.9636</v>
       </c>
       <c r="G130" t="n">
-        <v>13908.62756481125</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>254</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5239,22 +4977,21 @@
         <v>162.8087</v>
       </c>
       <c r="G131" t="n">
-        <v>13745.81886481125</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>254</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5276,22 +5013,21 @@
         <v>461.1128</v>
       </c>
       <c r="G132" t="n">
-        <v>13284.70606481125</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>254</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5313,22 +5049,21 @@
         <v>1937.5605</v>
       </c>
       <c r="G133" t="n">
-        <v>13284.70606481125</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>254</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5350,22 +5085,21 @@
         <v>1053.2845</v>
       </c>
       <c r="G134" t="n">
-        <v>14337.99056481125</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>254</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5387,22 +5121,21 @@
         <v>14024.1247</v>
       </c>
       <c r="G135" t="n">
-        <v>14337.99056481125</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>254</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5424,22 +5157,21 @@
         <v>777.2731</v>
       </c>
       <c r="G136" t="n">
-        <v>15115.26366481125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>254</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5461,22 +5193,21 @@
         <v>322.8661</v>
       </c>
       <c r="G137" t="n">
-        <v>15115.26366481125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>254</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5498,22 +5229,21 @@
         <v>48.6941</v>
       </c>
       <c r="G138" t="n">
-        <v>15115.26366481125</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>254</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5535,22 +5265,21 @@
         <v>4.9145</v>
       </c>
       <c r="G139" t="n">
-        <v>15120.17816481125</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>254</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5572,22 +5301,21 @@
         <v>14586.3687</v>
       </c>
       <c r="G140" t="n">
-        <v>533.8094648112528</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>254</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5609,22 +5337,21 @@
         <v>1992.92</v>
       </c>
       <c r="G141" t="n">
-        <v>533.8094648112528</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>254</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5646,22 +5373,21 @@
         <v>368.31</v>
       </c>
       <c r="G142" t="n">
-        <v>533.8094648112528</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>254</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5683,22 +5409,21 @@
         <v>30.272</v>
       </c>
       <c r="G143" t="n">
-        <v>533.8094648112528</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>254</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5720,22 +5445,21 @@
         <v>476.9929</v>
       </c>
       <c r="G144" t="n">
-        <v>56.81656481125282</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>254</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5757,22 +5481,21 @@
         <v>11.4459</v>
       </c>
       <c r="G145" t="n">
-        <v>56.81656481125282</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>254</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5794,22 +5517,21 @@
         <v>2.3019</v>
       </c>
       <c r="G146" t="n">
-        <v>56.81656481125282</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>254</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5831,22 +5553,21 @@
         <v>17227.8707</v>
       </c>
       <c r="G147" t="n">
-        <v>56.81656481125282</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>254</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5868,22 +5589,21 @@
         <v>194.269</v>
       </c>
       <c r="G148" t="n">
-        <v>-137.4524351887472</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>254</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5905,22 +5625,21 @@
         <v>72.3954</v>
       </c>
       <c r="G149" t="n">
-        <v>-209.8478351887472</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>254</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5942,22 +5661,21 @@
         <v>9704.5995</v>
       </c>
       <c r="G150" t="n">
-        <v>-9914.447335188748</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>254</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5979,22 +5697,21 @@
         <v>129.52</v>
       </c>
       <c r="G151" t="n">
-        <v>-9784.927335188748</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>254</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6016,22 +5733,21 @@
         <v>85</v>
       </c>
       <c r="G152" t="n">
-        <v>-9784.927335188748</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>254</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6053,22 +5769,23 @@
         <v>10.2982</v>
       </c>
       <c r="G153" t="n">
-        <v>-9774.629135188748</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>251.6</v>
+      </c>
+      <c r="I153" t="n">
+        <v>254</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6090,22 +5807,21 @@
         <v>26</v>
       </c>
       <c r="G154" t="n">
-        <v>-9748.629135188748</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>254</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6127,22 +5843,21 @@
         <v>5.05</v>
       </c>
       <c r="G155" t="n">
-        <v>-9748.629135188748</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>254</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6164,22 +5879,21 @@
         <v>1.015</v>
       </c>
       <c r="G156" t="n">
-        <v>-9748.629135188748</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>254</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6201,22 +5915,21 @@
         <v>1696.0109</v>
       </c>
       <c r="G157" t="n">
-        <v>-8052.618235188748</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>254</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6238,22 +5951,21 @@
         <v>3175.0666</v>
       </c>
       <c r="G158" t="n">
-        <v>-4877.551635188748</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>254</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6275,22 +5987,21 @@
         <v>243</v>
       </c>
       <c r="G159" t="n">
-        <v>-5120.551635188748</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>254</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6312,22 +6023,21 @@
         <v>174.53</v>
       </c>
       <c r="G160" t="n">
-        <v>-4946.021635188748</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>254</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6349,22 +6059,21 @@
         <v>174</v>
       </c>
       <c r="G161" t="n">
-        <v>-4946.021635188748</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>254</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6386,22 +6095,21 @@
         <v>10.6067</v>
       </c>
       <c r="G162" t="n">
-        <v>-4935.414935188748</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>254</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6423,22 +6131,21 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>-4935.414935188748</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>254</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6460,22 +6167,21 @@
         <v>3368.3085</v>
       </c>
       <c r="G164" t="n">
-        <v>-8303.723435188749</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>254</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6497,22 +6203,21 @@
         <v>845.1004</v>
       </c>
       <c r="G165" t="n">
-        <v>-9148.823835188748</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>254</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6534,22 +6239,21 @@
         <v>1432.98</v>
       </c>
       <c r="G166" t="n">
-        <v>-10581.80383518875</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>254</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6571,22 +6275,23 @@
         <v>223.5405</v>
       </c>
       <c r="G167" t="n">
-        <v>-10358.26333518875</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>254.5</v>
+      </c>
+      <c r="I167" t="n">
+        <v>254</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6608,22 +6313,21 @@
         <v>41</v>
       </c>
       <c r="G168" t="n">
-        <v>-10317.26333518875</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>254</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6645,22 +6349,21 @@
         <v>7.5</v>
       </c>
       <c r="G169" t="n">
-        <v>-10317.26333518875</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>254</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6682,22 +6385,21 @@
         <v>141.7248</v>
       </c>
       <c r="G170" t="n">
-        <v>-10175.53853518875</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>254</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6719,22 +6421,21 @@
         <v>5722</v>
       </c>
       <c r="G171" t="n">
-        <v>-4453.538535188749</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>254</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,22 +6457,21 @@
         <v>174</v>
       </c>
       <c r="G172" t="n">
-        <v>-4453.538535188749</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>254</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6793,22 +6493,21 @@
         <v>6.95</v>
       </c>
       <c r="G173" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>254</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6830,22 +6529,21 @@
         <v>43.79</v>
       </c>
       <c r="G174" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>254</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6867,22 +6565,21 @@
         <v>1585.29</v>
       </c>
       <c r="G175" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>254</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6904,22 +6601,21 @@
         <v>317.0565</v>
       </c>
       <c r="G176" t="n">
-        <v>-4446.588535188749</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>254</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6941,22 +6637,21 @@
         <v>1149.425</v>
       </c>
       <c r="G177" t="n">
-        <v>-3297.163535188749</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>254</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6978,22 +6673,21 @@
         <v>1171.2212</v>
       </c>
       <c r="G178" t="n">
-        <v>-4468.384735188749</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>254</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7015,22 +6709,21 @@
         <v>584.2188</v>
       </c>
       <c r="G179" t="n">
-        <v>-3884.165935188749</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>254</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7052,22 +6745,21 @@
         <v>1605.2555</v>
       </c>
       <c r="G180" t="n">
-        <v>-2278.910435188749</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>254</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7089,22 +6781,21 @@
         <v>1901.0865</v>
       </c>
       <c r="G181" t="n">
-        <v>-377.8239351887491</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>254</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7126,22 +6817,21 @@
         <v>5468.4151</v>
       </c>
       <c r="G182" t="n">
-        <v>-377.8239351887491</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>254</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7163,22 +6853,21 @@
         <v>175.3159</v>
       </c>
       <c r="G183" t="n">
-        <v>-553.1398351887492</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>254</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7200,22 +6889,21 @@
         <v>215</v>
       </c>
       <c r="G184" t="n">
-        <v>-553.1398351887492</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>254</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7237,22 +6925,21 @@
         <v>192.1698</v>
       </c>
       <c r="G185" t="n">
-        <v>-745.3096351887492</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>254</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7274,22 +6961,21 @@
         <v>1511.1073</v>
       </c>
       <c r="G186" t="n">
-        <v>-745.3096351887492</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>254</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7311,22 +6997,21 @@
         <v>1402.1649</v>
       </c>
       <c r="G187" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>254</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7348,22 +7033,21 @@
         <v>1799.0151</v>
       </c>
       <c r="G188" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>254</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7385,22 +7069,21 @@
         <v>200.9849</v>
       </c>
       <c r="G189" t="n">
-        <v>-2147.474535188749</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>254</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7422,22 +7105,21 @@
         <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>-2137.474535188749</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>254</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7459,22 +7141,21 @@
         <v>166.4493</v>
       </c>
       <c r="G191" t="n">
-        <v>-2303.923835188749</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>254</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7496,22 +7177,21 @@
         <v>2032.603</v>
       </c>
       <c r="G192" t="n">
-        <v>-2303.923835188749</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>254</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7533,22 +7213,21 @@
         <v>10.4363</v>
       </c>
       <c r="G193" t="n">
-        <v>-2293.487535188749</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>254</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7570,22 +7249,21 @@
         <v>227.1101</v>
       </c>
       <c r="G194" t="n">
-        <v>-2066.377435188749</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>254</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7607,22 +7285,21 @@
         <v>263</v>
       </c>
       <c r="G195" t="n">
-        <v>-1803.377435188749</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>254</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7644,22 +7321,21 @@
         <v>103.2763</v>
       </c>
       <c r="G196" t="n">
-        <v>-1700.101135188749</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>254</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7681,22 +7357,21 @@
         <v>287.6749</v>
       </c>
       <c r="G197" t="n">
-        <v>-1412.426235188749</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>254</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7718,22 +7393,21 @@
         <v>470.0743</v>
       </c>
       <c r="G198" t="n">
-        <v>-942.3519351887492</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>254</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7755,22 +7429,21 @@
         <v>23.3468</v>
       </c>
       <c r="G199" t="n">
-        <v>-942.3519351887492</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>254</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7792,20 +7465,21 @@
         <v>1689.3601</v>
       </c>
       <c r="G200" t="n">
-        <v>747.0081648112509</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>254</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
       </c>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7827,18 +7501,21 @@
         <v>3.3211</v>
       </c>
       <c r="G201" t="n">
-        <v>743.6870648112509</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>254</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7860,18 +7537,21 @@
         <v>1526.0534</v>
       </c>
       <c r="G202" t="n">
-        <v>-782.3663351887491</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>254</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7893,18 +7573,21 @@
         <v>763.0267</v>
       </c>
       <c r="G203" t="n">
-        <v>-19.33963518874907</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>254</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7926,18 +7609,23 @@
         <v>10612.68</v>
       </c>
       <c r="G204" t="n">
-        <v>10593.34036481125</v>
-      </c>
-      <c r="H204" t="n">
         <v>2</v>
       </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>254</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1.07255905511811</v>
+      </c>
       <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>1.039763779527559</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7959,18 +7647,15 @@
         <v>1763.0267</v>
       </c>
       <c r="G205" t="n">
-        <v>8830.31366481125</v>
-      </c>
-      <c r="H205" t="n">
         <v>2</v>
       </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7992,18 +7677,15 @@
         <v>166.4</v>
       </c>
       <c r="G206" t="n">
-        <v>8996.71366481125</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8025,18 +7707,15 @@
         <v>39889.2906</v>
       </c>
       <c r="G207" t="n">
-        <v>48886.00426481125</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
